--- a/Robo Pr0n/Corona_Testing_for_RoboPr0n_BugTracker_Ver2.xlsx
+++ b/Robo Pr0n/Corona_Testing_for_RoboPr0n_BugTracker_Ver2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="95">
   <si>
     <t>Category</t>
   </si>
@@ -206,9 +206,6 @@
     <t>Number of bugs tester team must find</t>
   </si>
   <si>
-    <t>###</t>
-  </si>
-  <si>
     <t>Tester #1 name:</t>
   </si>
   <si>
@@ -279,6 +276,42 @@
   </si>
   <si>
     <t>Robo Pr0n</t>
+  </si>
+  <si>
+    <t>Anthony Grafft</t>
+  </si>
+  <si>
+    <t>269.986.2417</t>
+  </si>
+  <si>
+    <t>anothonystar101@gmail.com</t>
+  </si>
+  <si>
+    <t>Mitch Weisrock</t>
+  </si>
+  <si>
+    <t>262.374.9359</t>
+  </si>
+  <si>
+    <t>Anothy Edwards</t>
+  </si>
+  <si>
+    <t>BatteryOperatedBanana@gmail.com</t>
+  </si>
+  <si>
+    <t>407.156.6051</t>
+  </si>
+  <si>
+    <t>Amedwar75@gmail.com</t>
+  </si>
+  <si>
+    <t>Nick DeSantis</t>
+  </si>
+  <si>
+    <t>720.256.0767</t>
+  </si>
+  <si>
+    <t>mrnickdesantis@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -641,19 +674,19 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -959,7 +992,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -979,7 +1012,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -993,7 +1026,7 @@
     </row>
     <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -1036,13 +1069,13 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" thickTop="1">
       <c r="A5" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="C5" s="22" t="s">
         <v>72</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>73</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="7" t="s">
@@ -1052,13 +1085,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="C6" s="24" t="s">
         <v>75</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>76</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="7" t="s">
@@ -1068,13 +1101,13 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1">
       <c r="A7" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="C7" s="24" t="s">
         <v>78</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>79</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="8" t="s">
@@ -1084,13 +1117,13 @@
     </row>
     <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="C8" s="32" t="s">
         <v>81</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>82</v>
       </c>
       <c r="D8" s="26"/>
       <c r="E8" s="16" t="s">
@@ -1120,7 +1153,7 @@
     </row>
     <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -1156,9 +1189,15 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickTop="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
+      <c r="A14" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>85</v>
+      </c>
       <c r="E14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1166,10 +1205,14 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
+        <v>86</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>89</v>
+      </c>
       <c r="E15" s="1" t="s">
         <v>22</v>
       </c>
@@ -1177,10 +1220,14 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
+        <v>88</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>91</v>
+      </c>
       <c r="E16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1188,10 +1235,14 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1">
       <c r="A17" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+        <v>92</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>94</v>
+      </c>
       <c r="E17" s="1" t="s">
         <v>24</v>
       </c>
@@ -1213,8 +1264,8 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="31" t="s">
-        <v>59</v>
+      <c r="A20" s="31">
+        <v>30</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>26</v>
@@ -1363,9 +1414,13 @@
     <hyperlink ref="C6" r:id="rId2"/>
     <hyperlink ref="C7" r:id="rId3"/>
     <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C14" r:id="rId5"/>
+    <hyperlink ref="C15" r:id="rId6"/>
+    <hyperlink ref="C16" r:id="rId7"/>
+    <hyperlink ref="C17" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -1384,18 +1439,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
+      <c r="A1" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
         <v>60</v>
-      </c>
-      <c r="B2" t="s">
-        <v>61</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -1445,68 +1500,68 @@
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
     </row>
     <row r="10" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
     </row>
     <row r="12" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
     </row>
     <row r="14" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="16" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -1554,68 +1609,68 @@
       <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
     </row>
     <row r="24" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
     </row>
     <row r="26" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
     </row>
     <row r="28" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="30" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -1663,68 +1718,68 @@
       <c r="D34" s="14"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="32"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
     </row>
     <row r="38" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A38" s="32"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
     </row>
     <row r="40" spans="1:8" ht="47.25" customHeight="1">
-      <c r="A40" s="32"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
     </row>
     <row r="42" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A42" s="32"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="44" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="A44" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>
@@ -1772,63 +1827,89 @@
       <c r="D48" s="14"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="32"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="33" t="s">
+      <c r="A51" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
     </row>
     <row r="52" spans="1:4" ht="49.5" customHeight="1">
-      <c r="A52" s="32"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="34" t="s">
+      <c r="A53" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
     </row>
     <row r="54" spans="1:4" ht="49.5" customHeight="1">
-      <c r="A54" s="32"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="34" t="s">
+      <c r="A55" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
     </row>
     <row r="56" spans="1:4" ht="49.5" customHeight="1">
-      <c r="A56" s="32"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A7:D7"/>
@@ -1836,32 +1917,6 @@
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B4 B18 B32">

--- a/Robo Pr0n/Corona_Testing_for_RoboPr0n_BugTracker_Ver2.xlsx
+++ b/Robo Pr0n/Corona_Testing_for_RoboPr0n_BugTracker_Ver2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="21975" windowHeight="14055"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="21975" windowHeight="14055" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info and definitions" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="116">
   <si>
     <t>Category</t>
   </si>
@@ -179,9 +179,6 @@
     <t>This is an increamented number for every bug found for a game. EX: If you must find 50 bugs for a group, your first bug entry is 1|50.</t>
   </si>
   <si>
-    <t>1|50</t>
-  </si>
-  <si>
     <t>First</t>
   </si>
   <si>
@@ -209,18 +206,6 @@
     <t>Tester #1 name:</t>
   </si>
   <si>
-    <t>Student 1</t>
-  </si>
-  <si>
-    <t>Student 2</t>
-  </si>
-  <si>
-    <t>Student 3</t>
-  </si>
-  <si>
-    <t>Student 4</t>
-  </si>
-  <si>
     <t>Tester #3 name:</t>
   </si>
   <si>
@@ -312,6 +297,84 @@
   </si>
   <si>
     <t>mrnickdesantis@gmail.com</t>
+  </si>
+  <si>
+    <t>5.20.2010</t>
+  </si>
+  <si>
+    <t>Multiple Players</t>
+  </si>
+  <si>
+    <t>Start playing the game, Exit the game, Change the options, Enter the game.</t>
+  </si>
+  <si>
+    <t>Previous copies of the player character remained on screen</t>
+  </si>
+  <si>
+    <t>Only the playable character.</t>
+  </si>
+  <si>
+    <t>Locked into the Map Screen</t>
+  </si>
+  <si>
+    <t>Start the game, pause the game, open the map.</t>
+  </si>
+  <si>
+    <t>Being able to leave the map screen.</t>
+  </si>
+  <si>
+    <t>Unable to leave the map using the gamepad or keyboard</t>
+  </si>
+  <si>
+    <t>Save and Load Does not work.</t>
+  </si>
+  <si>
+    <t>Reach a save "sphere," Save the game, Exit the save menu, Load the Game</t>
+  </si>
+  <si>
+    <t>The game seemed to save, and the game loaded fine if the player doesn't exit the save screen.  After the player exits the save screen, the saved file reverted</t>
+  </si>
+  <si>
+    <t>The game to be saved, and loadable after dying or walking away from the "sphere"</t>
+  </si>
+  <si>
+    <t>Game Doesn't Run from the Desktop</t>
+  </si>
+  <si>
+    <t>Install the game, Run the game from the desktop shortcut</t>
+  </si>
+  <si>
+    <t>The game to run.</t>
+  </si>
+  <si>
+    <t>Black screen appears and does not change</t>
+  </si>
+  <si>
+    <t>4 | 30</t>
+  </si>
+  <si>
+    <t>1|30</t>
+  </si>
+  <si>
+    <t>2|30</t>
+  </si>
+  <si>
+    <t>3|30</t>
+  </si>
+  <si>
+    <t>5 | 30</t>
+  </si>
+  <si>
+    <t>Stats Option closes instantly</t>
+  </si>
+  <si>
+    <t>Start the game using the gamepad, Pause the game, select "stats".</t>
+  </si>
+  <si>
+    <t>The "Stats" screen flashes for one frame.</t>
+  </si>
+  <si>
+    <t>The "stats" screen to appear until left</t>
   </si>
 </sst>
 </file>
@@ -625,7 +688,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -678,14 +741,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -991,7 +1060,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1012,7 +1081,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" s="16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -1026,7 +1095,7 @@
     </row>
     <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="31" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -1052,13 +1121,13 @@
     </row>
     <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="C4" s="16" t="s">
         <v>55</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>56</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>34</v>
@@ -1069,61 +1138,61 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" thickTop="1">
       <c r="A5" s="28" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="28" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1">
       <c r="A7" s="28" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="29" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D8" s="26"/>
       <c r="E8" s="16" t="s">
@@ -1142,7 +1211,7 @@
     </row>
     <row r="10" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -1153,7 +1222,7 @@
     </row>
     <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="30" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -1175,13 +1244,13 @@
     </row>
     <row r="13" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A13" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="C13" s="16" t="s">
         <v>55</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>56</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>20</v>
@@ -1190,13 +1259,13 @@
     </row>
     <row r="14" spans="1:6" ht="15.75" thickTop="1">
       <c r="A14" s="28" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>21</v>
@@ -1205,13 +1274,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="28" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>22</v>
@@ -1220,13 +1289,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="28" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>23</v>
@@ -1235,13 +1304,13 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1">
       <c r="A17" s="29" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>24</v>
@@ -1256,7 +1325,7 @@
     </row>
     <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>25</v>
@@ -1427,30 +1496,41 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="20.7109375" customWidth="1"/>
+    <col min="1" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+    </row>
+    <row r="2" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -1458,8 +1538,16 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickTop="1">
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickTop="1">
       <c r="A3" s="11" t="s">
         <v>32</v>
       </c>
@@ -1472,16 +1560,86 @@
       <c r="D3" s="11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="E3" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="18"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
@@ -1492,76 +1650,280 @@
         <v>34</v>
       </c>
       <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
+      <c r="E5" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="34"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="35" t="s">
+      <c r="E6" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
       <c r="D9" s="36"/>
-    </row>
-    <row r="10" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="35" t="s">
+      <c r="E9" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+    </row>
+    <row r="10" spans="1:16" ht="50.1" customHeight="1">
+      <c r="A10" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-    </row>
-    <row r="12" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="35" t="s">
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+    </row>
+    <row r="12" spans="1:16" ht="50.1" customHeight="1">
+      <c r="A12" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-    </row>
-    <row r="14" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="16" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+    </row>
+    <row r="14" spans="1:16" ht="50.1" customHeight="1">
+      <c r="A14" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="16" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -1583,12 +1945,36 @@
       <c r="D17" s="13" t="s">
         <v>1</v>
       </c>
+      <c r="E17" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="18"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="A18" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="13" t="s">
@@ -1601,26 +1987,58 @@
         <v>34</v>
       </c>
       <c r="D19" s="13"/>
+      <c r="E19" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="A20" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="D20" s="14"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1">
+      <c r="A22" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="36" t="s">
@@ -1629,48 +2047,84 @@
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
       <c r="D23" s="36"/>
+      <c r="E23" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
     </row>
     <row r="24" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
+      <c r="A24" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
+      <c r="A26" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
     </row>
     <row r="28" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
+      <c r="A28" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="30" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -1718,18 +2172,18 @@
       <c r="D34" s="14"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="36" t="s">
@@ -1740,46 +2194,46 @@
       <c r="D37" s="36"/>
     </row>
     <row r="38" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
     </row>
     <row r="40" spans="1:8" ht="47.25" customHeight="1">
-      <c r="A40" s="33"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
     </row>
     <row r="42" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="44" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="A44" s="16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>
@@ -1801,12 +2255,36 @@
       <c r="D45" s="13" t="s">
         <v>1</v>
       </c>
+      <c r="E45" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G45" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="H45" s="34" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="18"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
+      <c r="A46" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="18"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="13" t="s">
@@ -1819,97 +2297,179 @@
         <v>34</v>
       </c>
       <c r="D47" s="13"/>
+      <c r="E47" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="H47" s="34"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
+      <c r="A48" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="D48" s="14"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="35" t="s">
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="33"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
       <c r="D51" s="36"/>
-    </row>
-    <row r="52" spans="1:4" ht="49.5" customHeight="1">
-      <c r="A52" s="33"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="35" t="s">
+      <c r="E51" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+    </row>
+    <row r="52" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A52" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-    </row>
-    <row r="54" spans="1:4" ht="49.5" customHeight="1">
-      <c r="A54" s="33"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="35" t="s">
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+    </row>
+    <row r="54" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A54" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-    </row>
-    <row r="56" spans="1:4" ht="49.5" customHeight="1">
-      <c r="A56" s="33"/>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+    </row>
+    <row r="56" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A56" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
+  <mergeCells count="73">
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A7:D7"/>
@@ -1917,21 +2477,47 @@
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B4 B18 B32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B4 B18 B32 F4 J4 N4 F18 F46">
       <formula1>severity</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46 C4 C18 C32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46 C4 C18 C32 G4 K4 O4 G18 G46">
       <formula1>category</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46 D4 D18 D32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46 D4 D18 D32 H4 L4 P4 H18 H46">
       <formula1>component</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A48 A6 A20 A34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A48 A6 A20 A34 E6 I6 M6 E20 E48">
       <formula1>status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48 C6 C20 C34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48 C6 C20 C34 G6 K6 O6 G20 G48">
       <formula1>build_found</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44 B2 B16 B30">

--- a/Robo Pr0n/Corona_Testing_for_RoboPr0n_BugTracker_Ver2.xlsx
+++ b/Robo Pr0n/Corona_Testing_for_RoboPr0n_BugTracker_Ver2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="126">
   <si>
     <t>Category</t>
   </si>
@@ -329,12 +329,6 @@
     <t>Save and Load Does not work.</t>
   </si>
   <si>
-    <t>Reach a save "sphere," Save the game, Exit the save menu, Load the Game</t>
-  </si>
-  <si>
-    <t>The game seemed to save, and the game loaded fine if the player doesn't exit the save screen.  After the player exits the save screen, the saved file reverted</t>
-  </si>
-  <si>
     <t>The game to be saved, and loadable after dying or walking away from the "sphere"</t>
   </si>
   <si>
@@ -375,6 +369,42 @@
   </si>
   <si>
     <t>The "stats" screen to appear until left</t>
+  </si>
+  <si>
+    <t>Reach a save "sphere," Save the game in slot three, Exit the save menu, Load the Game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The game saved in slot 3 either disappeared, or if loaded without leaving the save menu, teleported the player to the middle of "nowhere." </t>
+  </si>
+  <si>
+    <t>6 | 30</t>
+  </si>
+  <si>
+    <t>7 | 30</t>
+  </si>
+  <si>
+    <t>Infinite Jump in the Warden Room</t>
+  </si>
+  <si>
+    <t>Enter the warden room, Use the Linear Ability to get to the top floor, Jump</t>
+  </si>
+  <si>
+    <t>Can continue to jump over and over again. Player will jump off screen. Jump long enough and the player doesn't seem to come back</t>
+  </si>
+  <si>
+    <t>Player to jump and land normally</t>
+  </si>
+  <si>
+    <t>Enter Warden Room from the floor below.</t>
+  </si>
+  <si>
+    <t>In the first level past the tutorials:  Jump up through the second pit, head to the right until past the Gray Bar that signals the level exit, head back to the left until halfway across the pit.</t>
+  </si>
+  <si>
+    <t>Transitions to the Warden level</t>
+  </si>
+  <si>
+    <t>Falling down the pit.</t>
   </si>
 </sst>
 </file>
@@ -485,7 +515,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -674,6 +704,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -704,25 +771,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6"/>
@@ -739,22 +791,37 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1080,12 +1147,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
       <c r="E1" t="s">
         <v>14</v>
       </c>
@@ -1094,162 +1161,162 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="16" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="13" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="16" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickTop="1">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="26"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="26"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="7" t="s">
         <v>51</v>
       </c>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="8" t="s">
         <v>52</v>
       </c>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="16" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="D9" s="27"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
       <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
       <c r="E11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="E12" s="16" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="E12" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="12" t="s">
         <v>55</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -1258,13 +1325,13 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickTop="1">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="17" t="s">
         <v>80</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -1273,13 +1340,13 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="19" t="s">
         <v>84</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -1288,13 +1355,13 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="19" t="s">
         <v>86</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -1303,13 +1370,13 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="27" t="s">
         <v>89</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -1324,7 +1391,7 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="12" t="s">
         <v>57</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -1333,7 +1400,7 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="31">
+      <c r="A20" s="26">
         <v>30</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -1378,10 +1445,10 @@
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" ht="46.5" thickTop="1" thickBot="1">
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="13" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1398,57 +1465,57 @@
       <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1">
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="31.5" thickTop="1" thickBot="1">
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="33" spans="3:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="34" spans="3:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F34" s="17" t="s">
+      <c r="F34" s="13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="35" spans="3:6" ht="16.5" thickTop="1" thickBot="1">
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F35" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="36" spans="3:6" ht="31.5" thickTop="1" thickBot="1">
-      <c r="C36" s="20"/>
-      <c r="E36" s="16" t="s">
+      <c r="C36" s="15"/>
+      <c r="E36" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="F36" s="13" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1466,7 +1533,7 @@
       <c r="F38" s="5"/>
     </row>
     <row r="39" spans="3:6">
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F39" s="5"/>
@@ -1496,955 +1563,1115 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:D54"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14:T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
-    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="1" max="3" width="20.7109375" style="34" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="34" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="34" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="34" customWidth="1"/>
+    <col min="8" max="8" width="11" style="34" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="34" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="34" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="34" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="34" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="34"/>
+    <col min="14" max="14" width="12.85546875" style="34" customWidth="1"/>
+    <col min="15" max="15" width="13" style="34" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="34"/>
+    <col min="17" max="17" width="10.42578125" style="34" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="34" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" style="34" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" style="34" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A1" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-    </row>
-    <row r="2" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="16" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+    </row>
+    <row r="2" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A2" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" thickTop="1">
-      <c r="A3" s="11" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+    </row>
+    <row r="3" spans="1:20" ht="30.75" thickTop="1">
+      <c r="A3" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="M3" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="34" t="s">
+      <c r="N3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="34" t="s">
+      <c r="O3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="34" t="s">
+      <c r="P3" s="36" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="18" t="s">
+      <c r="Q3" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="30">
+      <c r="A4" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="J4" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="N4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="O4" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="R4" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="T4" s="38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="30">
+      <c r="A5" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" s="36"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="S6" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="T6" s="38"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+    </row>
+    <row r="10" spans="1:20" ht="50.1" customHeight="1">
+      <c r="A10" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="31"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+    </row>
+    <row r="12" spans="1:20" ht="50.1" customHeight="1">
+      <c r="A12" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+    </row>
+    <row r="14" spans="1:20" ht="50.1" customHeight="1">
+      <c r="A14" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" thickBot="1"/>
+    <row r="16" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A16" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+    </row>
+    <row r="17" spans="1:8" ht="30.75" thickTop="1">
+      <c r="A17" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="18"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="11" t="s">
+      <c r="D18" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B19" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C19" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="34" t="s">
+      <c r="D19" s="36"/>
+      <c r="E19" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F19" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G19" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" s="34"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="12" t="s">
+      <c r="H19" s="36"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B20" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C20" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="K6" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="37" t="s">
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37" t="s">
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="36" t="s">
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1">
+      <c r="A22" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36" t="s">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-    </row>
-    <row r="10" spans="1:16" ht="50.1" customHeight="1">
-      <c r="A10" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="37" t="s">
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+    </row>
+    <row r="24" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A24" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37" t="s">
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-    </row>
-    <row r="12" spans="1:16" ht="50.1" customHeight="1">
-      <c r="A12" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="37" t="s">
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+    </row>
+    <row r="26" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A26" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37" t="s">
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-    </row>
-    <row r="14" spans="1:16" ht="50.1" customHeight="1">
-      <c r="A14" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1"/>
-    <row r="16" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickTop="1">
-      <c r="A17" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="34"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1">
-      <c r="A22" s="35" t="s">
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+    </row>
+    <row r="28" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A28" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-    </row>
-    <row r="24" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A24" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-    </row>
-    <row r="26" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A26" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-    </row>
-    <row r="28" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A28" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="30" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickTop="1">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="36" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="18"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="13"/>
+      <c r="D33" s="36"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
     </row>
     <row r="38" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A38" s="35"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
     </row>
     <row r="40" spans="1:8" ht="47.25" customHeight="1">
-      <c r="A40" s="35"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
     </row>
     <row r="42" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A42" s="35"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="44" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" thickTop="1">
-      <c r="A45" s="13" t="s">
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+    </row>
+    <row r="45" spans="1:8" ht="30.75" thickTop="1">
+      <c r="A45" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E45" s="34" t="s">
+      <c r="E45" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F45" s="34" t="s">
+      <c r="F45" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="G45" s="34" t="s">
+      <c r="G45" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="H45" s="34" t="s">
+      <c r="H45" s="36" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="37"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="H47" s="36"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+    </row>
+    <row r="52" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A52" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B46" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" s="18"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="G47" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="H47" s="34"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="35" t="s">
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+    </row>
+    <row r="54" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A54" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-    </row>
-    <row r="52" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A52" s="35" t="s">
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+    </row>
+    <row r="56" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A56" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B53" s="37"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-    </row>
-    <row r="54" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A54" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-    </row>
-    <row r="56" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A56" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
+  <mergeCells count="81">
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
     <mergeCell ref="M12:P12"/>
     <mergeCell ref="M13:P13"/>
     <mergeCell ref="M14:P14"/>
@@ -2461,63 +2688,36 @@
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="I9:L9"/>
     <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E56:H56"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B4 B18 B32 F4 J4 N4 F18 F46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B4 B18 B32 F4 J4 N4 F18 F46 R4">
       <formula1>severity</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46 C4 C18 C32 G4 K4 O4 G18 G46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46 C4 C18 C32 G4 K4 O4 G18 G46 S4">
       <formula1>category</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46 D4 D18 D32 H4 L4 P4 H18 H46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46 D4 D18 D32 H4 L4 P4 H18 H46 T4">
       <formula1>component</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A48 A6 A20 A34 E6 I6 M6 E20 E48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A48 A6 A20 A34 E6 I6 M6 E20 E48 Q6">
       <formula1>status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48 C6 C20 C34 G6 K6 O6 G20 G48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48 C6 C20 C34 G6 K6 O6 G20 G48 S6">
       <formula1>build_found</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44 B2 B16 B30">
@@ -2525,5 +2725,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Robo Pr0n/Corona_Testing_for_RoboPr0n_BugTracker_Ver2.xlsx
+++ b/Robo Pr0n/Corona_Testing_for_RoboPr0n_BugTracker_Ver2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="130">
   <si>
     <t>Category</t>
   </si>
@@ -405,6 +405,18 @@
   </si>
   <si>
     <t>Falling down the pit.</t>
+  </si>
+  <si>
+    <t>Displays attack in wrong direction right after running</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run in a corridor, stop and immediately attack. Occurs 50% of the time. </t>
+  </si>
+  <si>
+    <t>Attacking in the direction I was running previously</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A few frames of the attack in the opposite direction of where I was running. </t>
   </si>
 </sst>
 </file>
@@ -755,7 +767,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -790,24 +802,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -821,6 +815,27 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1565,1113 +1580,1100 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14:T14"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54:H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="20.7109375" style="34" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="34" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="34" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="34" customWidth="1"/>
-    <col min="8" max="8" width="11" style="34" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="34" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="34" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="34" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="34" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="34"/>
-    <col min="14" max="14" width="12.85546875" style="34" customWidth="1"/>
-    <col min="15" max="15" width="13" style="34" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="34"/>
-    <col min="17" max="17" width="10.42578125" style="34" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="34" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" style="34" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" style="34" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="34"/>
+    <col min="1" max="3" width="20.7109375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="28" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="28" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="28" customWidth="1"/>
+    <col min="8" max="8" width="11" style="28" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="28" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="28" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="28" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="28" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="28"/>
+    <col min="14" max="14" width="12.85546875" style="28" customWidth="1"/>
+    <col min="15" max="15" width="13" style="28" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="28"/>
+    <col min="17" max="17" width="10.42578125" style="28" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="28" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" style="28" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" style="28" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
     </row>
     <row r="3" spans="1:20" ht="30.75" thickTop="1">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="L3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="M3" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="36" t="s">
+      <c r="N3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="36" t="s">
+      <c r="O3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="36" t="s">
+      <c r="P3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="36" t="s">
+      <c r="Q3" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="36" t="s">
+      <c r="R3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="36" t="s">
+      <c r="S3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="T3" s="36" t="s">
+      <c r="T3" s="30" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="30">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="37" t="s">
+      <c r="M4" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="N4" s="38" t="s">
+      <c r="N4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="38" t="s">
+      <c r="O4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="38" t="s">
+      <c r="P4" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="37" t="s">
+      <c r="Q4" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="R4" s="38" t="s">
+      <c r="R4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="38" t="s">
+      <c r="S4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="38" t="s">
+      <c r="T4" s="32" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="30">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36" t="s">
+      <c r="D5" s="30"/>
+      <c r="E5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36" t="s">
+      <c r="H5" s="30"/>
+      <c r="I5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="K5" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36" t="s">
+      <c r="L5" s="30"/>
+      <c r="M5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="36" t="s">
+      <c r="N5" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="O5" s="36" t="s">
+      <c r="O5" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36" t="s">
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="36" t="s">
+      <c r="R5" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="S5" s="36" t="s">
+      <c r="S5" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="T5" s="36"/>
+      <c r="T5" s="30"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38" t="s">
+      <c r="D6" s="32"/>
+      <c r="E6" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38" t="s">
+      <c r="H6" s="32"/>
+      <c r="I6" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="K6" s="38" t="s">
+      <c r="K6" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38" t="s">
+      <c r="L6" s="32"/>
+      <c r="M6" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="38" t="s">
+      <c r="N6" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="O6" s="38" t="s">
+      <c r="O6" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38" t="s">
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="R6" s="38" t="s">
+      <c r="R6" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="S6" s="38" t="s">
+      <c r="S6" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="T6" s="38"/>
+      <c r="T6" s="32"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32" t="s">
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32" t="s">
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32" t="s">
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28" t="s">
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28" t="s">
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28" t="s">
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32" t="s">
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32" t="s">
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32" t="s">
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
     </row>
     <row r="10" spans="1:20" ht="50.1" customHeight="1">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28" t="s">
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28" t="s">
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="29" t="s">
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="31"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="37"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32" t="s">
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32" t="s">
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32" t="s">
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
     </row>
     <row r="12" spans="1:20" ht="50.1" customHeight="1">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28" t="s">
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28" t="s">
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28" t="s">
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28" t="s">
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32" t="s">
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32" t="s">
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32" t="s">
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32" t="s">
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
     </row>
     <row r="14" spans="1:20" ht="50.1" customHeight="1">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28" t="s">
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28" t="s">
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28" t="s">
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28" t="s">
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" thickBot="1"/>
     <row r="16" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
     </row>
     <row r="17" spans="1:8" ht="30.75" thickTop="1">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="G17" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="36" t="s">
+      <c r="H17" s="30" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36" t="s">
+      <c r="D19" s="30"/>
+      <c r="E19" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="G19" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="36"/>
+      <c r="H19" s="30"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32" t="s">
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32" t="s">
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
     </row>
     <row r="24" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32" t="s">
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
     </row>
     <row r="26" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32" t="s">
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
     </row>
     <row r="28" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="30" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickTop="1">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="30" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="37"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="36"/>
+      <c r="D33" s="30"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
     </row>
     <row r="38" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
     </row>
     <row r="40" spans="1:8" ht="47.25" customHeight="1">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
     </row>
     <row r="42" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="44" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
     </row>
     <row r="45" spans="1:8" ht="30.75" thickTop="1">
-      <c r="A45" s="36" t="s">
+      <c r="A45" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="36" t="s">
+      <c r="C45" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D45" s="36" t="s">
+      <c r="D45" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E45" s="36" t="s">
+      <c r="E45" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="F45" s="36" t="s">
+      <c r="F45" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G45" s="36" t="s">
+      <c r="G45" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="H45" s="36" t="s">
+      <c r="H45" s="30" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="37" t="s">
+    <row r="46" spans="1:8" ht="30">
+      <c r="A46" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="38" t="s">
+      <c r="C46" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="38" t="s">
+      <c r="D46" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="37"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
+      <c r="E46" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F46" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" s="32" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="36" t="s">
+      <c r="A47" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36" t="s">
+      <c r="D47" s="30"/>
+      <c r="E47" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="36" t="s">
+      <c r="F47" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="G47" s="36" t="s">
+      <c r="G47" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="H47" s="36"/>
+      <c r="H47" s="30"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="38" t="s">
+      <c r="C48" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" s="39">
+        <v>40318</v>
+      </c>
+      <c r="G48" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="H48" s="32"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="32" t="s">
+      <c r="A49" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32" t="s">
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="32" t="s">
+      <c r="A51" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32" t="s">
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
     </row>
     <row r="52" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="32" t="s">
+      <c r="A53" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32" t="s">
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
     </row>
     <row r="54" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="32" t="s">
+      <c r="A55" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32" t="s">
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
     </row>
     <row r="56" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
     <mergeCell ref="M12:P12"/>
     <mergeCell ref="M13:P13"/>
     <mergeCell ref="M14:P14"/>
@@ -2688,21 +2690,56 @@
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="I9:L9"/>
     <mergeCell ref="I10:L10"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q11:T11"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B4 B18 B32 F4 J4 N4 F18 F46 R4">

--- a/Robo Pr0n/Corona_Testing_for_RoboPr0n_BugTracker_Ver2.xlsx
+++ b/Robo Pr0n/Corona_Testing_for_RoboPr0n_BugTracker_Ver2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="131">
   <si>
     <t>Category</t>
   </si>
@@ -417,6 +417,9 @@
   </si>
   <si>
     <t xml:space="preserve">A few frames of the attack in the opposite direction of where I was running. </t>
+  </si>
+  <si>
+    <t>8 | 30</t>
   </si>
 </sst>
 </file>
@@ -817,11 +820,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -830,12 +839,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1580,8 +1583,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54:H54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56:H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1591,15 +1594,15 @@
     <col min="5" max="5" width="17.28515625" style="28" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" style="28" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" style="28" customWidth="1"/>
-    <col min="8" max="8" width="11" style="28" customWidth="1"/>
+    <col min="8" max="8" width="13" style="28" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="28" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" style="28" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="28" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="28" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="28" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="28" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="28"/>
     <col min="14" max="14" width="12.85546875" style="28" customWidth="1"/>
     <col min="15" max="15" width="13" style="28" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="28"/>
+    <col min="16" max="16" width="13.85546875" style="28" customWidth="1"/>
     <col min="17" max="17" width="10.42578125" style="28" customWidth="1"/>
     <col min="18" max="18" width="12.7109375" style="28" customWidth="1"/>
     <col min="19" max="19" width="10.140625" style="28" customWidth="1"/>
@@ -1608,11 +1611,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="29" t="s">
@@ -1869,260 +1872,260 @@
       <c r="T6" s="32"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34" t="s">
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34" t="s">
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34" t="s">
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33" t="s">
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33" t="s">
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33" t="s">
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34" t="s">
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34" t="s">
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34" t="s">
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
     </row>
     <row r="10" spans="1:20" ht="50.1" customHeight="1">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33" t="s">
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33" t="s">
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="35" t="s">
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="37"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="39"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34" t="s">
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34" t="s">
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34" t="s">
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
     </row>
     <row r="12" spans="1:20" ht="50.1" customHeight="1">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33" t="s">
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33" t="s">
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33" t="s">
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34" t="s">
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34" t="s">
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34" t="s">
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34" t="s">
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
     </row>
     <row r="14" spans="1:20" ht="50.1" customHeight="1">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33" t="s">
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33" t="s">
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33" t="s">
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" thickBot="1"/>
     <row r="16" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
@@ -2222,108 +2225,108 @@
       <c r="H20" s="32"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34" t="s">
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34" t="s">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
     </row>
     <row r="24" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34" t="s">
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
     </row>
     <row r="26" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34" t="s">
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
     </row>
     <row r="28" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="30" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
@@ -2379,60 +2382,60 @@
       <c r="D34" s="32"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
     </row>
     <row r="38" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
     </row>
     <row r="40" spans="1:8" ht="47.25" customHeight="1">
-      <c r="A40" s="33"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
     </row>
     <row r="42" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="44" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
@@ -2489,7 +2492,7 @@
         <v>27</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="F46" s="32" t="s">
         <v>17</v>
@@ -2537,7 +2540,7 @@
       <c r="E48" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="F48" s="39">
+      <c r="F48" s="33">
         <v>40318</v>
       </c>
       <c r="G48" s="32" t="s">
@@ -2546,134 +2549,169 @@
       <c r="H48" s="32"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34" t="s">
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="33" t="s">
+      <c r="A50" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33" t="s">
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="34" t="s">
+      <c r="A51" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34" t="s">
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
     </row>
     <row r="52" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33" t="s">
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="34" t="s">
+      <c r="A53" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34" t="s">
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
     </row>
     <row r="54" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A54" s="33" t="s">
+      <c r="A54" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33" t="s">
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="34" t="s">
+      <c r="A55" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34" t="s">
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
     </row>
     <row r="56" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A56" s="33" t="s">
+      <c r="A56" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33" t="s">
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
     <mergeCell ref="M12:P12"/>
     <mergeCell ref="M13:P13"/>
     <mergeCell ref="M14:P14"/>
@@ -2690,56 +2728,21 @@
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="I9:L9"/>
     <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E56:H56"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B4 B18 B32 F4 J4 N4 F18 F46 R4">

--- a/Robo Pr0n/Corona_Testing_for_RoboPr0n_BugTracker_Ver2.xlsx
+++ b/Robo Pr0n/Corona_Testing_for_RoboPr0n_BugTracker_Ver2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="21975" windowHeight="14055" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="21345" windowHeight="11325" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info and definitions" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="142">
   <si>
     <t>Category</t>
   </si>
@@ -420,6 +420,39 @@
   </si>
   <si>
     <t>8 | 30</t>
+  </si>
+  <si>
+    <t>9 | 30</t>
+  </si>
+  <si>
+    <t>10 | 30</t>
+  </si>
+  <si>
+    <t>5.21.2010</t>
+  </si>
+  <si>
+    <t>Dragons attacking when player behind dragon</t>
+  </si>
+  <si>
+    <t>Start game, Go to room just before Wizard boss, When baby dragon attacks, run behind dragon</t>
+  </si>
+  <si>
+    <t>Dragon continues to attack where the player was.</t>
+  </si>
+  <si>
+    <t>Dragon turn to attack the player, or run away</t>
+  </si>
+  <si>
+    <t>Inverting quickly outside of level locks game.</t>
+  </si>
+  <si>
+    <t>Start game, Invert the color scheme, drop out of the level, quickly invert the color scheme multiple times</t>
+  </si>
+  <si>
+    <t>Game locks, preventing the window from being closed, minimized, or the player exiting the game.</t>
+  </si>
+  <si>
+    <t>Game to continue inverting or player to die</t>
   </si>
 </sst>
 </file>
@@ -770,7 +803,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -829,8 +862,11 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -840,6 +876,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1581,10 +1620,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:T56"/>
+  <dimension ref="A1:AB56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56:H56"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Z24" sqref="Z24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1607,17 +1646,25 @@
     <col min="18" max="18" width="12.7109375" style="28" customWidth="1"/>
     <col min="19" max="19" width="10.140625" style="28" customWidth="1"/>
     <col min="20" max="20" width="12.42578125" style="28" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="28"/>
+    <col min="21" max="21" width="13.42578125" style="28" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" style="28" customWidth="1"/>
+    <col min="23" max="23" width="12" style="28" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="28" customWidth="1"/>
+    <col min="25" max="25" width="10.42578125" style="28" customWidth="1"/>
+    <col min="26" max="26" width="10.5703125" style="28" customWidth="1"/>
+    <col min="27" max="27" width="10.28515625" style="28" customWidth="1"/>
+    <col min="28" max="28" width="12.28515625" style="28" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:28" ht="15.75" thickBot="1">
+      <c r="A1" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-    </row>
-    <row r="2" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+    </row>
+    <row r="2" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="29" t="s">
         <v>58</v>
       </c>
@@ -1642,8 +1689,16 @@
       <c r="R2" s="29"/>
       <c r="S2" s="29"/>
       <c r="T2" s="29"/>
-    </row>
-    <row r="3" spans="1:20" ht="30.75" thickTop="1">
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+    </row>
+    <row r="3" spans="1:28" ht="30.75" thickTop="1">
       <c r="A3" s="30" t="s">
         <v>32</v>
       </c>
@@ -1704,8 +1759,32 @@
       <c r="T3" s="30" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="30">
+      <c r="U3" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="X3" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="30">
       <c r="A4" s="31" t="s">
         <v>106</v>
       </c>
@@ -1766,8 +1845,32 @@
       <c r="T4" s="32" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="30">
+      <c r="U4" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="V4" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="W4" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="X4" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y4" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z4" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA4" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB4" s="34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="30">
       <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
@@ -1818,8 +1921,28 @@
         <v>34</v>
       </c>
       <c r="T5" s="30"/>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="U5" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="V5" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="W5" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA5" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB5" s="35"/>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" s="32" t="s">
         <v>38</v>
       </c>
@@ -1870,265 +1993,381 @@
         <v>50</v>
       </c>
       <c r="T6" s="32"/>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="35" t="s">
+      <c r="U6" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="V6" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="W6" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z6" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA6" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB6" s="34"/>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35" t="s">
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35" t="s">
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35" t="s">
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="34" t="s">
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="37"/>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34" t="s">
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34" t="s">
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34" t="s">
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="35" t="s">
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="36"/>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35" t="s">
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35" t="s">
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35" t="s">
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35" t="s">
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-    </row>
-    <row r="10" spans="1:20" ht="50.1" customHeight="1">
-      <c r="A10" s="34" t="s">
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+    </row>
+    <row r="10" spans="1:28" ht="50.1" customHeight="1">
+      <c r="A10" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34" t="s">
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34" t="s">
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="37" t="s">
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="39"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="35" t="s">
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="40"/>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35" t="s">
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35" t="s">
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35" t="s">
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35" t="s">
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-    </row>
-    <row r="12" spans="1:20" ht="50.1" customHeight="1">
-      <c r="A12" s="34" t="s">
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="37"/>
+    </row>
+    <row r="12" spans="1:28" ht="50.1" customHeight="1">
+      <c r="A12" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34" t="s">
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34" t="s">
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34" t="s">
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34" t="s">
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="35" t="s">
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36"/>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35" t="s">
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35" t="s">
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35" t="s">
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35" t="s">
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-    </row>
-    <row r="14" spans="1:20" ht="50.1" customHeight="1">
-      <c r="A14" s="34" t="s">
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="37"/>
+      <c r="AB13" s="37"/>
+    </row>
+    <row r="14" spans="1:28" ht="50.1" customHeight="1">
+      <c r="A14" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34" t="s">
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34" t="s">
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34" t="s">
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34" t="s">
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" thickBot="1"/>
-    <row r="16" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="36"/>
+    </row>
+    <row r="15" spans="1:28" ht="15.75" thickBot="1"/>
+    <row r="16" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="29" t="s">
         <v>61</v>
       </c>
@@ -2142,7 +2381,7 @@
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
     </row>
-    <row r="17" spans="1:8" ht="30.75" thickTop="1">
+    <row r="17" spans="1:8" ht="15.75" thickTop="1">
       <c r="A17" s="30" t="s">
         <v>32</v>
       </c>
@@ -2225,108 +2464,108 @@
       <c r="H20" s="32"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35" t="s">
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35" t="s">
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
     </row>
     <row r="24" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35" t="s">
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35" t="s">
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
     </row>
     <row r="28" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="30" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
@@ -2382,60 +2621,60 @@
       <c r="D34" s="32"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
     </row>
     <row r="38" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A38" s="34"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
     </row>
     <row r="40" spans="1:8" ht="47.25" customHeight="1">
-      <c r="A40" s="34"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
     </row>
     <row r="42" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A42" s="34"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="44" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
@@ -2452,7 +2691,7 @@
       <c r="G44" s="29"/>
       <c r="H44" s="29"/>
     </row>
-    <row r="45" spans="1:8" ht="30.75" thickTop="1">
+    <row r="45" spans="1:8" ht="15.75" thickTop="1">
       <c r="A45" s="30" t="s">
         <v>32</v>
       </c>
@@ -2549,169 +2788,150 @@
       <c r="H48" s="32"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="35" t="s">
+      <c r="A49" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35" t="s">
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="34" t="s">
+      <c r="A50" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34" t="s">
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="35" t="s">
+      <c r="A51" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35" t="s">
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
     </row>
     <row r="52" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A52" s="34" t="s">
+      <c r="A52" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34" t="s">
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="35" t="s">
+      <c r="A53" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35" t="s">
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
     </row>
     <row r="54" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A54" s="34" t="s">
+      <c r="A54" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34" t="s">
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="35" t="s">
+      <c r="A55" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35" t="s">
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
     </row>
     <row r="56" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A56" s="34" t="s">
+      <c r="A56" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34" t="s">
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
+  <mergeCells count="97">
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="Y7:AB7"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
     <mergeCell ref="M12:P12"/>
     <mergeCell ref="M13:P13"/>
     <mergeCell ref="M14:P14"/>
@@ -2728,36 +2948,71 @@
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="I9:L9"/>
     <mergeCell ref="I10:L10"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q11:T11"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B4 B18 B32 F4 J4 N4 F18 F46 R4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B4 B18 B32 F4 J4 N4 F18 F46 R4 V4 Z4">
       <formula1>severity</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46 C4 C18 C32 G4 K4 O4 G18 G46 S4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46 C4 C18 C32 G4 K4 O4 G18 G46 S4 W4 AA4">
       <formula1>category</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46 D4 D18 D32 H4 L4 P4 H18 H46 T4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46 D4 D18 D32 H4 L4 P4 H18 H46 T4 X4 AB4">
       <formula1>component</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A48 A6 A20 A34 E6 I6 M6 E20 E48 Q6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A48 A6 A20 A34 E6 I6 M6 E20 E48 Q6 U6 Y6">
       <formula1>status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48 C6 C20 C34 G6 K6 O6 G20 G48 S6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48 C6 C20 C34 G6 K6 O6 G20 G48 S6 W6 AA6">
       <formula1>build_found</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44 B2 B16 B30">

--- a/Robo Pr0n/Corona_Testing_for_RoboPr0n_BugTracker_Ver2.xlsx
+++ b/Robo Pr0n/Corona_Testing_for_RoboPr0n_BugTracker_Ver2.xlsx
@@ -317,9 +317,6 @@
     <t>Locked into the Map Screen</t>
   </si>
   <si>
-    <t>Start the game, pause the game, open the map.</t>
-  </si>
-  <si>
     <t>Being able to leave the map screen.</t>
   </si>
   <si>
@@ -453,6 +450,9 @@
   </si>
   <si>
     <t>Game to continue inverting or player to die</t>
+  </si>
+  <si>
+    <t>Start the game with the gamepad, pause the game, open the map.</t>
   </si>
 </sst>
 </file>
@@ -1622,14 +1622,16 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AB56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Z24" sqref="Z24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10:P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="20.7109375" style="28" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="28" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="18" style="28" customWidth="1"/>
+    <col min="3" max="3" width="17" style="28" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="28" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" style="28" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" style="28" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" style="28" customWidth="1"/>
@@ -1652,7 +1654,7 @@
     <col min="24" max="24" width="12.5703125" style="28" customWidth="1"/>
     <col min="25" max="25" width="10.42578125" style="28" customWidth="1"/>
     <col min="26" max="26" width="10.5703125" style="28" customWidth="1"/>
-    <col min="27" max="27" width="10.28515625" style="28" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="28" customWidth="1"/>
     <col min="28" max="28" width="12.28515625" style="28" customWidth="1"/>
     <col min="29" max="16384" width="9.140625" style="28"/>
   </cols>
@@ -1786,7 +1788,7 @@
     </row>
     <row r="4" spans="1:28" ht="30">
       <c r="A4" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>17</v>
@@ -1798,7 +1800,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F4" s="32" t="s">
         <v>17</v>
@@ -1810,7 +1812,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J4" s="32" t="s">
         <v>16</v>
@@ -1822,7 +1824,7 @@
         <v>25</v>
       </c>
       <c r="M4" s="31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N4" s="32" t="s">
         <v>17</v>
@@ -1834,7 +1836,7 @@
         <v>23</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>17</v>
@@ -1846,7 +1848,7 @@
         <v>25</v>
       </c>
       <c r="U4" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V4" s="34" t="s">
         <v>17</v>
@@ -1858,7 +1860,7 @@
         <v>28</v>
       </c>
       <c r="Y4" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Z4" s="34" t="s">
         <v>16</v>
@@ -1997,7 +1999,7 @@
         <v>38</v>
       </c>
       <c r="V6" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W6" s="34" t="s">
         <v>50</v>
@@ -2007,7 +2009,7 @@
         <v>38</v>
       </c>
       <c r="Z6" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AA6" s="34" t="s">
         <v>50</v>
@@ -2072,31 +2074,31 @@
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
       <c r="I8" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J8" s="36"/>
       <c r="K8" s="36"/>
       <c r="L8" s="36"/>
       <c r="M8" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N8" s="36"/>
       <c r="O8" s="36"/>
       <c r="P8" s="36"/>
       <c r="Q8" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R8" s="36"/>
       <c r="S8" s="36"/>
       <c r="T8" s="36"/>
       <c r="U8" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="V8" s="36"/>
       <c r="W8" s="36"/>
       <c r="X8" s="36"/>
       <c r="Y8" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z8" s="36"/>
       <c r="AA8" s="36"/>
@@ -2154,37 +2156,37 @@
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
       <c r="E10" s="36" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="F10" s="36"/>
       <c r="G10" s="36"/>
       <c r="H10" s="36"/>
       <c r="I10" s="36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
       <c r="L10" s="36"/>
       <c r="M10" s="36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N10" s="36"/>
       <c r="O10" s="36"/>
       <c r="P10" s="36"/>
       <c r="Q10" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R10" s="39"/>
       <c r="S10" s="39"/>
       <c r="T10" s="40"/>
       <c r="U10" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V10" s="39"/>
       <c r="W10" s="39"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z10" s="39"/>
       <c r="AA10" s="39"/>
@@ -2242,37 +2244,37 @@
       <c r="C12" s="36"/>
       <c r="D12" s="36"/>
       <c r="E12" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
       <c r="H12" s="36"/>
       <c r="I12" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
       <c r="M12" s="36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N12" s="36"/>
       <c r="O12" s="36"/>
       <c r="P12" s="36"/>
       <c r="Q12" s="36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R12" s="36"/>
       <c r="S12" s="36"/>
       <c r="T12" s="36"/>
       <c r="U12" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V12" s="36"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
       <c r="Y12" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z12" s="36"/>
       <c r="AA12" s="36"/>
@@ -2330,37 +2332,37 @@
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
       <c r="E14" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
       <c r="H14" s="36"/>
       <c r="I14" s="36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J14" s="36"/>
       <c r="K14" s="36"/>
       <c r="L14" s="36"/>
       <c r="M14" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N14" s="36"/>
       <c r="O14" s="36"/>
       <c r="P14" s="36"/>
       <c r="Q14" s="36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R14" s="36"/>
       <c r="S14" s="36"/>
       <c r="T14" s="36"/>
       <c r="U14" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="V14" s="36"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
       <c r="Y14" s="36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z14" s="36"/>
       <c r="AA14" s="36"/>
@@ -2409,7 +2411,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B18" s="32" t="s">
         <v>15</v>
@@ -2479,7 +2481,7 @@
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1">
       <c r="A22" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -2505,7 +2507,7 @@
     </row>
     <row r="24" spans="1:8" ht="49.5" customHeight="1">
       <c r="A24" s="36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -2531,7 +2533,7 @@
     </row>
     <row r="26" spans="1:8" ht="49.5" customHeight="1">
       <c r="A26" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -2557,7 +2559,7 @@
     </row>
     <row r="28" spans="1:8" ht="49.5" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -2719,7 +2721,7 @@
     </row>
     <row r="46" spans="1:8" ht="30">
       <c r="A46" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B46" s="32" t="s">
         <v>17</v>
@@ -2731,7 +2733,7 @@
         <v>27</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F46" s="32" t="s">
         <v>17</v>
@@ -2803,13 +2805,13 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
       <c r="D50" s="36"/>
       <c r="E50" s="36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F50" s="36"/>
       <c r="G50" s="36"/>
@@ -2831,13 +2833,13 @@
     </row>
     <row r="52" spans="1:8" ht="49.5" customHeight="1">
       <c r="A52" s="36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
       <c r="E52" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F52" s="36"/>
       <c r="G52" s="36"/>
@@ -2859,13 +2861,13 @@
     </row>
     <row r="54" spans="1:8" ht="49.5" customHeight="1">
       <c r="A54" s="36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B54" s="36"/>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
       <c r="E54" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F54" s="36"/>
       <c r="G54" s="36"/>
@@ -2887,13 +2889,13 @@
     </row>
     <row r="56" spans="1:8" ht="49.5" customHeight="1">
       <c r="A56" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B56" s="36"/>
       <c r="C56" s="36"/>
       <c r="D56" s="36"/>
       <c r="E56" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F56" s="36"/>
       <c r="G56" s="36"/>
@@ -2901,6 +2903,87 @@
     </row>
   </sheetData>
   <mergeCells count="97">
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E56:H56"/>
     <mergeCell ref="U12:X12"/>
     <mergeCell ref="U13:X13"/>
     <mergeCell ref="U14:X14"/>
@@ -2917,87 +3000,6 @@
     <mergeCell ref="U9:X9"/>
     <mergeCell ref="U10:X10"/>
     <mergeCell ref="U11:X11"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Q11:T11"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B4 B18 B32 F4 J4 N4 F18 F46 R4 V4 Z4">

--- a/Robo Pr0n/Corona_Testing_for_RoboPr0n_BugTracker_Ver2.xlsx
+++ b/Robo Pr0n/Corona_Testing_for_RoboPr0n_BugTracker_Ver2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="147">
   <si>
     <t>Category</t>
   </si>
@@ -453,6 +453,21 @@
   </si>
   <si>
     <t>Start the game with the gamepad, pause the game, open the map.</t>
+  </si>
+  <si>
+    <t>11 | 30</t>
+  </si>
+  <si>
+    <t>Whirlwind combo crashes game</t>
+  </si>
+  <si>
+    <t>Start game, switch to the sword, press L, L, M.</t>
+  </si>
+  <si>
+    <t>Game crashes</t>
+  </si>
+  <si>
+    <t>Whirlwind Combo</t>
   </si>
 </sst>
 </file>
@@ -803,7 +818,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -854,6 +869,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1620,10 +1641,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AB56"/>
+  <dimension ref="A1:AF56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10:P10"/>
+      <selection activeCell="AC14" sqref="AC14:AF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1656,17 +1677,20 @@
     <col min="26" max="26" width="10.5703125" style="28" customWidth="1"/>
     <col min="27" max="27" width="12.5703125" style="28" customWidth="1"/>
     <col min="28" max="28" width="12.28515625" style="28" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="28"/>
+    <col min="29" max="30" width="9.140625" style="28"/>
+    <col min="31" max="31" width="12.42578125" style="28" customWidth="1"/>
+    <col min="32" max="32" width="13.28515625" style="28" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:32" ht="15.75" thickBot="1">
+      <c r="A1" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-    </row>
-    <row r="2" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+    </row>
+    <row r="2" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="29" t="s">
         <v>58</v>
       </c>
@@ -1699,8 +1723,12 @@
       <c r="Z2" s="29"/>
       <c r="AA2" s="29"/>
       <c r="AB2" s="29"/>
-    </row>
-    <row r="3" spans="1:28" ht="30.75" thickTop="1">
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+    </row>
+    <row r="3" spans="1:32" ht="30.75" thickTop="1">
       <c r="A3" s="30" t="s">
         <v>32</v>
       </c>
@@ -1785,8 +1813,20 @@
       <c r="AB3" s="35" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" ht="30">
+      <c r="AC3" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD3" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="30">
       <c r="A4" s="31" t="s">
         <v>105</v>
       </c>
@@ -1871,8 +1911,20 @@
       <c r="AB4" s="34" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" ht="30">
+      <c r="AC4" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD4" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE4" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF4" s="36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="30">
       <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
@@ -1943,8 +1995,18 @@
         <v>34</v>
       </c>
       <c r="AB5" s="35"/>
-    </row>
-    <row r="6" spans="1:28">
+      <c r="AC5" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD5" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE5" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF5" s="37"/>
+    </row>
+    <row r="6" spans="1:32">
       <c r="A6" s="32" t="s">
         <v>38</v>
       </c>
@@ -2015,361 +2077,419 @@
         <v>50</v>
       </c>
       <c r="AB6" s="34"/>
-    </row>
-    <row r="7" spans="1:28">
-      <c r="A7" s="37" t="s">
+      <c r="AC6" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD6" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE6" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF6" s="36"/>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37" t="s">
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37" t="s">
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37" t="s">
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37" t="s">
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37" t="s">
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
-      <c r="AB7" s="37"/>
-    </row>
-    <row r="8" spans="1:28">
-      <c r="A8" s="36" t="s">
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="39"/>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36" t="s">
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36" t="s">
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36" t="s">
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36" t="s">
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="36" t="s">
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="36"/>
-      <c r="AB8" s="36"/>
-    </row>
-    <row r="9" spans="1:28">
-      <c r="A9" s="37" t="s">
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD8" s="38"/>
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="38"/>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="A9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37" t="s">
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37" t="s">
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37" t="s">
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37" t="s">
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37" t="s">
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="37"/>
-    </row>
-    <row r="10" spans="1:28" ht="50.1" customHeight="1">
-      <c r="A10" s="36" t="s">
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="39"/>
+    </row>
+    <row r="10" spans="1:32" ht="50.1" customHeight="1">
+      <c r="A10" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36" t="s">
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36" t="s">
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36" t="s">
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="38" t="s">
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="38" t="s">
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="38" t="s">
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="39"/>
-      <c r="AB10" s="40"/>
-    </row>
-    <row r="11" spans="1:28">
-      <c r="A11" s="37" t="s">
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD10" s="41"/>
+      <c r="AE10" s="41"/>
+      <c r="AF10" s="42"/>
+    </row>
+    <row r="11" spans="1:32">
+      <c r="A11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37" t="s">
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37" t="s">
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37" t="s">
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37" t="s">
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37" t="s">
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37" t="s">
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="37"/>
-      <c r="AB11" s="37"/>
-    </row>
-    <row r="12" spans="1:28" ht="50.1" customHeight="1">
-      <c r="A12" s="36" t="s">
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="39"/>
+      <c r="AF11" s="39"/>
+    </row>
+    <row r="12" spans="1:32" ht="50.1" customHeight="1">
+      <c r="A12" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36" t="s">
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36" t="s">
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36" t="s">
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36" t="s">
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="V12" s="36"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="36" t="s">
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="36"/>
-    </row>
-    <row r="13" spans="1:28">
-      <c r="A13" s="37" t="s">
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD12" s="38"/>
+      <c r="AE12" s="38"/>
+      <c r="AF12" s="38"/>
+    </row>
+    <row r="13" spans="1:32">
+      <c r="A13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37" t="s">
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37" t="s">
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37" t="s">
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37" t="s">
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37" t="s">
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37" t="s">
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="37"/>
-    </row>
-    <row r="14" spans="1:28" ht="50.1" customHeight="1">
-      <c r="A14" s="36" t="s">
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="39"/>
+      <c r="AF13" s="39"/>
+    </row>
+    <row r="14" spans="1:32" ht="50.1" customHeight="1">
+      <c r="A14" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36" t="s">
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36" t="s">
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36" t="s">
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36" t="s">
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36" t="s">
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="36" t="s">
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="Z14" s="36"/>
-      <c r="AA14" s="36"/>
-      <c r="AB14" s="36"/>
-    </row>
-    <row r="15" spans="1:28" ht="15.75" thickBot="1"/>
-    <row r="16" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD14" s="38"/>
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="38"/>
+    </row>
+    <row r="15" spans="1:32" ht="15.75" thickBot="1"/>
+    <row r="16" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="29" t="s">
         <v>61</v>
       </c>
@@ -2466,108 +2586,108 @@
       <c r="H20" s="32"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37" t="s">
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37" t="s">
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
     </row>
     <row r="24" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37" t="s">
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
     </row>
     <row r="26" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37" t="s">
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
     </row>
     <row r="28" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="30" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
@@ -2623,60 +2743,60 @@
       <c r="D34" s="32"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="36"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
     </row>
     <row r="38" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A38" s="36"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
     </row>
     <row r="40" spans="1:8" ht="47.25" customHeight="1">
-      <c r="A40" s="36"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
     </row>
     <row r="42" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A42" s="36"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="44" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
@@ -2790,169 +2910,158 @@
       <c r="H48" s="32"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37" t="s">
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="36" t="s">
+      <c r="A50" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36" t="s">
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="37" t="s">
+      <c r="A51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37" t="s">
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
     </row>
     <row r="52" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A52" s="36" t="s">
+      <c r="A52" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36" t="s">
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="37"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37" t="s">
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
     </row>
     <row r="54" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A54" s="36" t="s">
+      <c r="A54" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="36"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36" t="s">
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="37" t="s">
+      <c r="A55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37" t="s">
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
     </row>
     <row r="56" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A56" s="36" t="s">
+      <c r="A56" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="36"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36" t="s">
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
+  <mergeCells count="105">
+    <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="AC13:AF13"/>
+    <mergeCell ref="AC14:AF14"/>
+    <mergeCell ref="AC7:AF7"/>
+    <mergeCell ref="AC8:AF8"/>
+    <mergeCell ref="AC9:AF9"/>
+    <mergeCell ref="AC10:AF10"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="Y7:AB7"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
     <mergeCell ref="M12:P12"/>
     <mergeCell ref="M13:P13"/>
     <mergeCell ref="M14:P14"/>
@@ -2969,52 +3078,71 @@
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="I9:L9"/>
     <mergeCell ref="I10:L10"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="Y7:AB7"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q11:T11"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B4 B18 B32 F4 J4 N4 F18 F46 R4 V4 Z4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B4 B18 B32 F4 J4 N4 F18 F46 R4 V4 Z4 AD4">
       <formula1>severity</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46 C4 C18 C32 G4 K4 O4 G18 G46 S4 W4 AA4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46 C4 C18 C32 G4 K4 O4 G18 G46 S4 W4 AA4 AE4">
       <formula1>category</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46 D4 D18 D32 H4 L4 P4 H18 H46 T4 X4 AB4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46 D4 D18 D32 H4 L4 P4 H18 H46 T4 X4 AB4 AF4">
       <formula1>component</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A48 A6 A20 A34 E6 I6 M6 E20 E48 Q6 U6 Y6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A48 A6 A20 A34 E6 I6 M6 E20 E48 Q6 U6 Y6 AC6">
       <formula1>status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48 C6 C20 C34 G6 K6 O6 G20 G48 S6 W6 AA6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48 C6 C20 C34 G6 K6 O6 G20 G48 S6 W6 AA6 AE6">
       <formula1>build_found</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44 B2 B16 B30">

--- a/Robo Pr0n/Corona_Testing_for_RoboPr0n_BugTracker_Ver2.xlsx
+++ b/Robo Pr0n/Corona_Testing_for_RoboPr0n_BugTracker_Ver2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="153">
   <si>
     <t>Category</t>
   </si>
@@ -468,6 +468,24 @@
   </si>
   <si>
     <t>Whirlwind Combo</t>
+  </si>
+  <si>
+    <t>12|30</t>
+  </si>
+  <si>
+    <t>6.20.2010</t>
+  </si>
+  <si>
+    <t>Can attack enemies at my back while runing</t>
+  </si>
+  <si>
+    <t>The enemy dies while crearly away from the player</t>
+  </si>
+  <si>
+    <t>nothing to happen to the player</t>
+  </si>
+  <si>
+    <t>Find an enemy. Run away while attacking (50%) (5/11)</t>
   </si>
 </sst>
 </file>
@@ -818,7 +836,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -869,6 +887,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1643,8 +1667,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AF56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC14" sqref="AC14:AF14"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1684,11 +1708,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
     </row>
     <row r="2" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="29" t="s">
@@ -2089,404 +2113,404 @@
       <c r="AF6" s="36"/>
     </row>
     <row r="7" spans="1:32">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39" t="s">
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39" t="s">
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39" t="s">
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39" t="s">
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39" t="s">
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="39" t="s">
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="41"/>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38" t="s">
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38" t="s">
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38" t="s">
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38" t="s">
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="V8" s="38"/>
-      <c r="W8" s="38"/>
-      <c r="X8" s="38"/>
-      <c r="Y8" s="38" t="s">
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="38"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="38" t="s">
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="AD8" s="38"/>
-      <c r="AE8" s="38"/>
-      <c r="AF8" s="38"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="40"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39" t="s">
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39" t="s">
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39" t="s">
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39" t="s">
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39" t="s">
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="39" t="s">
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="39"/>
+      <c r="AD9" s="41"/>
+      <c r="AE9" s="41"/>
+      <c r="AF9" s="41"/>
     </row>
     <row r="10" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38" t="s">
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38" t="s">
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38" t="s">
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="40" t="s">
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="40" t="s">
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="40" t="s">
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="42"/>
-      <c r="AC10" s="40" t="s">
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="44"/>
+      <c r="AC10" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="AD10" s="41"/>
-      <c r="AE10" s="41"/>
-      <c r="AF10" s="42"/>
+      <c r="AD10" s="43"/>
+      <c r="AE10" s="43"/>
+      <c r="AF10" s="44"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39" t="s">
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39" t="s">
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39" t="s">
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39" t="s">
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="39" t="s">
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="Z11" s="39"/>
-      <c r="AA11" s="39"/>
-      <c r="AB11" s="39"/>
-      <c r="AC11" s="39" t="s">
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="41"/>
+      <c r="AB11" s="41"/>
+      <c r="AC11" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AD11" s="39"/>
-      <c r="AE11" s="39"/>
-      <c r="AF11" s="39"/>
+      <c r="AD11" s="41"/>
+      <c r="AE11" s="41"/>
+      <c r="AF11" s="41"/>
     </row>
     <row r="12" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38" t="s">
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38" t="s">
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38" t="s">
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38" t="s">
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="38" t="s">
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="38"/>
-      <c r="AC12" s="38" t="s">
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="AD12" s="38"/>
-      <c r="AE12" s="38"/>
-      <c r="AF12" s="38"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="40"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39" t="s">
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39" t="s">
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39" t="s">
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39" t="s">
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39" t="s">
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39" t="s">
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="39"/>
-      <c r="AB13" s="39"/>
-      <c r="AC13" s="39" t="s">
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AD13" s="39"/>
-      <c r="AE13" s="39"/>
-      <c r="AF13" s="39"/>
+      <c r="AD13" s="41"/>
+      <c r="AE13" s="41"/>
+      <c r="AF13" s="41"/>
     </row>
     <row r="14" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38" t="s">
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38" t="s">
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38" t="s">
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38" t="s">
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38" t="s">
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38" t="s">
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="38" t="s">
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="38"/>
-      <c r="AF14" s="38"/>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="40"/>
+      <c r="AF14" s="40"/>
     </row>
     <row r="15" spans="1:32" ht="15.75" thickBot="1"/>
     <row r="16" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
@@ -2503,7 +2527,7 @@
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" thickTop="1">
+    <row r="17" spans="1:12" ht="30.75" thickTop="1">
       <c r="A17" s="30" t="s">
         <v>32</v>
       </c>
@@ -2528,8 +2552,20 @@
       <c r="H17" s="30" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" s="39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="30">
       <c r="A18" s="31" t="s">
         <v>104</v>
       </c>
@@ -2542,12 +2578,24 @@
       <c r="D18" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="E18" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="31"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="30" t="s">
         <v>4</v>
       </c>
@@ -2568,8 +2616,18 @@
         <v>34</v>
       </c>
       <c r="H19" s="30"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="39"/>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="32" t="s">
         <v>38</v>
       </c>
@@ -2580,117 +2638,175 @@
         <v>50</v>
       </c>
       <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
+      <c r="E20" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>50</v>
+      </c>
       <c r="H20" s="32"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="39" t="s">
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39" t="s">
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1">
-      <c r="A22" s="38" t="s">
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+    </row>
+    <row r="22" spans="1:12" ht="15" customHeight="1">
+      <c r="A22" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="39" t="s">
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39" t="s">
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-    </row>
-    <row r="24" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A24" s="38" t="s">
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+    </row>
+    <row r="24" spans="1:12" ht="49.5" customHeight="1">
+      <c r="A24" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="39" t="s">
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39" t="s">
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-    </row>
-    <row r="26" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A26" s="38" t="s">
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+    </row>
+    <row r="26" spans="1:12" ht="49.5" customHeight="1">
+      <c r="A26" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="39" t="s">
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-    </row>
-    <row r="28" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A28" s="38" t="s">
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+    </row>
+    <row r="28" spans="1:12" ht="49.5" customHeight="1">
+      <c r="A28" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="30" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="30" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="29" t="s">
         <v>59</v>
       </c>
@@ -2704,7 +2820,7 @@
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" thickTop="1">
+    <row r="31" spans="1:12" ht="15.75" thickTop="1">
       <c r="A31" s="30" t="s">
         <v>32</v>
       </c>
@@ -2718,7 +2834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:12">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -2743,60 +2859,60 @@
       <c r="D34" s="32"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="38"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
     </row>
     <row r="38" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A38" s="38"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
     </row>
     <row r="40" spans="1:8" ht="47.25" customHeight="1">
-      <c r="A40" s="38"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
     </row>
     <row r="42" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A42" s="38"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="44" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
@@ -2910,119 +3026,208 @@
       <c r="H48" s="32"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39" t="s">
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="38" t="s">
+      <c r="A50" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38" t="s">
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39" t="s">
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
     </row>
     <row r="52" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A52" s="38" t="s">
+      <c r="A52" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="B52" s="38"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38" t="s">
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="39" t="s">
+      <c r="A53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39" t="s">
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
     </row>
     <row r="54" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A54" s="38" t="s">
+      <c r="A54" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38" t="s">
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="39" t="s">
+      <c r="A55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39" t="s">
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
     </row>
     <row r="56" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A56" s="38" t="s">
+      <c r="A56" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="38"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38" t="s">
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="105">
+  <mergeCells count="113">
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
     <mergeCell ref="AC12:AF12"/>
     <mergeCell ref="AC13:AF13"/>
     <mergeCell ref="AC14:AF14"/>
@@ -3047,102 +3252,21 @@
     <mergeCell ref="U9:X9"/>
     <mergeCell ref="U10:X10"/>
     <mergeCell ref="U11:X11"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Q11:T11"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B4 B18 B32 F4 J4 N4 F18 F46 R4 V4 Z4 AD4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B4 B18 B32 F4 J4 N4 F18 F46 R4 V4 Z4 AD4 J18">
       <formula1>severity</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46 C4 C18 C32 G4 K4 O4 G18 G46 S4 W4 AA4 AE4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46 C4 C18 C32 G4 K4 O4 G18 G46 S4 W4 AA4 AE4 K18">
       <formula1>category</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46 D4 D18 D32 H4 L4 P4 H18 H46 T4 X4 AB4 AF4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46 D4 D18 D32 H4 L4 P4 H18 H46 T4 X4 AB4 AF4 L18">
       <formula1>component</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A48 A6 A20 A34 E6 I6 M6 E20 E48 Q6 U6 Y6 AC6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A48 A6 A20 A34 E6 I6 M6 E20 E48 Q6 U6 Y6 AC6 I20">
       <formula1>status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48 C6 C20 C34 G6 K6 O6 G20 G48 S6 W6 AA6 AE6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48 C6 C20 C34 G6 K6 O6 G20 G48 S6 W6 AA6 AE6 K20">
       <formula1>build_found</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44 B2 B16 B30">

--- a/Robo Pr0n/Corona_Testing_for_RoboPr0n_BugTracker_Ver2.xlsx
+++ b/Robo Pr0n/Corona_Testing_for_RoboPr0n_BugTracker_Ver2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="158">
   <si>
     <t>Category</t>
   </si>
@@ -486,6 +486,21 @@
   </si>
   <si>
     <t>Find an enemy. Run away while attacking (50%) (5/11)</t>
+  </si>
+  <si>
+    <t>13|30</t>
+  </si>
+  <si>
+    <t>Collisio when walking to the left 'Moonwalking'</t>
+  </si>
+  <si>
+    <t>After the tutorial, go up the 'stairs' and to the long hallway in the left. Walk left near the chains and tourches.</t>
+  </si>
+  <si>
+    <t>the player walking animation but no movement</t>
+  </si>
+  <si>
+    <t>the player to move</t>
   </si>
 </sst>
 </file>
@@ -836,7 +851,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -911,6 +926,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1667,8 +1688,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AF56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:H24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1708,11 +1729,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
     </row>
     <row r="2" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="29" t="s">
@@ -2113,404 +2134,404 @@
       <c r="AF6" s="36"/>
     </row>
     <row r="7" spans="1:32">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41" t="s">
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41" t="s">
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41" t="s">
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41" t="s">
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41" t="s">
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="41" t="s">
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="41"/>
+      <c r="AD7" s="42"/>
+      <c r="AE7" s="42"/>
+      <c r="AF7" s="42"/>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40" t="s">
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40" t="s">
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40" t="s">
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40" t="s">
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40" t="s">
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="40"/>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="40" t="s">
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="40"/>
+      <c r="AD8" s="43"/>
+      <c r="AE8" s="43"/>
+      <c r="AF8" s="43"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41" t="s">
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41" t="s">
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41" t="s">
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41" t="s">
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41" t="s">
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41" t="s">
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="41"/>
-      <c r="AC9" s="41" t="s">
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AD9" s="41"/>
-      <c r="AE9" s="41"/>
-      <c r="AF9" s="41"/>
+      <c r="AD9" s="42"/>
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="42"/>
     </row>
     <row r="10" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40" t="s">
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40" t="s">
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40" t="s">
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="42" t="s">
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="42" t="s">
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="V10" s="43"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="42" t="s">
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="44"/>
-      <c r="AC10" s="42" t="s">
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="45"/>
+      <c r="AB10" s="46"/>
+      <c r="AC10" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="AD10" s="43"/>
-      <c r="AE10" s="43"/>
-      <c r="AF10" s="44"/>
+      <c r="AD10" s="45"/>
+      <c r="AE10" s="45"/>
+      <c r="AF10" s="46"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41" t="s">
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41" t="s">
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41" t="s">
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41" t="s">
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41" t="s">
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="41"/>
-      <c r="AC11" s="41" t="s">
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="41"/>
-      <c r="AF11" s="41"/>
+      <c r="AD11" s="42"/>
+      <c r="AE11" s="42"/>
+      <c r="AF11" s="42"/>
     </row>
     <row r="12" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40" t="s">
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40" t="s">
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40" t="s">
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40" t="s">
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40" t="s">
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="40" t="s">
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="Z12" s="40"/>
-      <c r="AA12" s="40"/>
-      <c r="AB12" s="40"/>
-      <c r="AC12" s="40" t="s">
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="43"/>
+      <c r="AB12" s="43"/>
+      <c r="AC12" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="AD12" s="40"/>
-      <c r="AE12" s="40"/>
-      <c r="AF12" s="40"/>
+      <c r="AD12" s="43"/>
+      <c r="AE12" s="43"/>
+      <c r="AF12" s="43"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41" t="s">
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41" t="s">
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41" t="s">
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41" t="s">
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41" t="s">
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="41"/>
-      <c r="AC13" s="41" t="s">
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="AD13" s="41"/>
-      <c r="AE13" s="41"/>
-      <c r="AF13" s="41"/>
+      <c r="AD13" s="42"/>
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="42"/>
     </row>
     <row r="14" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40" t="s">
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40" t="s">
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40" t="s">
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40" t="s">
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40" t="s">
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="40" t="s">
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="Z14" s="40"/>
-      <c r="AA14" s="40"/>
-      <c r="AB14" s="40"/>
-      <c r="AC14" s="40" t="s">
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="43"/>
+      <c r="AB14" s="43"/>
+      <c r="AC14" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="AD14" s="40"/>
-      <c r="AE14" s="40"/>
-      <c r="AF14" s="40"/>
+      <c r="AD14" s="43"/>
+      <c r="AE14" s="43"/>
+      <c r="AF14" s="43"/>
     </row>
     <row r="15" spans="1:32" ht="15.75" thickBot="1"/>
     <row r="16" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
@@ -2527,7 +2548,7 @@
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
     </row>
-    <row r="17" spans="1:12" ht="30.75" thickTop="1">
+    <row r="17" spans="1:16" ht="30.75" thickTop="1">
       <c r="A17" s="30" t="s">
         <v>32</v>
       </c>
@@ -2564,8 +2585,20 @@
       <c r="L17" s="39" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="30">
+      <c r="M17" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="30">
       <c r="A18" s="31" t="s">
         <v>104</v>
       </c>
@@ -2588,14 +2621,26 @@
         <v>8</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="31"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-    </row>
-    <row r="19" spans="1:12">
+        <v>28</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J18" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="31"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="30" t="s">
         <v>4</v>
       </c>
@@ -2626,8 +2671,18 @@
         <v>34</v>
       </c>
       <c r="L19" s="39"/>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="N19" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" s="41"/>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="32" t="s">
         <v>38</v>
       </c>
@@ -2648,165 +2703,223 @@
         <v>50</v>
       </c>
       <c r="H20" s="32"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
+      <c r="I20" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="K20" s="38" t="s">
+        <v>50</v>
+      </c>
       <c r="L20" s="38"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="41" t="s">
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41" t="s">
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41" t="s">
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-    </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1">
-      <c r="A22" s="40" t="s">
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+    </row>
+    <row r="22" spans="1:16" ht="15" customHeight="1">
+      <c r="A22" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40" t="s">
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="41" t="s">
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41" t="s">
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41" t="s">
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-    </row>
-    <row r="24" spans="1:12" ht="49.5" customHeight="1">
-      <c r="A24" s="40" t="s">
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+    </row>
+    <row r="24" spans="1:16" ht="49.5" customHeight="1">
+      <c r="A24" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40" t="s">
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="41" t="s">
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41" t="s">
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41" t="s">
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-    </row>
-    <row r="26" spans="1:12" ht="49.5" customHeight="1">
-      <c r="A26" s="40" t="s">
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+    </row>
+    <row r="26" spans="1:16" ht="49.5" customHeight="1">
+      <c r="A26" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40" t="s">
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="41" t="s">
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41" t="s">
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41" t="s">
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-    </row>
-    <row r="28" spans="1:12" ht="49.5" customHeight="1">
-      <c r="A28" s="40" t="s">
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+    </row>
+    <row r="28" spans="1:16" ht="49.5" customHeight="1">
+      <c r="A28" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40" t="s">
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="30" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="30" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="29" t="s">
         <v>59</v>
       </c>
@@ -2820,7 +2933,7 @@
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" thickTop="1">
+    <row r="31" spans="1:16" ht="15.75" thickTop="1">
       <c r="A31" s="30" t="s">
         <v>32</v>
       </c>
@@ -2834,7 +2947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:16">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -2859,60 +2972,60 @@
       <c r="D34" s="32"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="40"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
     </row>
     <row r="38" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A38" s="40"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
     </row>
     <row r="40" spans="1:8" ht="47.25" customHeight="1">
-      <c r="A40" s="40"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
     </row>
     <row r="42" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A42" s="40"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="44" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
@@ -3026,128 +3139,202 @@
       <c r="H48" s="32"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="41" t="s">
+      <c r="A49" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41" t="s">
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="40" t="s">
+      <c r="A50" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40" t="s">
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41" t="s">
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
     </row>
     <row r="52" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A52" s="40" t="s">
+      <c r="A52" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40" t="s">
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41" t="s">
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
     </row>
     <row r="54" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A54" s="40" t="s">
+      <c r="A54" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40" t="s">
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="40"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="41" t="s">
+      <c r="A55" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41" t="s">
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
     </row>
     <row r="56" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A56" s="40" t="s">
+      <c r="A56" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40" t="s">
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="40"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="113">
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
+  <mergeCells count="121">
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="AC13:AF13"/>
+    <mergeCell ref="AC14:AF14"/>
+    <mergeCell ref="AC7:AF7"/>
+    <mergeCell ref="AC8:AF8"/>
+    <mergeCell ref="AC9:AF9"/>
+    <mergeCell ref="AC10:AF10"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="Y7:AB7"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
     <mergeCell ref="A56:D56"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A52:D52"/>
@@ -3172,101 +3359,35 @@
     <mergeCell ref="A50:D50"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
     <mergeCell ref="M7:P7"/>
     <mergeCell ref="M8:P8"/>
     <mergeCell ref="M9:P9"/>
     <mergeCell ref="M10:P10"/>
     <mergeCell ref="M11:P11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="AC12:AF12"/>
-    <mergeCell ref="AC13:AF13"/>
-    <mergeCell ref="AC14:AF14"/>
-    <mergeCell ref="AC7:AF7"/>
-    <mergeCell ref="AC8:AF8"/>
-    <mergeCell ref="AC9:AF9"/>
-    <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="Y7:AB7"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="U11:X11"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B4 B18 B32 F4 J4 N4 F18 F46 R4 V4 Z4 AD4 J18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B4 B18 B32 F4 J4 N4 F18 F46 R4 V4 Z4 AD4 J18 N18">
       <formula1>severity</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46 C4 C18 C32 G4 K4 O4 G18 G46 S4 W4 AA4 AE4 K18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46 C4 C18 C32 G4 K4 O4 G18 G46 S4 W4 AA4 AE4 K18 O18">
       <formula1>category</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46 D4 D18 D32 H4 L4 P4 H18 H46 T4 X4 AB4 AF4 L18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46 D4 D18 D32 H4 L4 P4 H18 H46 T4 X4 AB4 AF4 L18 P18">
       <formula1>component</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A48 A6 A20 A34 E6 I6 M6 E20 E48 Q6 U6 Y6 AC6 I20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A48 A6 A20 A34 E6 I6 M6 E20 E48 Q6 U6 Y6 AC6 I20 M20">
       <formula1>status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48 C6 C20 C34 G6 K6 O6 G20 G48 S6 W6 AA6 AE6 K20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48 C6 C20 C34 G6 K6 O6 G20 G48 S6 W6 AA6 AE6 K20 O20">
       <formula1>build_found</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44 B2 B16 B30">

--- a/Robo Pr0n/Corona_Testing_for_RoboPr0n_BugTracker_Ver2.xlsx
+++ b/Robo Pr0n/Corona_Testing_for_RoboPr0n_BugTracker_Ver2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="163">
   <si>
     <t>Category</t>
   </si>
@@ -501,6 +501,21 @@
   </si>
   <si>
     <t>the player to move</t>
+  </si>
+  <si>
+    <t>14|30</t>
+  </si>
+  <si>
+    <t>Fire dragons underwater</t>
+  </si>
+  <si>
+    <t>After the first boss, go into the room with the two dragons. Go underwater when they follow you.</t>
+  </si>
+  <si>
+    <t>The dragon followed the player underwater</t>
+  </si>
+  <si>
+    <t>The dragon not to go underwater</t>
   </si>
 </sst>
 </file>
@@ -1688,8 +1703,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AF56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28:L28"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28:P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2548,7 +2563,7 @@
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
     </row>
-    <row r="17" spans="1:16" ht="30.75" thickTop="1">
+    <row r="17" spans="1:20" ht="30.75" thickTop="1">
       <c r="A17" s="30" t="s">
         <v>32</v>
       </c>
@@ -2597,8 +2612,20 @@
       <c r="P17" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="30">
+      <c r="Q17" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="S17" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="T17" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="30">
       <c r="A18" s="31" t="s">
         <v>104</v>
       </c>
@@ -2635,12 +2662,24 @@
       <c r="L18" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="31"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="M18" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="N18" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="P18" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+    </row>
+    <row r="19" spans="1:20" ht="30">
       <c r="A19" s="30" t="s">
         <v>4</v>
       </c>
@@ -2681,8 +2720,18 @@
         <v>34</v>
       </c>
       <c r="P19" s="41"/>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="R19" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="T19" s="41"/>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="32" t="s">
         <v>38</v>
       </c>
@@ -2713,12 +2762,22 @@
         <v>50</v>
       </c>
       <c r="L20" s="38"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
+      <c r="M20" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="N20" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="O20" s="40" t="s">
+        <v>50</v>
+      </c>
       <c r="P20" s="40"/>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="42" t="s">
         <v>5</v>
       </c>
@@ -2743,8 +2802,14 @@
       <c r="N21" s="42"/>
       <c r="O21" s="42"/>
       <c r="P21" s="42"/>
-    </row>
-    <row r="22" spans="1:16" ht="15" customHeight="1">
+      <c r="Q21" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+    </row>
+    <row r="22" spans="1:20" ht="15" customHeight="1">
       <c r="A22" s="43" t="s">
         <v>100</v>
       </c>
@@ -2763,12 +2828,18 @@
       <c r="J22" s="43"/>
       <c r="K22" s="43"/>
       <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
+      <c r="M22" s="43" t="s">
+        <v>159</v>
+      </c>
       <c r="N22" s="43"/>
       <c r="O22" s="43"/>
       <c r="P22" s="43"/>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="42" t="s">
         <v>3</v>
       </c>
@@ -2793,8 +2864,14 @@
       <c r="N23" s="42"/>
       <c r="O23" s="42"/>
       <c r="P23" s="42"/>
-    </row>
-    <row r="24" spans="1:16" ht="49.5" customHeight="1">
+      <c r="Q23" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
+    </row>
+    <row r="24" spans="1:20" ht="49.5" customHeight="1">
       <c r="A24" s="43" t="s">
         <v>101</v>
       </c>
@@ -2813,12 +2890,18 @@
       <c r="J24" s="43"/>
       <c r="K24" s="43"/>
       <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
+      <c r="M24" s="43" t="s">
+        <v>160</v>
+      </c>
       <c r="N24" s="43"/>
       <c r="O24" s="43"/>
       <c r="P24" s="43"/>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="42" t="s">
         <v>33</v>
       </c>
@@ -2843,8 +2926,14 @@
       <c r="N25" s="42"/>
       <c r="O25" s="42"/>
       <c r="P25" s="42"/>
-    </row>
-    <row r="26" spans="1:16" ht="49.5" customHeight="1">
+      <c r="Q25" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+    </row>
+    <row r="26" spans="1:20" ht="49.5" customHeight="1">
       <c r="A26" s="43" t="s">
         <v>103</v>
       </c>
@@ -2863,12 +2952,18 @@
       <c r="J26" s="43"/>
       <c r="K26" s="43"/>
       <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
+      <c r="M26" s="43" t="s">
+        <v>161</v>
+      </c>
       <c r="N26" s="43"/>
       <c r="O26" s="43"/>
       <c r="P26" s="43"/>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="42" t="s">
         <v>36</v>
       </c>
@@ -2893,8 +2988,14 @@
       <c r="N27" s="42"/>
       <c r="O27" s="42"/>
       <c r="P27" s="42"/>
-    </row>
-    <row r="28" spans="1:16" ht="49.5" customHeight="1">
+      <c r="Q27" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+    </row>
+    <row r="28" spans="1:20" ht="49.5" customHeight="1">
       <c r="A28" s="43" t="s">
         <v>102</v>
       </c>
@@ -2913,13 +3014,19 @@
       <c r="J28" s="43"/>
       <c r="K28" s="43"/>
       <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
+      <c r="M28" s="43" t="s">
+        <v>162</v>
+      </c>
       <c r="N28" s="43"/>
       <c r="O28" s="43"/>
       <c r="P28" s="43"/>
-    </row>
-    <row r="29" spans="1:16" ht="15.75" thickBot="1"/>
-    <row r="30" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+    </row>
+    <row r="29" spans="1:20" ht="15.75" thickBot="1"/>
+    <row r="30" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="29" t="s">
         <v>59</v>
       </c>
@@ -2933,7 +3040,7 @@
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
     </row>
-    <row r="31" spans="1:16" ht="15.75" thickTop="1">
+    <row r="31" spans="1:20" ht="15.75" thickTop="1">
       <c r="A31" s="30" t="s">
         <v>32</v>
       </c>
@@ -2947,7 +3054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:20">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -3251,9 +3358,17 @@
       <c r="H56" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="121">
+  <mergeCells count="129">
     <mergeCell ref="M27:P27"/>
     <mergeCell ref="M28:P28"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="Q28:T28"/>
     <mergeCell ref="AC12:AF12"/>
     <mergeCell ref="AC13:AF13"/>
     <mergeCell ref="AC14:AF14"/>
@@ -3375,19 +3490,19 @@
     <mergeCell ref="M11:P11"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B4 B18 B32 F4 J4 N4 F18 F46 R4 V4 Z4 AD4 J18 N18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B4 B18 B32 F4 J4 N4 F18 F46 R4 V4 Z4 AD4 J18 N18 R18">
       <formula1>severity</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46 C4 C18 C32 G4 K4 O4 G18 G46 S4 W4 AA4 AE4 K18 O18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46 C4 C18 C32 G4 K4 O4 G18 G46 S4 W4 AA4 AE4 K18 O18 S18">
       <formula1>category</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46 D4 D18 D32 H4 L4 P4 H18 H46 T4 X4 AB4 AF4 L18 P18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46 D4 D18 D32 H4 L4 P4 H18 H46 T4 X4 AB4 AF4 L18 P18 T18">
       <formula1>component</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A48 A6 A20 A34 E6 I6 M6 E20 E48 Q6 U6 Y6 AC6 I20 M20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A48 A6 A20 A34 E6 I6 M6 E20 E48 Q6 U6 Y6 AC6 I20 M20 Q20">
       <formula1>status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48 C6 C20 C34 G6 K6 O6 G20 G48 S6 W6 AA6 AE6 K20 O20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48 C6 C20 C34 G6 K6 O6 G20 G48 S6 W6 AA6 AE6 K20 O20 S20">
       <formula1>build_found</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44 B2 B16 B30">

--- a/Robo Pr0n/Corona_Testing_for_RoboPr0n_BugTracker_Ver2.xlsx
+++ b/Robo Pr0n/Corona_Testing_for_RoboPr0n_BugTracker_Ver2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="173">
   <si>
     <t>Category</t>
   </si>
@@ -516,6 +516,36 @@
   </si>
   <si>
     <t>The dragon not to go underwater</t>
+  </si>
+  <si>
+    <t>15 | 30</t>
+  </si>
+  <si>
+    <t>Music plays at 0 volume almost as loudly as 100%</t>
+  </si>
+  <si>
+    <t>Sound to be turned off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Put BGM at 100 (insanely loud) and then put to 0 </t>
+  </si>
+  <si>
+    <t>16 | 30</t>
+  </si>
+  <si>
+    <t>Music still played at 0 volume. Music was almost as loud as at 100.</t>
+  </si>
+  <si>
+    <t>Volume Control scrolls insanely fast using keyboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use the keyboard to adjust volume </t>
+  </si>
+  <si>
+    <t>100 to 0 in one press</t>
+  </si>
+  <si>
+    <t>Sound volume to be scrollable and able to select specific numbers through scrolling</t>
   </si>
 </sst>
 </file>
@@ -866,7 +896,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -941,6 +971,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
@@ -1265,7 +1301,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1703,8 +1739,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AF56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28:P28"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="M56" sqref="M56:P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1744,11 +1780,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
     </row>
     <row r="2" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="29" t="s">
@@ -2149,404 +2185,404 @@
       <c r="AF6" s="36"/>
     </row>
     <row r="7" spans="1:32">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42" t="s">
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42" t="s">
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42" t="s">
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42" t="s">
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42" t="s">
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="42" t="s">
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AD7" s="42"/>
-      <c r="AE7" s="42"/>
-      <c r="AF7" s="42"/>
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="44"/>
+      <c r="AF7" s="44"/>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43" t="s">
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43" t="s">
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43" t="s">
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43" t="s">
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43" t="s">
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="43" t="s">
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="43"/>
-      <c r="AC8" s="43" t="s">
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="AD8" s="43"/>
-      <c r="AE8" s="43"/>
-      <c r="AF8" s="43"/>
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="45"/>
+      <c r="AF8" s="45"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42" t="s">
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42" t="s">
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42" t="s">
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42" t="s">
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42" t="s">
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42" t="s">
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="42"/>
-      <c r="AB9" s="42"/>
-      <c r="AC9" s="42" t="s">
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AD9" s="42"/>
-      <c r="AE9" s="42"/>
-      <c r="AF9" s="42"/>
+      <c r="AD9" s="44"/>
+      <c r="AE9" s="44"/>
+      <c r="AF9" s="44"/>
     </row>
     <row r="10" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43" t="s">
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43" t="s">
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="44" t="s">
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="44" t="s">
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="44" t="s">
+      <c r="V10" s="47"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="Z10" s="45"/>
-      <c r="AA10" s="45"/>
-      <c r="AB10" s="46"/>
-      <c r="AC10" s="44" t="s">
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="48"/>
+      <c r="AC10" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="AD10" s="45"/>
-      <c r="AE10" s="45"/>
-      <c r="AF10" s="46"/>
+      <c r="AD10" s="47"/>
+      <c r="AE10" s="47"/>
+      <c r="AF10" s="48"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42" t="s">
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42" t="s">
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42" t="s">
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42" t="s">
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="42" t="s">
+      <c r="V11" s="44"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="42"/>
-      <c r="AB11" s="42"/>
-      <c r="AC11" s="42" t="s">
+      <c r="Z11" s="44"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="44"/>
+      <c r="AC11" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="AD11" s="42"/>
-      <c r="AE11" s="42"/>
-      <c r="AF11" s="42"/>
+      <c r="AD11" s="44"/>
+      <c r="AE11" s="44"/>
+      <c r="AF11" s="44"/>
     </row>
     <row r="12" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43" t="s">
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43" t="s">
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43" t="s">
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43" t="s">
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43" t="s">
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="V12" s="43"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="43" t="s">
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="Z12" s="43"/>
-      <c r="AA12" s="43"/>
-      <c r="AB12" s="43"/>
-      <c r="AC12" s="43" t="s">
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="AD12" s="43"/>
-      <c r="AE12" s="43"/>
-      <c r="AF12" s="43"/>
+      <c r="AD12" s="45"/>
+      <c r="AE12" s="45"/>
+      <c r="AF12" s="45"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42" t="s">
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42" t="s">
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42" t="s">
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42" t="s">
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42" t="s">
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="42" t="s">
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="42"/>
-      <c r="AB13" s="42"/>
-      <c r="AC13" s="42" t="s">
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="44"/>
+      <c r="AC13" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="AD13" s="42"/>
-      <c r="AE13" s="42"/>
-      <c r="AF13" s="42"/>
+      <c r="AD13" s="44"/>
+      <c r="AE13" s="44"/>
+      <c r="AF13" s="44"/>
     </row>
     <row r="14" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43" t="s">
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43" t="s">
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43" t="s">
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43" t="s">
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43" t="s">
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="V14" s="43"/>
-      <c r="W14" s="43"/>
-      <c r="X14" s="43"/>
-      <c r="Y14" s="43" t="s">
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="Z14" s="43"/>
-      <c r="AA14" s="43"/>
-      <c r="AB14" s="43"/>
-      <c r="AC14" s="43" t="s">
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="45"/>
+      <c r="AB14" s="45"/>
+      <c r="AC14" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="AD14" s="43"/>
-      <c r="AE14" s="43"/>
-      <c r="AF14" s="43"/>
+      <c r="AD14" s="45"/>
+      <c r="AE14" s="45"/>
+      <c r="AF14" s="45"/>
     </row>
     <row r="15" spans="1:32" ht="15.75" thickBot="1"/>
     <row r="16" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
@@ -2778,252 +2814,252 @@
       <c r="T20" s="40"/>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42" t="s">
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42" t="s">
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42" t="s">
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42" t="s">
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
     </row>
     <row r="22" spans="1:20" ht="15" customHeight="1">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43" t="s">
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43" t="s">
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43" t="s">
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="43"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42" t="s">
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42" t="s">
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42" t="s">
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42" t="s">
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
     </row>
     <row r="24" spans="1:20" ht="49.5" customHeight="1">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43" t="s">
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43" t="s">
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43" t="s">
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42" t="s">
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42" t="s">
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42" t="s">
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42" t="s">
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
     </row>
     <row r="26" spans="1:20" ht="49.5" customHeight="1">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43" t="s">
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43" t="s">
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43" t="s">
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
     </row>
     <row r="27" spans="1:20">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42" t="s">
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42" t="s">
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42" t="s">
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42" t="s">
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
     </row>
     <row r="28" spans="1:20" ht="49.5" customHeight="1">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43" t="s">
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43" t="s">
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43" t="s">
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="43"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1"/>
     <row r="30" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
@@ -3060,7 +3096,7 @@
       <c r="C32" s="32"/>
       <c r="D32" s="32"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:16">
       <c r="A33" s="30" t="s">
         <v>4</v>
       </c>
@@ -3072,70 +3108,70 @@
       </c>
       <c r="D33" s="30"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:16">
       <c r="A34" s="32"/>
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
       <c r="D34" s="32"/>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="42" t="s">
+    <row r="35" spans="1:16">
+      <c r="A35" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="42" t="s">
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-    </row>
-    <row r="38" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="42" t="s">
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+    </row>
+    <row r="38" spans="1:16" ht="49.5" customHeight="1">
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-    </row>
-    <row r="40" spans="1:8" ht="47.25" customHeight="1">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="42" t="s">
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+    </row>
+    <row r="40" spans="1:16" ht="47.25" customHeight="1">
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-    </row>
-    <row r="42" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="44" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+    </row>
+    <row r="42" spans="1:16" ht="49.5" customHeight="1">
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+    </row>
+    <row r="43" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="44" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
       <c r="A44" s="29" t="s">
         <v>60</v>
       </c>
@@ -3148,8 +3184,16 @@
       <c r="F44" s="29"/>
       <c r="G44" s="29"/>
       <c r="H44" s="29"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" thickTop="1">
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+    </row>
+    <row r="45" spans="1:16" ht="30.75" thickTop="1">
       <c r="A45" s="30" t="s">
         <v>32</v>
       </c>
@@ -3174,8 +3218,32 @@
       <c r="H45" s="30" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="30">
+      <c r="I45" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K45" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="L45" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="M45" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="N45" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O45" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="P45" s="42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="30">
       <c r="A46" s="31" t="s">
         <v>108</v>
       </c>
@@ -3200,8 +3268,32 @@
       <c r="H46" s="32" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="J46" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="L46" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="M46" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="N46" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="O46" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="P46" s="43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" s="30" t="s">
         <v>4</v>
       </c>
@@ -3222,8 +3314,28 @@
         <v>34</v>
       </c>
       <c r="H47" s="30"/>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="K47" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="O47" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="P47" s="42"/>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" s="32" t="s">
         <v>38</v>
       </c>
@@ -3244,131 +3356,348 @@
         <v>50</v>
       </c>
       <c r="H48" s="32"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="42" t="s">
+      <c r="I48" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="J48" s="33">
+        <v>40319</v>
+      </c>
+      <c r="K48" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="N48" s="33">
+        <v>40319</v>
+      </c>
+      <c r="O48" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="P48" s="43"/>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42" t="s">
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="43" t="s">
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="44"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="44"/>
+      <c r="O49" s="44"/>
+      <c r="P49" s="44"/>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43" t="s">
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="42" t="s">
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="J50" s="45"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="N50" s="45"/>
+      <c r="O50" s="45"/>
+      <c r="P50" s="45"/>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42" t="s">
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-    </row>
-    <row r="52" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A52" s="43" t="s">
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="N51" s="44"/>
+      <c r="O51" s="44"/>
+      <c r="P51" s="44"/>
+    </row>
+    <row r="52" spans="1:16" ht="49.5" customHeight="1">
+      <c r="A52" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43" t="s">
+      <c r="B52" s="45"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="42" t="s">
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="J52" s="45"/>
+      <c r="K52" s="45"/>
+      <c r="L52" s="45"/>
+      <c r="M52" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="N52" s="45"/>
+      <c r="O52" s="45"/>
+      <c r="P52" s="45"/>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42" t="s">
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-    </row>
-    <row r="54" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A54" s="43" t="s">
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="J53" s="44"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="44"/>
+      <c r="M53" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="N53" s="44"/>
+      <c r="O53" s="44"/>
+      <c r="P53" s="44"/>
+    </row>
+    <row r="54" spans="1:16" ht="49.5" customHeight="1">
+      <c r="A54" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43" t="s">
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="43"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="42" t="s">
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="J54" s="45"/>
+      <c r="K54" s="45"/>
+      <c r="L54" s="45"/>
+      <c r="M54" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="N54" s="45"/>
+      <c r="O54" s="45"/>
+      <c r="P54" s="45"/>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="42"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42" t="s">
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-    </row>
-    <row r="56" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A56" s="43" t="s">
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="J55" s="44"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="44"/>
+      <c r="M55" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="N55" s="44"/>
+      <c r="O55" s="44"/>
+      <c r="P55" s="44"/>
+    </row>
+    <row r="56" spans="1:16" ht="49.5" customHeight="1">
+      <c r="A56" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="43"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43" t="s">
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="J56" s="45"/>
+      <c r="K56" s="45"/>
+      <c r="L56" s="45"/>
+      <c r="M56" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="N56" s="45"/>
+      <c r="O56" s="45"/>
+      <c r="P56" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="129">
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="Q28:T28"/>
+  <mergeCells count="145">
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
     <mergeCell ref="AC12:AF12"/>
     <mergeCell ref="AC13:AF13"/>
     <mergeCell ref="AC14:AF14"/>
@@ -3393,116 +3722,31 @@
     <mergeCell ref="U9:X9"/>
     <mergeCell ref="U10:X10"/>
     <mergeCell ref="U11:X11"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="Q28:T28"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B4 B18 B32 F4 J4 N4 F18 F46 R4 V4 Z4 AD4 J18 N18 R18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B4 B18 B32 F4 J4 N4 F18 F46 R4 V4 Z4 AD4 J18 N18 R18 J46 N46">
       <formula1>severity</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46 C4 C18 C32 G4 K4 O4 G18 G46 S4 W4 AA4 AE4 K18 O18 S18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46 C4 C18 C32 G4 K4 O4 G18 G46 S4 W4 AA4 AE4 K18 O18 S18 K46 O46">
       <formula1>category</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46 D4 D18 D32 H4 L4 P4 H18 H46 T4 X4 AB4 AF4 L18 P18 T18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46 D4 D18 D32 H4 L4 P4 H18 H46 T4 X4 AB4 AF4 L18 P18 T18 L46 P46">
       <formula1>component</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A48 A6 A20 A34 E6 I6 M6 E20 E48 Q6 U6 Y6 AC6 I20 M20 Q20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A48 A6 A20 A34 E6 I6 M6 E20 E48 Q6 U6 Y6 AC6 I20 M20 Q20 I48 M48">
       <formula1>status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48 C6 C20 C34 G6 K6 O6 G20 G48 S6 W6 AA6 AE6 K20 O20 S20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48 C6 C20 C34 G6 K6 O6 G20 G48 S6 W6 AA6 AE6 K20 O20 S20 K48 O48">
       <formula1>build_found</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44 B2 B16 B30">

--- a/Robo Pr0n/Corona_Testing_for_RoboPr0n_BugTracker_Ver2.xlsx
+++ b/Robo Pr0n/Corona_Testing_for_RoboPr0n_BugTracker_Ver2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="173">
   <si>
     <t>Category</t>
   </si>
@@ -491,9 +491,6 @@
     <t>13|30</t>
   </si>
   <si>
-    <t>Collisio when walking to the left 'Moonwalking'</t>
-  </si>
-  <si>
     <t>After the tutorial, go up the 'stairs' and to the long hallway in the left. Walk left near the chains and tourches.</t>
   </si>
   <si>
@@ -546,6 +543,9 @@
   </si>
   <si>
     <t>Sound volume to be scrollable and able to select specific numbers through scrolling</t>
+  </si>
+  <si>
+    <t>Collision when walking to the left 'Moonwalking'</t>
   </si>
 </sst>
 </file>
@@ -896,7 +896,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -971,6 +971,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
@@ -1739,8 +1745,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AF56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="M56" sqref="M56:P56"/>
+    <sheetView tabSelected="1" topLeftCell="H40" workbookViewId="0">
+      <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1780,11 +1786,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
     </row>
     <row r="2" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="29" t="s">
@@ -2185,404 +2191,404 @@
       <c r="AF6" s="36"/>
     </row>
     <row r="7" spans="1:32">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44" t="s">
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44" t="s">
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44" t="s">
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44" t="s">
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44" t="s">
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="44" t="s">
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="44"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="44" t="s">
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="AD7" s="44"/>
-      <c r="AE7" s="44"/>
-      <c r="AF7" s="44"/>
+      <c r="AD7" s="46"/>
+      <c r="AE7" s="46"/>
+      <c r="AF7" s="46"/>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45" t="s">
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45" t="s">
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45" t="s">
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45" t="s">
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45" t="s">
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45" t="s">
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="45" t="s">
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="45"/>
+      <c r="AD8" s="47"/>
+      <c r="AE8" s="47"/>
+      <c r="AF8" s="47"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44" t="s">
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44" t="s">
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44" t="s">
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44" t="s">
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44" t="s">
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="V9" s="44"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="44" t="s">
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="44"/>
-      <c r="AB9" s="44"/>
-      <c r="AC9" s="44" t="s">
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="46"/>
+      <c r="AB9" s="46"/>
+      <c r="AC9" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AD9" s="44"/>
-      <c r="AE9" s="44"/>
-      <c r="AF9" s="44"/>
+      <c r="AD9" s="46"/>
+      <c r="AE9" s="46"/>
+      <c r="AF9" s="46"/>
     </row>
     <row r="10" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45" t="s">
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45" t="s">
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45" t="s">
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="46" t="s">
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="46" t="s">
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="46" t="s">
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="47"/>
-      <c r="AB10" s="48"/>
-      <c r="AC10" s="46" t="s">
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="50"/>
+      <c r="AC10" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="AD10" s="47"/>
-      <c r="AE10" s="47"/>
-      <c r="AF10" s="48"/>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="49"/>
+      <c r="AF10" s="50"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44" t="s">
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44" t="s">
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44" t="s">
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44" t="s">
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="44"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="44" t="s">
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="44"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="44" t="s">
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="Z11" s="44"/>
-      <c r="AA11" s="44"/>
-      <c r="AB11" s="44"/>
-      <c r="AC11" s="44" t="s">
+      <c r="Z11" s="46"/>
+      <c r="AA11" s="46"/>
+      <c r="AB11" s="46"/>
+      <c r="AC11" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="AD11" s="44"/>
-      <c r="AE11" s="44"/>
-      <c r="AF11" s="44"/>
+      <c r="AD11" s="46"/>
+      <c r="AE11" s="46"/>
+      <c r="AF11" s="46"/>
     </row>
     <row r="12" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45" t="s">
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45" t="s">
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45" t="s">
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45" t="s">
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45" t="s">
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45" t="s">
+      <c r="V12" s="47"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="45" t="s">
+      <c r="Z12" s="47"/>
+      <c r="AA12" s="47"/>
+      <c r="AB12" s="47"/>
+      <c r="AC12" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="AD12" s="45"/>
-      <c r="AE12" s="45"/>
-      <c r="AF12" s="45"/>
+      <c r="AD12" s="47"/>
+      <c r="AE12" s="47"/>
+      <c r="AF12" s="47"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44" t="s">
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44" t="s">
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44" t="s">
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44" t="s">
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44" t="s">
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="44" t="s">
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="Z13" s="44"/>
-      <c r="AA13" s="44"/>
-      <c r="AB13" s="44"/>
-      <c r="AC13" s="44" t="s">
+      <c r="Z13" s="46"/>
+      <c r="AA13" s="46"/>
+      <c r="AB13" s="46"/>
+      <c r="AC13" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AD13" s="44"/>
-      <c r="AE13" s="44"/>
-      <c r="AF13" s="44"/>
+      <c r="AD13" s="46"/>
+      <c r="AE13" s="46"/>
+      <c r="AF13" s="46"/>
     </row>
     <row r="14" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45" t="s">
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45" t="s">
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45" t="s">
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45" t="s">
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45" t="s">
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="45" t="s">
+      <c r="V14" s="47"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="Z14" s="45"/>
-      <c r="AA14" s="45"/>
-      <c r="AB14" s="45"/>
-      <c r="AC14" s="45" t="s">
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="47"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="AD14" s="45"/>
-      <c r="AE14" s="45"/>
-      <c r="AF14" s="45"/>
+      <c r="AD14" s="47"/>
+      <c r="AE14" s="47"/>
+      <c r="AF14" s="47"/>
     </row>
     <row r="15" spans="1:32" ht="15.75" thickBot="1"/>
     <row r="16" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
@@ -2598,6 +2604,18 @@
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
     </row>
     <row r="17" spans="1:20" ht="30.75" thickTop="1">
       <c r="A17" s="30" t="s">
@@ -2699,7 +2717,7 @@
         <v>23</v>
       </c>
       <c r="M18" s="31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N18" s="40" t="s">
         <v>17</v>
@@ -2814,252 +2832,252 @@
       <c r="T20" s="40"/>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44" t="s">
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44" t="s">
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44" t="s">
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44" t="s">
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
     </row>
     <row r="22" spans="1:20" ht="15" customHeight="1">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45" t="s">
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45" t="s">
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+    </row>
+    <row r="24" spans="1:20" ht="49.5" customHeight="1">
+      <c r="A24" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45" t="s">
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-    </row>
-    <row r="24" spans="1:20" ht="49.5" customHeight="1">
-      <c r="A24" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45" t="s">
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="47"/>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="R25" s="46"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="46"/>
+    </row>
+    <row r="26" spans="1:20" ht="49.5" customHeight="1">
+      <c r="A26" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45" t="s">
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="45"/>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-    </row>
-    <row r="26" spans="1:20" ht="49.5" customHeight="1">
-      <c r="A26" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45" t="s">
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="R27" s="46"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="46"/>
+    </row>
+    <row r="28" spans="1:20" ht="49.5" customHeight="1">
+      <c r="A28" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45" t="s">
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="R27" s="44"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="44"/>
-    </row>
-    <row r="28" spans="1:20" ht="49.5" customHeight="1">
-      <c r="A28" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1"/>
     <row r="30" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
@@ -3096,7 +3114,7 @@
       <c r="C32" s="32"/>
       <c r="D32" s="32"/>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:20">
       <c r="A33" s="30" t="s">
         <v>4</v>
       </c>
@@ -3108,70 +3126,70 @@
       </c>
       <c r="D33" s="30"/>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:20">
       <c r="A34" s="32"/>
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
       <c r="D34" s="32"/>
     </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="44" t="s">
+    <row r="35" spans="1:20">
+      <c r="A35" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="45"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="A37" s="44" t="s">
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="47"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-    </row>
-    <row r="38" spans="1:16" ht="49.5" customHeight="1">
-      <c r="A38" s="45"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="44" t="s">
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+    </row>
+    <row r="38" spans="1:20" ht="49.5" customHeight="1">
+      <c r="A38" s="47"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-    </row>
-    <row r="40" spans="1:16" ht="47.25" customHeight="1">
-      <c r="A40" s="45"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-    </row>
-    <row r="41" spans="1:16">
-      <c r="A41" s="44" t="s">
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+    </row>
+    <row r="40" spans="1:20" ht="47.25" customHeight="1">
+      <c r="A40" s="47"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-    </row>
-    <row r="42" spans="1:16" ht="49.5" customHeight="1">
-      <c r="A42" s="45"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-    </row>
-    <row r="43" spans="1:16" ht="15.75" thickBot="1"/>
-    <row r="44" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+    </row>
+    <row r="42" spans="1:20" ht="49.5" customHeight="1">
+      <c r="A42" s="47"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+    </row>
+    <row r="43" spans="1:20" ht="15.75" thickBot="1"/>
+    <row r="44" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
       <c r="A44" s="29" t="s">
         <v>60</v>
       </c>
@@ -3192,8 +3210,12 @@
       <c r="N44" s="29"/>
       <c r="O44" s="29"/>
       <c r="P44" s="29"/>
-    </row>
-    <row r="45" spans="1:16" ht="30.75" thickTop="1">
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+      <c r="S44" s="29"/>
+      <c r="T44" s="29"/>
+    </row>
+    <row r="45" spans="1:20" ht="30.75" thickTop="1">
       <c r="A45" s="30" t="s">
         <v>32</v>
       </c>
@@ -3242,8 +3264,20 @@
       <c r="P45" s="42" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" ht="30">
+      <c r="Q45" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="R45" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="S45" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="T45" s="44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="30">
       <c r="A46" s="31" t="s">
         <v>108</v>
       </c>
@@ -3269,7 +3303,7 @@
         <v>24</v>
       </c>
       <c r="I46" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J46" s="43" t="s">
         <v>17</v>
@@ -3281,7 +3315,7 @@
         <v>23</v>
       </c>
       <c r="M46" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N46" s="43" t="s">
         <v>17</v>
@@ -3292,8 +3326,12 @@
       <c r="P46" s="43" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="Q46" s="31"/>
+      <c r="R46" s="45"/>
+      <c r="S46" s="45"/>
+      <c r="T46" s="45"/>
+    </row>
+    <row r="47" spans="1:20" ht="30">
       <c r="A47" s="30" t="s">
         <v>4</v>
       </c>
@@ -3334,8 +3372,18 @@
         <v>34</v>
       </c>
       <c r="P47" s="42"/>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="Q47" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="R47" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="S47" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="T47" s="44"/>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" s="32" t="s">
         <v>38</v>
       </c>
@@ -3376,247 +3424,352 @@
         <v>50</v>
       </c>
       <c r="P48" s="43"/>
-    </row>
-    <row r="49" spans="1:16">
-      <c r="A49" s="44" t="s">
+      <c r="Q48" s="45"/>
+      <c r="R48" s="33"/>
+      <c r="S48" s="45"/>
+      <c r="T48" s="45"/>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="A49" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="44"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44" t="s">
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="44"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44" t="s">
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="44"/>
-      <c r="K49" s="44"/>
-      <c r="L49" s="44"/>
-      <c r="M49" s="44" t="s">
+      <c r="J49" s="46"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="46"/>
+      <c r="M49" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="44"/>
-      <c r="O49" s="44"/>
-      <c r="P49" s="44"/>
-    </row>
-    <row r="50" spans="1:16">
-      <c r="A50" s="45" t="s">
+      <c r="N49" s="46"/>
+      <c r="O49" s="46"/>
+      <c r="P49" s="46"/>
+      <c r="Q49" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="46"/>
+      <c r="S49" s="46"/>
+      <c r="T49" s="46"/>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="A50" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45" t="s">
+      <c r="B50" s="47"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="45" t="s">
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="J50" s="47"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="N50" s="47"/>
+      <c r="O50" s="47"/>
+      <c r="P50" s="47"/>
+      <c r="Q50" s="47"/>
+      <c r="R50" s="47"/>
+      <c r="S50" s="47"/>
+      <c r="T50" s="47"/>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="A51" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="46"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="J51" s="46"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="N51" s="46"/>
+      <c r="O51" s="46"/>
+      <c r="P51" s="46"/>
+      <c r="Q51" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="R51" s="46"/>
+      <c r="S51" s="46"/>
+      <c r="T51" s="46"/>
+    </row>
+    <row r="52" spans="1:20" ht="49.5" customHeight="1">
+      <c r="A52" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" s="47"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="J52" s="47"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="47"/>
+      <c r="M52" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="N52" s="47"/>
+      <c r="O52" s="47"/>
+      <c r="P52" s="47"/>
+      <c r="Q52" s="47"/>
+      <c r="R52" s="47"/>
+      <c r="S52" s="47"/>
+      <c r="T52" s="47"/>
+    </row>
+    <row r="53" spans="1:20">
+      <c r="A53" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="46"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="J53" s="46"/>
+      <c r="K53" s="46"/>
+      <c r="L53" s="46"/>
+      <c r="M53" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="N53" s="46"/>
+      <c r="O53" s="46"/>
+      <c r="P53" s="46"/>
+      <c r="Q53" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="R53" s="46"/>
+      <c r="S53" s="46"/>
+      <c r="T53" s="46"/>
+    </row>
+    <row r="54" spans="1:20" ht="49.5" customHeight="1">
+      <c r="A54" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="47"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="J54" s="47"/>
+      <c r="K54" s="47"/>
+      <c r="L54" s="47"/>
+      <c r="M54" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="N54" s="47"/>
+      <c r="O54" s="47"/>
+      <c r="P54" s="47"/>
+      <c r="Q54" s="47"/>
+      <c r="R54" s="47"/>
+      <c r="S54" s="47"/>
+      <c r="T54" s="47"/>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="A55" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="J55" s="46"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="46"/>
+      <c r="M55" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="N55" s="46"/>
+      <c r="O55" s="46"/>
+      <c r="P55" s="46"/>
+      <c r="Q55" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="R55" s="46"/>
+      <c r="S55" s="46"/>
+      <c r="T55" s="46"/>
+    </row>
+    <row r="56" spans="1:20" ht="49.5" customHeight="1">
+      <c r="A56" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="J50" s="45"/>
-      <c r="K50" s="45"/>
-      <c r="L50" s="45"/>
-      <c r="M50" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="N50" s="45"/>
-      <c r="O50" s="45"/>
-      <c r="P50" s="45"/>
-    </row>
-    <row r="51" spans="1:16">
-      <c r="A51" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" s="44"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="J51" s="44"/>
-      <c r="K51" s="44"/>
-      <c r="L51" s="44"/>
-      <c r="M51" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="N51" s="44"/>
-      <c r="O51" s="44"/>
-      <c r="P51" s="44"/>
-    </row>
-    <row r="52" spans="1:16" ht="49.5" customHeight="1">
-      <c r="A52" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="B52" s="45"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="45" t="s">
-        <v>166</v>
-      </c>
-      <c r="J52" s="45"/>
-      <c r="K52" s="45"/>
-      <c r="L52" s="45"/>
-      <c r="M52" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="N52" s="45"/>
-      <c r="O52" s="45"/>
-      <c r="P52" s="45"/>
-    </row>
-    <row r="53" spans="1:16">
-      <c r="A53" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="B53" s="44"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="F53" s="44"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="J53" s="44"/>
-      <c r="K53" s="44"/>
-      <c r="L53" s="44"/>
-      <c r="M53" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="N53" s="44"/>
-      <c r="O53" s="44"/>
-      <c r="P53" s="44"/>
-    </row>
-    <row r="54" spans="1:16" ht="49.5" customHeight="1">
-      <c r="A54" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="J54" s="45"/>
-      <c r="K54" s="45"/>
-      <c r="L54" s="45"/>
-      <c r="M54" s="45" t="s">
+      <c r="J56" s="47"/>
+      <c r="K56" s="47"/>
+      <c r="L56" s="47"/>
+      <c r="M56" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="N54" s="45"/>
-      <c r="O54" s="45"/>
-      <c r="P54" s="45"/>
-    </row>
-    <row r="55" spans="1:16">
-      <c r="A55" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="B55" s="44"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="F55" s="44"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="J55" s="44"/>
-      <c r="K55" s="44"/>
-      <c r="L55" s="44"/>
-      <c r="M55" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="N55" s="44"/>
-      <c r="O55" s="44"/>
-      <c r="P55" s="44"/>
-    </row>
-    <row r="56" spans="1:16" ht="49.5" customHeight="1">
-      <c r="A56" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="B56" s="45"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="F56" s="45"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="J56" s="45"/>
-      <c r="K56" s="45"/>
-      <c r="L56" s="45"/>
-      <c r="M56" s="45" t="s">
-        <v>172</v>
-      </c>
-      <c r="N56" s="45"/>
-      <c r="O56" s="45"/>
-      <c r="P56" s="45"/>
+      <c r="N56" s="47"/>
+      <c r="O56" s="47"/>
+      <c r="P56" s="47"/>
+      <c r="Q56" s="47"/>
+      <c r="R56" s="47"/>
+      <c r="S56" s="47"/>
+      <c r="T56" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="145">
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="M11:P11"/>
+  <mergeCells count="153">
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="Q50:T50"/>
+    <mergeCell ref="Q51:T51"/>
+    <mergeCell ref="Q52:T52"/>
+    <mergeCell ref="Q53:T53"/>
+    <mergeCell ref="Q54:T54"/>
+    <mergeCell ref="Q55:T55"/>
+    <mergeCell ref="Q56:T56"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="AC13:AF13"/>
+    <mergeCell ref="AC14:AF14"/>
+    <mergeCell ref="AC7:AF7"/>
+    <mergeCell ref="AC8:AF8"/>
+    <mergeCell ref="AC9:AF9"/>
+    <mergeCell ref="AC10:AF10"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="Y7:AB7"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
     <mergeCell ref="A56:D56"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A52:D52"/>
@@ -3641,22 +3794,20 @@
     <mergeCell ref="A50:D50"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="M11:P11"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="I9:L9"/>
@@ -3665,88 +3816,37 @@
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="I13:L13"/>
     <mergeCell ref="I14:L14"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="AC12:AF12"/>
-    <mergeCell ref="AC13:AF13"/>
-    <mergeCell ref="AC14:AF14"/>
-    <mergeCell ref="AC7:AF7"/>
-    <mergeCell ref="AC8:AF8"/>
-    <mergeCell ref="AC9:AF9"/>
-    <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="Y7:AB7"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="M56:P56"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B4 B18 B32 F4 J4 N4 F18 F46 R4 V4 Z4 AD4 J18 N18 R18 J46 N46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B4 B18 B32 F4 J4 N4 F18 F46 R4 V4 Z4 AD4 J18 N18 R18 J46 N46 R46">
       <formula1>severity</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46 C4 C18 C32 G4 K4 O4 G18 G46 S4 W4 AA4 AE4 K18 O18 S18 K46 O46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46 C4 C18 C32 G4 K4 O4 G18 G46 S4 W4 AA4 AE4 K18 O18 S18 K46 O46 S46">
       <formula1>category</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46 D4 D18 D32 H4 L4 P4 H18 H46 T4 X4 AB4 AF4 L18 P18 T18 L46 P46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46 D4 D18 D32 H4 L4 P4 H18 H46 T4 X4 AB4 AF4 L18 P18 T18 L46 P46 T46">
       <formula1>component</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A48 A6 A20 A34 E6 I6 M6 E20 E48 Q6 U6 Y6 AC6 I20 M20 Q20 I48 M48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A48 A6 A20 A34 E6 I6 M6 E20 E48 Q6 U6 Y6 AC6 I20 M20 Q20 I48 M48 Q48">
       <formula1>status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48 C6 C20 C34 G6 K6 O6 G20 G48 S6 W6 AA6 AE6 K20 O20 S20 K48 O48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48 C6 C20 C34 G6 K6 O6 G20 G48 S6 W6 AA6 AE6 K20 O20 S20 K48 O48 S48">
       <formula1>build_found</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44 B2 B16 B30">

--- a/Robo Pr0n/Corona_Testing_for_RoboPr0n_BugTracker_Ver2.xlsx
+++ b/Robo Pr0n/Corona_Testing_for_RoboPr0n_BugTracker_Ver2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="198">
   <si>
     <t>Category</t>
   </si>
@@ -546,6 +546,81 @@
   </si>
   <si>
     <t>Collision when walking to the left 'Moonwalking'</t>
+  </si>
+  <si>
+    <t>Enemies see the player before the player reaches that area.</t>
+  </si>
+  <si>
+    <t>The enemy trying to get to the same area as the player, and attacking air in the process when the player is below or above the enemy (on a different platform).</t>
+  </si>
+  <si>
+    <t>The enemy to wait until the player reaches the same area as the enemy to attack or until the player got into a certain range.</t>
+  </si>
+  <si>
+    <t>Walk around a level until you see an enemy, but are on a different part of the map. Watch the enemy's behavior.</t>
+  </si>
+  <si>
+    <t>17 | 30</t>
+  </si>
+  <si>
+    <t>18 | 30</t>
+  </si>
+  <si>
+    <t>19 | 30</t>
+  </si>
+  <si>
+    <t>There is no save or load of configuration data.</t>
+  </si>
+  <si>
+    <t>Change the audio settings. Go back to main menu (or quit). Re-enter the game. Go back to the "options" option.</t>
+  </si>
+  <si>
+    <t>The data for the volume is hardcoded at 60 for the music and 100 for the sound effects. The options don't save or load when changed.</t>
+  </si>
+  <si>
+    <t>The volume to display and play as I had it when I was in the game last.</t>
+  </si>
+  <si>
+    <t>Text is not visible over all game objects.</t>
+  </si>
+  <si>
+    <t>Play the game.</t>
+  </si>
+  <si>
+    <t>If the player is in a room with a low ceiling, the XP is not visible over the object since the black text is on top of the black object.</t>
+  </si>
+  <si>
+    <t>The text to have something behind it to make the text visible at all times. Or the text to have a border so that it is visible over black or white backgrounds.</t>
+  </si>
+  <si>
+    <t>20 | 30</t>
+  </si>
+  <si>
+    <t>No credits screen or option.</t>
+  </si>
+  <si>
+    <t>Enter main menu. Use eyes.</t>
+  </si>
+  <si>
+    <t>21 | 30</t>
+  </si>
+  <si>
+    <t>"New Game," "Options," "How to play," and "Quit"</t>
+  </si>
+  <si>
+    <t>"New Game," "Options," "How to play," "Credits," and "Quit"</t>
+  </si>
+  <si>
+    <t>Toggle pause does not reset position of cursor.</t>
+  </si>
+  <si>
+    <t>Enter gameplay state. Press esc to enter the pause menu. Change the option to something other then the first. Exit pause menu. Renter it.</t>
+  </si>
+  <si>
+    <t>The position of the cursor stays wherever you leave it when exiting and entering the pause state.</t>
+  </si>
+  <si>
+    <t>The position of the cursor to reset to the first option whenever I enter the pause state, even from a sub-menu.</t>
   </si>
 </sst>
 </file>
@@ -896,7 +971,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -971,6 +1046,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
@@ -1307,8 +1388,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1745,8 +1826,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AF56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H40" workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1786,11 +1867,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
     </row>
     <row r="2" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="29" t="s">
@@ -2191,404 +2272,404 @@
       <c r="AF6" s="36"/>
     </row>
     <row r="7" spans="1:32">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46" t="s">
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46" t="s">
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46" t="s">
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46" t="s">
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="46"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="46"/>
-      <c r="U7" s="46" t="s">
+      <c r="R7" s="48"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="V7" s="46"/>
-      <c r="W7" s="46"/>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="46" t="s">
+      <c r="V7" s="48"/>
+      <c r="W7" s="48"/>
+      <c r="X7" s="48"/>
+      <c r="Y7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="46"/>
-      <c r="AA7" s="46"/>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="46" t="s">
+      <c r="Z7" s="48"/>
+      <c r="AA7" s="48"/>
+      <c r="AB7" s="48"/>
+      <c r="AC7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AD7" s="46"/>
-      <c r="AE7" s="46"/>
-      <c r="AF7" s="46"/>
+      <c r="AD7" s="48"/>
+      <c r="AE7" s="48"/>
+      <c r="AF7" s="48"/>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47" t="s">
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47" t="s">
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47" t="s">
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47" t="s">
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47" t="s">
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47" t="s">
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47" t="s">
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="47"/>
+      <c r="AD8" s="49"/>
+      <c r="AE8" s="49"/>
+      <c r="AF8" s="49"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46" t="s">
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46" t="s">
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46" t="s">
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46" t="s">
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="46" t="s">
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="V9" s="46"/>
-      <c r="W9" s="46"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="46" t="s">
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="Z9" s="46"/>
-      <c r="AA9" s="46"/>
-      <c r="AB9" s="46"/>
-      <c r="AC9" s="46" t="s">
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="48"/>
+      <c r="AC9" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AD9" s="46"/>
-      <c r="AE9" s="46"/>
-      <c r="AF9" s="46"/>
+      <c r="AD9" s="48"/>
+      <c r="AE9" s="48"/>
+      <c r="AF9" s="48"/>
     </row>
     <row r="10" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47" t="s">
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47" t="s">
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47" t="s">
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="48" t="s">
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="48" t="s">
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="V10" s="49"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="48" t="s">
+      <c r="V10" s="51"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="Z10" s="49"/>
-      <c r="AA10" s="49"/>
-      <c r="AB10" s="50"/>
-      <c r="AC10" s="48" t="s">
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="51"/>
+      <c r="AB10" s="52"/>
+      <c r="AC10" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="AD10" s="49"/>
-      <c r="AE10" s="49"/>
-      <c r="AF10" s="50"/>
+      <c r="AD10" s="51"/>
+      <c r="AE10" s="51"/>
+      <c r="AF10" s="52"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46" t="s">
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46" t="s">
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46" t="s">
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="46"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="46" t="s">
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="46"/>
-      <c r="W11" s="46"/>
-      <c r="X11" s="46"/>
-      <c r="Y11" s="46" t="s">
+      <c r="V11" s="48"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="Z11" s="46"/>
-      <c r="AA11" s="46"/>
-      <c r="AB11" s="46"/>
-      <c r="AC11" s="46" t="s">
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="48"/>
+      <c r="AB11" s="48"/>
+      <c r="AC11" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="AD11" s="46"/>
-      <c r="AE11" s="46"/>
-      <c r="AF11" s="46"/>
+      <c r="AD11" s="48"/>
+      <c r="AE11" s="48"/>
+      <c r="AF11" s="48"/>
     </row>
     <row r="12" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47" t="s">
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47" t="s">
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47" t="s">
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47" t="s">
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47" t="s">
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="V12" s="47"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="47" t="s">
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="47"/>
-      <c r="AB12" s="47"/>
-      <c r="AC12" s="47" t="s">
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="AD12" s="47"/>
-      <c r="AE12" s="47"/>
-      <c r="AF12" s="47"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="49"/>
+      <c r="AF12" s="49"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46" t="s">
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46" t="s">
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46" t="s">
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46" t="s">
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46" t="s">
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="V13" s="46"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="46" t="s">
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="Z13" s="46"/>
-      <c r="AA13" s="46"/>
-      <c r="AB13" s="46"/>
-      <c r="AC13" s="46" t="s">
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="48"/>
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AD13" s="46"/>
-      <c r="AE13" s="46"/>
-      <c r="AF13" s="46"/>
+      <c r="AD13" s="48"/>
+      <c r="AE13" s="48"/>
+      <c r="AF13" s="48"/>
     </row>
     <row r="14" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47" t="s">
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47" t="s">
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47" t="s">
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47" t="s">
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47" t="s">
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="47" t="s">
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="47" t="s">
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="AD14" s="47"/>
-      <c r="AE14" s="47"/>
-      <c r="AF14" s="47"/>
+      <c r="AD14" s="49"/>
+      <c r="AE14" s="49"/>
+      <c r="AF14" s="49"/>
     </row>
     <row r="15" spans="1:32" ht="15.75" thickBot="1"/>
     <row r="16" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
@@ -2832,252 +2913,252 @@
       <c r="T20" s="40"/>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46" t="s">
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46" t="s">
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46" t="s">
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46" t="s">
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="46"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
     </row>
     <row r="22" spans="1:20" ht="15" customHeight="1">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47" t="s">
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47" t="s">
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47" t="s">
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46" t="s">
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46" t="s">
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46" t="s">
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="46"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
     </row>
     <row r="24" spans="1:20" ht="49.5" customHeight="1">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47" t="s">
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47" t="s">
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47" t="s">
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="47"/>
-      <c r="T24" s="47"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46" t="s">
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46" t="s">
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46" t="s">
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46" t="s">
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="R25" s="46"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="46"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
     </row>
     <row r="26" spans="1:20" ht="49.5" customHeight="1">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47" t="s">
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47" t="s">
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47" t="s">
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="47"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
     </row>
     <row r="27" spans="1:20">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46" t="s">
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46" t="s">
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46" t="s">
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46" t="s">
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="R27" s="46"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="46"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
     </row>
     <row r="28" spans="1:20" ht="49.5" customHeight="1">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47" t="s">
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47" t="s">
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47" t="s">
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1"/>
     <row r="30" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
@@ -3093,8 +3174,20 @@
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
-    </row>
-    <row r="31" spans="1:20" ht="15.75" thickTop="1">
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+    </row>
+    <row r="31" spans="1:20" ht="30.75" thickTop="1">
       <c r="A31" s="30" t="s">
         <v>32</v>
       </c>
@@ -3107,14 +3200,118 @@
       <c r="D31" s="30" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" s="31"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="E31" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="K31" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="L31" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="M31" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="N31" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="O31" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="P31" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="R31" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="S31" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="T31" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="30">
+      <c r="A32" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F32" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="J32" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="M32" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="N32" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="O32" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="P32" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q32" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="R32" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="S32" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="T32" s="47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="30">
       <c r="A33" s="30" t="s">
         <v>4</v>
       </c>
@@ -3125,68 +3322,354 @@
         <v>34</v>
       </c>
       <c r="D33" s="30"/>
+      <c r="E33" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="K33" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="N33" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="O33" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="R33" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="S33" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="T33" s="46"/>
     </row>
     <row r="34" spans="1:20">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
+      <c r="A34" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="33">
+        <v>40318</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>50</v>
+      </c>
       <c r="D34" s="32"/>
+      <c r="E34" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="33">
+        <v>40319</v>
+      </c>
+      <c r="G34" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="J34" s="33">
+        <v>40319</v>
+      </c>
+      <c r="K34" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="N34" s="33">
+        <v>40319</v>
+      </c>
+      <c r="O34" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="R34" s="33">
+        <v>40319</v>
+      </c>
+      <c r="S34" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="T34" s="47"/>
     </row>
     <row r="35" spans="1:20">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="48"/>
     </row>
     <row r="36" spans="1:20">
-      <c r="A36" s="47"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
+      <c r="A36" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="49"/>
     </row>
     <row r="37" spans="1:20">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
     </row>
     <row r="38" spans="1:20" ht="49.5" customHeight="1">
-      <c r="A38" s="47"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
+      <c r="A38" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="R38" s="49"/>
+      <c r="S38" s="49"/>
+      <c r="T38" s="49"/>
     </row>
     <row r="39" spans="1:20">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="48"/>
+      <c r="Q39" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="R39" s="48"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="48"/>
     </row>
     <row r="40" spans="1:20" ht="47.25" customHeight="1">
-      <c r="A40" s="47"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
+      <c r="A40" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="N40" s="49"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="R40" s="49"/>
+      <c r="S40" s="49"/>
+      <c r="T40" s="49"/>
     </row>
     <row r="41" spans="1:20">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="J41" s="48"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="N41" s="48"/>
+      <c r="O41" s="48"/>
+      <c r="P41" s="48"/>
+      <c r="Q41" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="R41" s="48"/>
+      <c r="S41" s="48"/>
+      <c r="T41" s="48"/>
     </row>
     <row r="42" spans="1:20" ht="49.5" customHeight="1">
-      <c r="A42" s="47"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
+      <c r="A42" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="N42" s="49"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="R42" s="49"/>
+      <c r="S42" s="49"/>
+      <c r="T42" s="49"/>
     </row>
     <row r="43" spans="1:20" ht="15.75" thickBot="1"/>
     <row r="44" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
@@ -3430,346 +3913,309 @@
       <c r="T48" s="45"/>
     </row>
     <row r="49" spans="1:20">
-      <c r="A49" s="46" t="s">
+      <c r="A49" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46" t="s">
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="46" t="s">
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="46"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="46"/>
-      <c r="M49" s="46" t="s">
+      <c r="J49" s="48"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="46"/>
-      <c r="O49" s="46"/>
-      <c r="P49" s="46"/>
-      <c r="Q49" s="46" t="s">
+      <c r="N49" s="48"/>
+      <c r="O49" s="48"/>
+      <c r="P49" s="48"/>
+      <c r="Q49" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="R49" s="46"/>
-      <c r="S49" s="46"/>
-      <c r="T49" s="46"/>
+      <c r="R49" s="48"/>
+      <c r="S49" s="48"/>
+      <c r="T49" s="48"/>
     </row>
     <row r="50" spans="1:20">
-      <c r="A50" s="47" t="s">
+      <c r="A50" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="B50" s="47"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47" t="s">
+      <c r="B50" s="49"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="47" t="s">
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="J50" s="47"/>
-      <c r="K50" s="47"/>
-      <c r="L50" s="47"/>
-      <c r="M50" s="47" t="s">
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="N50" s="47"/>
-      <c r="O50" s="47"/>
-      <c r="P50" s="47"/>
-      <c r="Q50" s="47"/>
-      <c r="R50" s="47"/>
-      <c r="S50" s="47"/>
-      <c r="T50" s="47"/>
+      <c r="N50" s="49"/>
+      <c r="O50" s="49"/>
+      <c r="P50" s="49"/>
+      <c r="Q50" s="49"/>
+      <c r="R50" s="49"/>
+      <c r="S50" s="49"/>
+      <c r="T50" s="49"/>
     </row>
     <row r="51" spans="1:20">
-      <c r="A51" s="46" t="s">
+      <c r="A51" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="46"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="46" t="s">
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F51" s="46"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="46" t="s">
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J51" s="46"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="46"/>
-      <c r="M51" s="46" t="s">
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="N51" s="46"/>
-      <c r="O51" s="46"/>
-      <c r="P51" s="46"/>
-      <c r="Q51" s="46" t="s">
+      <c r="N51" s="48"/>
+      <c r="O51" s="48"/>
+      <c r="P51" s="48"/>
+      <c r="Q51" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="R51" s="46"/>
-      <c r="S51" s="46"/>
-      <c r="T51" s="46"/>
+      <c r="R51" s="48"/>
+      <c r="S51" s="48"/>
+      <c r="T51" s="48"/>
     </row>
     <row r="52" spans="1:20" ht="49.5" customHeight="1">
-      <c r="A52" s="47" t="s">
+      <c r="A52" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="B52" s="47"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47" t="s">
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="47" t="s">
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="J52" s="47"/>
-      <c r="K52" s="47"/>
-      <c r="L52" s="47"/>
-      <c r="M52" s="47" t="s">
+      <c r="J52" s="49"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="49"/>
+      <c r="M52" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="N52" s="47"/>
-      <c r="O52" s="47"/>
-      <c r="P52" s="47"/>
-      <c r="Q52" s="47"/>
-      <c r="R52" s="47"/>
-      <c r="S52" s="47"/>
-      <c r="T52" s="47"/>
+      <c r="N52" s="49"/>
+      <c r="O52" s="49"/>
+      <c r="P52" s="49"/>
+      <c r="Q52" s="49"/>
+      <c r="R52" s="49"/>
+      <c r="S52" s="49"/>
+      <c r="T52" s="49"/>
     </row>
     <row r="53" spans="1:20">
-      <c r="A53" s="46" t="s">
+      <c r="A53" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="46"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="46" t="s">
+      <c r="B53" s="48"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="46" t="s">
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="J53" s="46"/>
-      <c r="K53" s="46"/>
-      <c r="L53" s="46"/>
-      <c r="M53" s="46" t="s">
+      <c r="J53" s="48"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="48"/>
+      <c r="M53" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="N53" s="46"/>
-      <c r="O53" s="46"/>
-      <c r="P53" s="46"/>
-      <c r="Q53" s="46" t="s">
+      <c r="N53" s="48"/>
+      <c r="O53" s="48"/>
+      <c r="P53" s="48"/>
+      <c r="Q53" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="R53" s="46"/>
-      <c r="S53" s="46"/>
-      <c r="T53" s="46"/>
+      <c r="R53" s="48"/>
+      <c r="S53" s="48"/>
+      <c r="T53" s="48"/>
     </row>
     <row r="54" spans="1:20" ht="49.5" customHeight="1">
-      <c r="A54" s="47" t="s">
+      <c r="A54" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="47"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47" t="s">
+      <c r="B54" s="49"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47" t="s">
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="J54" s="47"/>
-      <c r="K54" s="47"/>
-      <c r="L54" s="47"/>
-      <c r="M54" s="47" t="s">
+      <c r="J54" s="49"/>
+      <c r="K54" s="49"/>
+      <c r="L54" s="49"/>
+      <c r="M54" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="N54" s="47"/>
-      <c r="O54" s="47"/>
-      <c r="P54" s="47"/>
-      <c r="Q54" s="47"/>
-      <c r="R54" s="47"/>
-      <c r="S54" s="47"/>
-      <c r="T54" s="47"/>
+      <c r="N54" s="49"/>
+      <c r="O54" s="49"/>
+      <c r="P54" s="49"/>
+      <c r="Q54" s="49"/>
+      <c r="R54" s="49"/>
+      <c r="S54" s="49"/>
+      <c r="T54" s="49"/>
     </row>
     <row r="55" spans="1:20">
-      <c r="A55" s="46" t="s">
+      <c r="A55" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="46"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="46" t="s">
+      <c r="B55" s="48"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="F55" s="46"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="46" t="s">
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="J55" s="46"/>
-      <c r="K55" s="46"/>
-      <c r="L55" s="46"/>
-      <c r="M55" s="46" t="s">
+      <c r="J55" s="48"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="N55" s="46"/>
-      <c r="O55" s="46"/>
-      <c r="P55" s="46"/>
-      <c r="Q55" s="46" t="s">
+      <c r="N55" s="48"/>
+      <c r="O55" s="48"/>
+      <c r="P55" s="48"/>
+      <c r="Q55" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="R55" s="46"/>
-      <c r="S55" s="46"/>
-      <c r="T55" s="46"/>
+      <c r="R55" s="48"/>
+      <c r="S55" s="48"/>
+      <c r="T55" s="48"/>
     </row>
     <row r="56" spans="1:20" ht="49.5" customHeight="1">
-      <c r="A56" s="47" t="s">
+      <c r="A56" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47" t="s">
+      <c r="B56" s="49"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
-      <c r="I56" s="47" t="s">
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="J56" s="47"/>
-      <c r="K56" s="47"/>
-      <c r="L56" s="47"/>
-      <c r="M56" s="47" t="s">
+      <c r="J56" s="49"/>
+      <c r="K56" s="49"/>
+      <c r="L56" s="49"/>
+      <c r="M56" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="N56" s="47"/>
-      <c r="O56" s="47"/>
-      <c r="P56" s="47"/>
-      <c r="Q56" s="47"/>
-      <c r="R56" s="47"/>
-      <c r="S56" s="47"/>
-      <c r="T56" s="47"/>
+      <c r="N56" s="49"/>
+      <c r="O56" s="49"/>
+      <c r="P56" s="49"/>
+      <c r="Q56" s="49"/>
+      <c r="R56" s="49"/>
+      <c r="S56" s="49"/>
+      <c r="T56" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="153">
-    <mergeCell ref="Q49:T49"/>
-    <mergeCell ref="Q50:T50"/>
-    <mergeCell ref="Q51:T51"/>
-    <mergeCell ref="Q52:T52"/>
-    <mergeCell ref="Q53:T53"/>
-    <mergeCell ref="Q54:T54"/>
-    <mergeCell ref="Q55:T55"/>
-    <mergeCell ref="Q56:T56"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="AC12:AF12"/>
-    <mergeCell ref="AC13:AF13"/>
-    <mergeCell ref="AC14:AF14"/>
-    <mergeCell ref="AC7:AF7"/>
-    <mergeCell ref="AC8:AF8"/>
-    <mergeCell ref="AC9:AF9"/>
-    <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="Y7:AB7"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
+  <mergeCells count="185">
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
     <mergeCell ref="A56:D56"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A52:D52"/>
@@ -3794,59 +4240,128 @@
     <mergeCell ref="A50:D50"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A13:D13"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="AC7:AF7"/>
+    <mergeCell ref="AC8:AF8"/>
+    <mergeCell ref="AC9:AF9"/>
+    <mergeCell ref="AC10:AF10"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="Y7:AB7"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="AC13:AF13"/>
+    <mergeCell ref="AC14:AF14"/>
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="Q50:T50"/>
+    <mergeCell ref="Q51:T51"/>
+    <mergeCell ref="Q52:T52"/>
+    <mergeCell ref="Q53:T53"/>
+    <mergeCell ref="Q54:T54"/>
+    <mergeCell ref="Q55:T55"/>
+    <mergeCell ref="Q56:T56"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="Q38:T38"/>
+    <mergeCell ref="Q39:T39"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="Q42:T42"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B4 B18 B32 F4 J4 N4 F18 F46 R4 V4 Z4 AD4 J18 N18 R18 J46 N46 R46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B4 B18 B32 F4 J4 N4 F18 F46 R4 V4 Z4 AD4 J18 N18 R18 J46 N46 R46 F32 J32 N32 R32">
       <formula1>severity</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46 C4 C18 C32 G4 K4 O4 G18 G46 S4 W4 AA4 AE4 K18 O18 S18 K46 O46 S46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46 C4 C18 C32 G4 K4 O4 G18 G46 S4 W4 AA4 AE4 K18 O18 S18 K46 O46 S46 G32 K32 O32 S32">
       <formula1>category</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46 D4 D18 D32 H4 L4 P4 H18 H46 T4 X4 AB4 AF4 L18 P18 T18 L46 P46 T46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46 D4 D18 D32 H4 L4 P4 H18 H46 T4 X4 AB4 AF4 L18 P18 T18 L46 P46 T46 H32 L32 P32 T32">
       <formula1>component</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A48 A6 A20 A34 E6 I6 M6 E20 E48 Q6 U6 Y6 AC6 I20 M20 Q20 I48 M48 Q48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A48 A6 A20 A34 E6 I6 M6 E20 E48 Q6 U6 Y6 AC6 I20 M20 Q20 I48 M48 Q48 E34 I34 M34 Q34">
       <formula1>status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48 C6 C20 C34 G6 K6 O6 G20 G48 S6 W6 AA6 AE6 K20 O20 S20 K48 O48 S48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48 C6 C20 C34 G6 K6 O6 G20 G48 S6 W6 AA6 AE6 K20 O20 S20 K48 O48 S48 G34 K34 O34 S34">
       <formula1>build_found</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44 B2 B16 B30">

--- a/Robo Pr0n/Corona_Testing_for_RoboPr0n_BugTracker_Ver2.xlsx
+++ b/Robo Pr0n/Corona_Testing_for_RoboPr0n_BugTracker_Ver2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="203">
   <si>
     <t>Category</t>
   </si>
@@ -621,6 +621,21 @@
   </si>
   <si>
     <t>The position of the cursor to reset to the first option whenever I enter the pause state, even from a sub-menu.</t>
+  </si>
+  <si>
+    <t>22 | 30</t>
+  </si>
+  <si>
+    <t>Camera stops following player</t>
+  </si>
+  <si>
+    <t>Go to the save point right before the warden boss. Save in slot 1. Go to warden boss and die. Choose continue then run to the right.</t>
+  </si>
+  <si>
+    <t>Player moved to the right normally but the camera stayed centered on the save point</t>
+  </si>
+  <si>
+    <t>Camera to continue following player</t>
   </si>
 </sst>
 </file>
@@ -1826,8 +1841,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AF56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="I35" workbookViewId="0">
+      <selection activeCell="Q56" sqref="Q56:T56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3809,10 +3824,18 @@
       <c r="P46" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="Q46" s="31"/>
-      <c r="R46" s="45"/>
-      <c r="S46" s="45"/>
-      <c r="T46" s="45"/>
+      <c r="Q46" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="R46" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="S46" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="T46" s="45" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="47" spans="1:20" ht="30">
       <c r="A47" s="30" t="s">
@@ -3907,9 +3930,15 @@
         <v>50</v>
       </c>
       <c r="P48" s="43"/>
-      <c r="Q48" s="45"/>
-      <c r="R48" s="33"/>
-      <c r="S48" s="45"/>
+      <c r="Q48" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="R48" s="33">
+        <v>40321</v>
+      </c>
+      <c r="S48" s="45" t="s">
+        <v>50</v>
+      </c>
       <c r="T48" s="45"/>
     </row>
     <row r="49" spans="1:20">
@@ -3969,7 +3998,9 @@
       <c r="N50" s="49"/>
       <c r="O50" s="49"/>
       <c r="P50" s="49"/>
-      <c r="Q50" s="49"/>
+      <c r="Q50" s="49" t="s">
+        <v>199</v>
+      </c>
       <c r="R50" s="49"/>
       <c r="S50" s="49"/>
       <c r="T50" s="49"/>
@@ -4031,7 +4062,9 @@
       <c r="N52" s="49"/>
       <c r="O52" s="49"/>
       <c r="P52" s="49"/>
-      <c r="Q52" s="49"/>
+      <c r="Q52" s="49" t="s">
+        <v>200</v>
+      </c>
       <c r="R52" s="49"/>
       <c r="S52" s="49"/>
       <c r="T52" s="49"/>
@@ -4093,7 +4126,9 @@
       <c r="N54" s="49"/>
       <c r="O54" s="49"/>
       <c r="P54" s="49"/>
-      <c r="Q54" s="49"/>
+      <c r="Q54" s="49" t="s">
+        <v>201</v>
+      </c>
       <c r="R54" s="49"/>
       <c r="S54" s="49"/>
       <c r="T54" s="49"/>
@@ -4155,67 +4190,120 @@
       <c r="N56" s="49"/>
       <c r="O56" s="49"/>
       <c r="P56" s="49"/>
-      <c r="Q56" s="49"/>
+      <c r="Q56" s="49" t="s">
+        <v>202</v>
+      </c>
       <c r="R56" s="49"/>
       <c r="S56" s="49"/>
       <c r="T56" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="185">
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="Q50:T50"/>
+    <mergeCell ref="Q51:T51"/>
+    <mergeCell ref="Q52:T52"/>
+    <mergeCell ref="Q53:T53"/>
+    <mergeCell ref="Q54:T54"/>
+    <mergeCell ref="Q55:T55"/>
+    <mergeCell ref="Q56:T56"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="Q38:T38"/>
+    <mergeCell ref="Q39:T39"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="AC13:AF13"/>
+    <mergeCell ref="AC14:AF14"/>
+    <mergeCell ref="AC7:AF7"/>
+    <mergeCell ref="AC8:AF8"/>
+    <mergeCell ref="AC9:AF9"/>
+    <mergeCell ref="AC10:AF10"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="Y7:AB7"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
     <mergeCell ref="A56:D56"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A52:D52"/>
@@ -4240,113 +4328,62 @@
     <mergeCell ref="A50:D50"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="AC7:AF7"/>
-    <mergeCell ref="AC8:AF8"/>
-    <mergeCell ref="AC9:AF9"/>
-    <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="Y7:AB7"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
     <mergeCell ref="Q21:T21"/>
     <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="AC12:AF12"/>
-    <mergeCell ref="AC13:AF13"/>
-    <mergeCell ref="AC14:AF14"/>
-    <mergeCell ref="Q49:T49"/>
-    <mergeCell ref="Q50:T50"/>
-    <mergeCell ref="Q51:T51"/>
-    <mergeCell ref="Q52:T52"/>
-    <mergeCell ref="Q53:T53"/>
-    <mergeCell ref="Q54:T54"/>
-    <mergeCell ref="Q55:T55"/>
-    <mergeCell ref="Q56:T56"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="Q37:T37"/>
-    <mergeCell ref="Q38:T38"/>
-    <mergeCell ref="Q39:T39"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="M42:P42"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B4 B18 B32 F4 J4 N4 F18 F46 R4 V4 Z4 AD4 J18 N18 R18 J46 N46 R46 F32 J32 N32 R32">

--- a/Robo Pr0n/Corona_Testing_for_RoboPr0n_BugTracker_Ver2.xlsx
+++ b/Robo Pr0n/Corona_Testing_for_RoboPr0n_BugTracker_Ver2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="217">
   <si>
     <t>Category</t>
   </si>
@@ -636,6 +636,48 @@
   </si>
   <si>
     <t>Camera to continue following player</t>
+  </si>
+  <si>
+    <t>23 | 30</t>
+  </si>
+  <si>
+    <t>5.26.2010</t>
+  </si>
+  <si>
+    <t>Running under water faster then swimming</t>
+  </si>
+  <si>
+    <t>Start game, find a pool of water, sink to the bottom</t>
+  </si>
+  <si>
+    <t>Player walks on ground faster then he swims</t>
+  </si>
+  <si>
+    <t>Player to keep swimming or to run slower underwater</t>
+  </si>
+  <si>
+    <t>Kill enemies through walls</t>
+  </si>
+  <si>
+    <t>Start game, find an enemy with a wall between you. Run up to the wall, attack.</t>
+  </si>
+  <si>
+    <t>Enemies within range on the otherside of the wall died.</t>
+  </si>
+  <si>
+    <t>Enemies to not be damaged on the other side of the wall</t>
+  </si>
+  <si>
+    <t>Cannot attack while running</t>
+  </si>
+  <si>
+    <t>Run and try to attack</t>
+  </si>
+  <si>
+    <t>Attack animation may plays for a frame, enemies aren't damaged.</t>
+  </si>
+  <si>
+    <t>enemies within range to be damaged.</t>
   </si>
 </sst>
 </file>
@@ -986,7 +1028,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1061,6 +1103,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
@@ -1839,10 +1887,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF56"/>
+  <dimension ref="A1:AR56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I35" workbookViewId="0">
-      <selection activeCell="Q56" sqref="Q56:T56"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AO14" sqref="AO14:AR14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1878,17 +1926,28 @@
     <col min="29" max="30" width="9.140625" style="28"/>
     <col min="31" max="31" width="12.42578125" style="28" customWidth="1"/>
     <col min="32" max="32" width="13.28515625" style="28" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="28"/>
+    <col min="33" max="33" width="9.140625" style="28"/>
+    <col min="34" max="34" width="10.5703125" style="28" customWidth="1"/>
+    <col min="35" max="35" width="12" style="28" customWidth="1"/>
+    <col min="36" max="36" width="14.42578125" style="28" customWidth="1"/>
+    <col min="37" max="37" width="11.28515625" style="28" customWidth="1"/>
+    <col min="38" max="38" width="11.42578125" style="28" customWidth="1"/>
+    <col min="39" max="39" width="11.5703125" style="28" customWidth="1"/>
+    <col min="40" max="40" width="12.28515625" style="28" customWidth="1"/>
+    <col min="41" max="42" width="11.140625" style="28" customWidth="1"/>
+    <col min="43" max="43" width="11.7109375" style="28" customWidth="1"/>
+    <col min="44" max="44" width="13.28515625" style="28" customWidth="1"/>
+    <col min="45" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:44" ht="15.75" thickBot="1">
+      <c r="A1" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-    </row>
-    <row r="2" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+    </row>
+    <row r="2" spans="1:44" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="29" t="s">
         <v>58</v>
       </c>
@@ -1925,8 +1984,20 @@
       <c r="AD2" s="29"/>
       <c r="AE2" s="29"/>
       <c r="AF2" s="29"/>
-    </row>
-    <row r="3" spans="1:32" ht="30.75" thickTop="1">
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="29"/>
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="29"/>
+    </row>
+    <row r="3" spans="1:44" ht="30.75" thickTop="1">
       <c r="A3" s="30" t="s">
         <v>32</v>
       </c>
@@ -2023,8 +2094,44 @@
       <c r="AF3" s="37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" ht="30">
+      <c r="AG3" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH3" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI3" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL3" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM3" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP3" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" ht="30">
       <c r="A4" s="31" t="s">
         <v>105</v>
       </c>
@@ -2121,8 +2228,44 @@
       <c r="AF4" s="36" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" ht="30">
+      <c r="AG4" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH4" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI4" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ4" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK4" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="AL4" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM4" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN4" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO4" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="AP4" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ4" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR4" s="49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" ht="30">
       <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
@@ -2203,8 +2346,38 @@
         <v>34</v>
       </c>
       <c r="AF5" s="37"/>
-    </row>
-    <row r="6" spans="1:32">
+      <c r="AG5" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH5" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI5" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ5" s="48"/>
+      <c r="AK5" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL5" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM5" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN5" s="48"/>
+      <c r="AO5" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP5" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ5" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR5" s="48"/>
+    </row>
+    <row r="6" spans="1:44">
       <c r="A6" s="32" t="s">
         <v>38</v>
       </c>
@@ -2285,409 +2458,583 @@
         <v>50</v>
       </c>
       <c r="AF6" s="36"/>
-    </row>
-    <row r="7" spans="1:32">
-      <c r="A7" s="48" t="s">
+      <c r="AG6" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH6" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI6" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ6" s="49"/>
+      <c r="AK6" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL6" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM6" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN6" s="49"/>
+      <c r="AO6" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP6" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="AQ6" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR6" s="49"/>
+    </row>
+    <row r="7" spans="1:44">
+      <c r="A7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48" t="s">
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48" t="s">
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48" t="s">
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48" t="s">
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48" t="s">
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="48" t="s">
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="48"/>
-      <c r="AA7" s="48"/>
-      <c r="AB7" s="48"/>
-      <c r="AC7" s="48" t="s">
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AD7" s="48"/>
-      <c r="AE7" s="48"/>
-      <c r="AF7" s="48"/>
-    </row>
-    <row r="8" spans="1:32">
-      <c r="A8" s="49" t="s">
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="50"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH7" s="50"/>
+      <c r="AI7" s="50"/>
+      <c r="AJ7" s="50"/>
+      <c r="AK7" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL7" s="50"/>
+      <c r="AM7" s="50"/>
+      <c r="AN7" s="50"/>
+      <c r="AO7" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP7" s="50"/>
+      <c r="AQ7" s="50"/>
+      <c r="AR7" s="50"/>
+    </row>
+    <row r="8" spans="1:44" ht="15" customHeight="1">
+      <c r="A8" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49" t="s">
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49" t="s">
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49" t="s">
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49" t="s">
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49" t="s">
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="49" t="s">
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="49"/>
-      <c r="AB8" s="49"/>
-      <c r="AC8" s="49" t="s">
+      <c r="Z8" s="51"/>
+      <c r="AA8" s="51"/>
+      <c r="AB8" s="51"/>
+      <c r="AC8" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="AD8" s="49"/>
-      <c r="AE8" s="49"/>
-      <c r="AF8" s="49"/>
-    </row>
-    <row r="9" spans="1:32">
-      <c r="A9" s="48" t="s">
+      <c r="AD8" s="51"/>
+      <c r="AE8" s="51"/>
+      <c r="AF8" s="51"/>
+      <c r="AG8" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH8" s="51"/>
+      <c r="AI8" s="51"/>
+      <c r="AJ8" s="51"/>
+      <c r="AK8" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="AL8" s="51"/>
+      <c r="AM8" s="51"/>
+      <c r="AN8" s="51"/>
+      <c r="AO8" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP8" s="51"/>
+      <c r="AQ8" s="51"/>
+      <c r="AR8" s="51"/>
+    </row>
+    <row r="9" spans="1:44" ht="15" customHeight="1">
+      <c r="A9" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48" t="s">
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48" t="s">
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48" t="s">
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48" t="s">
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48" t="s">
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="48" t="s">
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="48"/>
-      <c r="AB9" s="48"/>
-      <c r="AC9" s="48" t="s">
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="AD9" s="48"/>
-      <c r="AE9" s="48"/>
-      <c r="AF9" s="48"/>
-    </row>
-    <row r="10" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A10" s="49" t="s">
+      <c r="AD9" s="50"/>
+      <c r="AE9" s="50"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH9" s="50"/>
+      <c r="AI9" s="50"/>
+      <c r="AJ9" s="50"/>
+      <c r="AK9" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL9" s="50"/>
+      <c r="AM9" s="50"/>
+      <c r="AN9" s="50"/>
+      <c r="AO9" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP9" s="50"/>
+      <c r="AQ9" s="50"/>
+      <c r="AR9" s="50"/>
+    </row>
+    <row r="10" spans="1:44" ht="50.1" customHeight="1">
+      <c r="A10" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49" t="s">
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49" t="s">
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49" t="s">
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="50" t="s">
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="50" t="s">
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="V10" s="51"/>
-      <c r="W10" s="51"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="50" t="s">
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="54"/>
+      <c r="Y10" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="Z10" s="51"/>
-      <c r="AA10" s="51"/>
-      <c r="AB10" s="52"/>
-      <c r="AC10" s="50" t="s">
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="54"/>
+      <c r="AC10" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="AD10" s="51"/>
-      <c r="AE10" s="51"/>
-      <c r="AF10" s="52"/>
-    </row>
-    <row r="11" spans="1:32">
-      <c r="A11" s="48" t="s">
+      <c r="AD10" s="53"/>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="54"/>
+      <c r="AG10" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH10" s="53"/>
+      <c r="AI10" s="53"/>
+      <c r="AJ10" s="54"/>
+      <c r="AK10" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="AL10" s="53"/>
+      <c r="AM10" s="53"/>
+      <c r="AN10" s="54"/>
+      <c r="AO10" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="AP10" s="53"/>
+      <c r="AQ10" s="53"/>
+      <c r="AR10" s="54"/>
+    </row>
+    <row r="11" spans="1:44" ht="15" customHeight="1">
+      <c r="A11" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48" t="s">
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48" t="s">
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48" t="s">
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48" t="s">
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48" t="s">
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="48" t="s">
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="48"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="48" t="s">
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="50"/>
+      <c r="AB11" s="50"/>
+      <c r="AC11" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="48"/>
-      <c r="AF11" s="48"/>
-    </row>
-    <row r="12" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A12" s="49" t="s">
+      <c r="AD11" s="50"/>
+      <c r="AE11" s="50"/>
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH11" s="50"/>
+      <c r="AI11" s="50"/>
+      <c r="AJ11" s="50"/>
+      <c r="AK11" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL11" s="50"/>
+      <c r="AM11" s="50"/>
+      <c r="AN11" s="50"/>
+      <c r="AO11" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP11" s="50"/>
+      <c r="AQ11" s="50"/>
+      <c r="AR11" s="50"/>
+    </row>
+    <row r="12" spans="1:44" ht="50.1" customHeight="1">
+      <c r="A12" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49" t="s">
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49" t="s">
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49" t="s">
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49" t="s">
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="49" t="s">
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="V12" s="49"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="49"/>
-      <c r="Y12" s="49" t="s">
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="Z12" s="49"/>
-      <c r="AA12" s="49"/>
-      <c r="AB12" s="49"/>
-      <c r="AC12" s="49" t="s">
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="AD12" s="49"/>
-      <c r="AE12" s="49"/>
-      <c r="AF12" s="49"/>
-    </row>
-    <row r="13" spans="1:32">
-      <c r="A13" s="48" t="s">
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="51"/>
+      <c r="AF12" s="51"/>
+      <c r="AG12" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="AH12" s="51"/>
+      <c r="AI12" s="51"/>
+      <c r="AJ12" s="51"/>
+      <c r="AK12" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="AL12" s="51"/>
+      <c r="AM12" s="51"/>
+      <c r="AN12" s="51"/>
+      <c r="AO12" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="AP12" s="51"/>
+      <c r="AQ12" s="51"/>
+      <c r="AR12" s="51"/>
+    </row>
+    <row r="13" spans="1:44" ht="15" customHeight="1">
+      <c r="A13" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48" t="s">
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48" t="s">
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48" t="s">
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48" t="s">
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48" t="s">
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48" t="s">
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="48"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="48" t="s">
+      <c r="Z13" s="50"/>
+      <c r="AA13" s="50"/>
+      <c r="AB13" s="50"/>
+      <c r="AC13" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="AD13" s="48"/>
-      <c r="AE13" s="48"/>
-      <c r="AF13" s="48"/>
-    </row>
-    <row r="14" spans="1:32" ht="50.1" customHeight="1">
-      <c r="A14" s="49" t="s">
+      <c r="AD13" s="50"/>
+      <c r="AE13" s="50"/>
+      <c r="AF13" s="50"/>
+      <c r="AG13" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH13" s="50"/>
+      <c r="AI13" s="50"/>
+      <c r="AJ13" s="50"/>
+      <c r="AK13" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL13" s="50"/>
+      <c r="AM13" s="50"/>
+      <c r="AN13" s="50"/>
+      <c r="AO13" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP13" s="50"/>
+      <c r="AQ13" s="50"/>
+      <c r="AR13" s="50"/>
+    </row>
+    <row r="14" spans="1:44" ht="50.1" customHeight="1">
+      <c r="A14" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49" t="s">
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49" t="s">
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49" t="s">
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49" t="s">
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="49" t="s">
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="V14" s="49"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="49"/>
-      <c r="Y14" s="49" t="s">
+      <c r="V14" s="51"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="Z14" s="49"/>
-      <c r="AA14" s="49"/>
-      <c r="AB14" s="49"/>
-      <c r="AC14" s="49" t="s">
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="51"/>
+      <c r="AB14" s="51"/>
+      <c r="AC14" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="AD14" s="49"/>
-      <c r="AE14" s="49"/>
-      <c r="AF14" s="49"/>
-    </row>
-    <row r="15" spans="1:32" ht="15.75" thickBot="1"/>
-    <row r="16" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
+      <c r="AD14" s="51"/>
+      <c r="AE14" s="51"/>
+      <c r="AF14" s="51"/>
+      <c r="AG14" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="AH14" s="51"/>
+      <c r="AI14" s="51"/>
+      <c r="AJ14" s="51"/>
+      <c r="AK14" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL14" s="51"/>
+      <c r="AM14" s="51"/>
+      <c r="AN14" s="51"/>
+      <c r="AO14" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="AP14" s="51"/>
+      <c r="AQ14" s="51"/>
+      <c r="AR14" s="51"/>
+    </row>
+    <row r="15" spans="1:44" ht="15.75" thickBot="1"/>
+    <row r="16" spans="1:44" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="29" t="s">
         <v>61</v>
       </c>
@@ -2928,252 +3275,252 @@
       <c r="T20" s="40"/>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48" t="s">
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48" t="s">
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48" t="s">
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48" t="s">
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
     </row>
     <row r="22" spans="1:20" ht="15" customHeight="1">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49" t="s">
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49" t="s">
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49" t="s">
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="49"/>
-      <c r="T22" s="49"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48" t="s">
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48" t="s">
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48" t="s">
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48" t="s">
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
     </row>
     <row r="24" spans="1:20" ht="49.5" customHeight="1">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49" t="s">
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49" t="s">
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49" t="s">
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48" t="s">
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48" t="s">
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48" t="s">
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48" t="s">
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
     </row>
     <row r="26" spans="1:20" ht="49.5" customHeight="1">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49" t="s">
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49" t="s">
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49" t="s">
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
     </row>
     <row r="27" spans="1:20">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48" t="s">
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48" t="s">
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48" t="s">
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48" t="s">
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="R27" s="48"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="48"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
     </row>
     <row r="28" spans="1:20" ht="49.5" customHeight="1">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49" t="s">
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49" t="s">
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49" t="s">
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="49"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1"/>
     <row r="30" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
@@ -3431,260 +3778,260 @@
       <c r="T34" s="47"/>
     </row>
     <row r="35" spans="1:20">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48" t="s">
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48" t="s">
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48" t="s">
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="N35" s="48"/>
-      <c r="O35" s="48"/>
-      <c r="P35" s="48"/>
-      <c r="Q35" s="48" t="s">
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="R35" s="48"/>
-      <c r="S35" s="48"/>
-      <c r="T35" s="48"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="50"/>
+      <c r="T35" s="50"/>
     </row>
     <row r="36" spans="1:20">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49" t="s">
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49" t="s">
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="49" t="s">
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="N36" s="49"/>
-      <c r="O36" s="49"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="49" t="s">
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="R36" s="49"/>
-      <c r="S36" s="49"/>
-      <c r="T36" s="49"/>
+      <c r="R36" s="51"/>
+      <c r="S36" s="51"/>
+      <c r="T36" s="51"/>
     </row>
     <row r="37" spans="1:20">
-      <c r="A37" s="48" t="s">
+      <c r="A37" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48" t="s">
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48" t="s">
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48" t="s">
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="48" t="s">
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="48"/>
+      <c r="R37" s="50"/>
+      <c r="S37" s="50"/>
+      <c r="T37" s="50"/>
     </row>
     <row r="38" spans="1:20" ht="49.5" customHeight="1">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49" t="s">
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49" t="s">
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="49" t="s">
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="N38" s="49"/>
-      <c r="O38" s="49"/>
-      <c r="P38" s="49"/>
-      <c r="Q38" s="49" t="s">
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="51"/>
+      <c r="Q38" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="R38" s="49"/>
-      <c r="S38" s="49"/>
-      <c r="T38" s="49"/>
+      <c r="R38" s="51"/>
+      <c r="S38" s="51"/>
+      <c r="T38" s="51"/>
     </row>
     <row r="39" spans="1:20">
-      <c r="A39" s="48" t="s">
+      <c r="A39" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48" t="s">
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48" t="s">
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48" t="s">
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="48"/>
-      <c r="Q39" s="48" t="s">
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
+      <c r="Q39" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="R39" s="48"/>
-      <c r="S39" s="48"/>
-      <c r="T39" s="48"/>
+      <c r="R39" s="50"/>
+      <c r="S39" s="50"/>
+      <c r="T39" s="50"/>
     </row>
     <row r="40" spans="1:20" ht="47.25" customHeight="1">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49" t="s">
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49" t="s">
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49" t="s">
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="N40" s="49"/>
-      <c r="O40" s="49"/>
-      <c r="P40" s="49"/>
-      <c r="Q40" s="49" t="s">
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="R40" s="49"/>
-      <c r="S40" s="49"/>
-      <c r="T40" s="49"/>
+      <c r="R40" s="51"/>
+      <c r="S40" s="51"/>
+      <c r="T40" s="51"/>
     </row>
     <row r="41" spans="1:20">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48" t="s">
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48" t="s">
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="J41" s="48"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="48" t="s">
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="N41" s="48"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="48"/>
-      <c r="Q41" s="48" t="s">
+      <c r="N41" s="50"/>
+      <c r="O41" s="50"/>
+      <c r="P41" s="50"/>
+      <c r="Q41" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="R41" s="48"/>
-      <c r="S41" s="48"/>
-      <c r="T41" s="48"/>
+      <c r="R41" s="50"/>
+      <c r="S41" s="50"/>
+      <c r="T41" s="50"/>
     </row>
     <row r="42" spans="1:20" ht="49.5" customHeight="1">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49" t="s">
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49" t="s">
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="49" t="s">
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="N42" s="49"/>
-      <c r="O42" s="49"/>
-      <c r="P42" s="49"/>
-      <c r="Q42" s="49" t="s">
+      <c r="N42" s="51"/>
+      <c r="O42" s="51"/>
+      <c r="P42" s="51"/>
+      <c r="Q42" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="R42" s="49"/>
-      <c r="S42" s="49"/>
-      <c r="T42" s="49"/>
+      <c r="R42" s="51"/>
+      <c r="S42" s="51"/>
+      <c r="T42" s="51"/>
     </row>
     <row r="43" spans="1:20" ht="15.75" thickBot="1"/>
     <row r="44" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
@@ -3942,368 +4289,343 @@
       <c r="T48" s="45"/>
     </row>
     <row r="49" spans="1:20">
-      <c r="A49" s="48" t="s">
+      <c r="A49" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48" t="s">
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="48" t="s">
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="48"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="48"/>
-      <c r="M49" s="48" t="s">
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="50"/>
+      <c r="M49" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="48"/>
-      <c r="O49" s="48"/>
-      <c r="P49" s="48"/>
-      <c r="Q49" s="48" t="s">
+      <c r="N49" s="50"/>
+      <c r="O49" s="50"/>
+      <c r="P49" s="50"/>
+      <c r="Q49" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="R49" s="48"/>
-      <c r="S49" s="48"/>
-      <c r="T49" s="48"/>
+      <c r="R49" s="50"/>
+      <c r="S49" s="50"/>
+      <c r="T49" s="50"/>
     </row>
     <row r="50" spans="1:20">
-      <c r="A50" s="49" t="s">
+      <c r="A50" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="B50" s="49"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49" t="s">
+      <c r="B50" s="51"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49" t="s">
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="J50" s="49"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="49"/>
-      <c r="M50" s="49" t="s">
+      <c r="J50" s="51"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="51"/>
+      <c r="M50" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="N50" s="49"/>
-      <c r="O50" s="49"/>
-      <c r="P50" s="49"/>
-      <c r="Q50" s="49" t="s">
+      <c r="N50" s="51"/>
+      <c r="O50" s="51"/>
+      <c r="P50" s="51"/>
+      <c r="Q50" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="R50" s="49"/>
-      <c r="S50" s="49"/>
-      <c r="T50" s="49"/>
+      <c r="R50" s="51"/>
+      <c r="S50" s="51"/>
+      <c r="T50" s="51"/>
     </row>
     <row r="51" spans="1:20">
-      <c r="A51" s="48" t="s">
+      <c r="A51" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48" t="s">
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="48" t="s">
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="J51" s="48"/>
-      <c r="K51" s="48"/>
-      <c r="L51" s="48"/>
-      <c r="M51" s="48" t="s">
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="50"/>
+      <c r="M51" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="N51" s="48"/>
-      <c r="O51" s="48"/>
-      <c r="P51" s="48"/>
-      <c r="Q51" s="48" t="s">
+      <c r="N51" s="50"/>
+      <c r="O51" s="50"/>
+      <c r="P51" s="50"/>
+      <c r="Q51" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="R51" s="48"/>
-      <c r="S51" s="48"/>
-      <c r="T51" s="48"/>
+      <c r="R51" s="50"/>
+      <c r="S51" s="50"/>
+      <c r="T51" s="50"/>
     </row>
     <row r="52" spans="1:20" ht="49.5" customHeight="1">
-      <c r="A52" s="49" t="s">
+      <c r="A52" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49" t="s">
+      <c r="B52" s="51"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49" t="s">
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="J52" s="49"/>
-      <c r="K52" s="49"/>
-      <c r="L52" s="49"/>
-      <c r="M52" s="49" t="s">
+      <c r="J52" s="51"/>
+      <c r="K52" s="51"/>
+      <c r="L52" s="51"/>
+      <c r="M52" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="N52" s="49"/>
-      <c r="O52" s="49"/>
-      <c r="P52" s="49"/>
-      <c r="Q52" s="49" t="s">
+      <c r="N52" s="51"/>
+      <c r="O52" s="51"/>
+      <c r="P52" s="51"/>
+      <c r="Q52" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="R52" s="49"/>
-      <c r="S52" s="49"/>
-      <c r="T52" s="49"/>
+      <c r="R52" s="51"/>
+      <c r="S52" s="51"/>
+      <c r="T52" s="51"/>
     </row>
     <row r="53" spans="1:20">
-      <c r="A53" s="48" t="s">
+      <c r="A53" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="48"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48" t="s">
+      <c r="B53" s="50"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="48" t="s">
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="J53" s="48"/>
-      <c r="K53" s="48"/>
-      <c r="L53" s="48"/>
-      <c r="M53" s="48" t="s">
+      <c r="J53" s="50"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="50"/>
+      <c r="M53" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="N53" s="48"/>
-      <c r="O53" s="48"/>
-      <c r="P53" s="48"/>
-      <c r="Q53" s="48" t="s">
+      <c r="N53" s="50"/>
+      <c r="O53" s="50"/>
+      <c r="P53" s="50"/>
+      <c r="Q53" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="R53" s="48"/>
-      <c r="S53" s="48"/>
-      <c r="T53" s="48"/>
+      <c r="R53" s="50"/>
+      <c r="S53" s="50"/>
+      <c r="T53" s="50"/>
     </row>
     <row r="54" spans="1:20" ht="49.5" customHeight="1">
-      <c r="A54" s="49" t="s">
+      <c r="A54" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="49"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49" t="s">
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49" t="s">
+      <c r="F54" s="51"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="J54" s="49"/>
-      <c r="K54" s="49"/>
-      <c r="L54" s="49"/>
-      <c r="M54" s="49" t="s">
+      <c r="J54" s="51"/>
+      <c r="K54" s="51"/>
+      <c r="L54" s="51"/>
+      <c r="M54" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="N54" s="49"/>
-      <c r="O54" s="49"/>
-      <c r="P54" s="49"/>
-      <c r="Q54" s="49" t="s">
+      <c r="N54" s="51"/>
+      <c r="O54" s="51"/>
+      <c r="P54" s="51"/>
+      <c r="Q54" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="R54" s="49"/>
-      <c r="S54" s="49"/>
-      <c r="T54" s="49"/>
+      <c r="R54" s="51"/>
+      <c r="S54" s="51"/>
+      <c r="T54" s="51"/>
     </row>
     <row r="55" spans="1:20">
-      <c r="A55" s="48" t="s">
+      <c r="A55" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="48"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48" t="s">
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="48" t="s">
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="J55" s="48"/>
-      <c r="K55" s="48"/>
-      <c r="L55" s="48"/>
-      <c r="M55" s="48" t="s">
+      <c r="J55" s="50"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="50"/>
+      <c r="M55" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="N55" s="48"/>
-      <c r="O55" s="48"/>
-      <c r="P55" s="48"/>
-      <c r="Q55" s="48" t="s">
+      <c r="N55" s="50"/>
+      <c r="O55" s="50"/>
+      <c r="P55" s="50"/>
+      <c r="Q55" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="R55" s="48"/>
-      <c r="S55" s="48"/>
-      <c r="T55" s="48"/>
+      <c r="R55" s="50"/>
+      <c r="S55" s="50"/>
+      <c r="T55" s="50"/>
     </row>
     <row r="56" spans="1:20" ht="49.5" customHeight="1">
-      <c r="A56" s="49" t="s">
+      <c r="A56" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="49"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49" t="s">
+      <c r="B56" s="51"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="49" t="s">
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="J56" s="49"/>
-      <c r="K56" s="49"/>
-      <c r="L56" s="49"/>
-      <c r="M56" s="49" t="s">
+      <c r="J56" s="51"/>
+      <c r="K56" s="51"/>
+      <c r="L56" s="51"/>
+      <c r="M56" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="N56" s="49"/>
-      <c r="O56" s="49"/>
-      <c r="P56" s="49"/>
-      <c r="Q56" s="49" t="s">
+      <c r="N56" s="51"/>
+      <c r="O56" s="51"/>
+      <c r="P56" s="51"/>
+      <c r="Q56" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="R56" s="49"/>
-      <c r="S56" s="49"/>
-      <c r="T56" s="49"/>
+      <c r="R56" s="51"/>
+      <c r="S56" s="51"/>
+      <c r="T56" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="185">
-    <mergeCell ref="Q49:T49"/>
-    <mergeCell ref="Q50:T50"/>
-    <mergeCell ref="Q51:T51"/>
-    <mergeCell ref="Q52:T52"/>
-    <mergeCell ref="Q53:T53"/>
-    <mergeCell ref="Q54:T54"/>
-    <mergeCell ref="Q55:T55"/>
-    <mergeCell ref="Q56:T56"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="Q37:T37"/>
-    <mergeCell ref="Q38:T38"/>
-    <mergeCell ref="Q39:T39"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="AC12:AF12"/>
-    <mergeCell ref="AC13:AF13"/>
-    <mergeCell ref="AC14:AF14"/>
-    <mergeCell ref="AC7:AF7"/>
-    <mergeCell ref="AC8:AF8"/>
-    <mergeCell ref="AC9:AF9"/>
-    <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="Y7:AB7"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
+  <mergeCells count="209">
+    <mergeCell ref="AO7:AR7"/>
+    <mergeCell ref="AO8:AR8"/>
+    <mergeCell ref="AO9:AR9"/>
+    <mergeCell ref="AO10:AR10"/>
+    <mergeCell ref="AO11:AR11"/>
+    <mergeCell ref="AO12:AR12"/>
+    <mergeCell ref="AO13:AR13"/>
+    <mergeCell ref="AO14:AR14"/>
+    <mergeCell ref="AG7:AJ7"/>
+    <mergeCell ref="AG8:AJ8"/>
+    <mergeCell ref="AG9:AJ9"/>
+    <mergeCell ref="AG10:AJ10"/>
+    <mergeCell ref="AG11:AJ11"/>
+    <mergeCell ref="AG12:AJ12"/>
+    <mergeCell ref="AG13:AJ13"/>
+    <mergeCell ref="AG14:AJ14"/>
+    <mergeCell ref="AK7:AN7"/>
+    <mergeCell ref="AK8:AN8"/>
+    <mergeCell ref="AK9:AN9"/>
+    <mergeCell ref="AK10:AN10"/>
+    <mergeCell ref="AK11:AN11"/>
+    <mergeCell ref="AK12:AN12"/>
+    <mergeCell ref="AK13:AN13"/>
+    <mergeCell ref="AK14:AN14"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="Q22:T22"/>
     <mergeCell ref="A56:D56"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A52:D52"/>
@@ -4328,77 +4650,126 @@
     <mergeCell ref="A50:D50"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A13:D13"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="AC7:AF7"/>
+    <mergeCell ref="AC8:AF8"/>
+    <mergeCell ref="AC9:AF9"/>
+    <mergeCell ref="AC10:AF10"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="Y7:AB7"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="AC13:AF13"/>
+    <mergeCell ref="AC14:AF14"/>
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="Q50:T50"/>
+    <mergeCell ref="Q51:T51"/>
+    <mergeCell ref="Q52:T52"/>
+    <mergeCell ref="Q53:T53"/>
+    <mergeCell ref="Q54:T54"/>
+    <mergeCell ref="Q55:T55"/>
+    <mergeCell ref="Q56:T56"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="Q38:T38"/>
+    <mergeCell ref="Q39:T39"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="Q42:T42"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B4 B18 B32 F4 J4 N4 F18 F46 R4 V4 Z4 AD4 J18 N18 R18 J46 N46 R46 F32 J32 N32 R32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B4 B18 B32 F4 J4 N4 F18 F46 R4 V4 Z4 AD4 J18 N18 R18 J46 N46 R46 F32 J32 N32 R32 AH4 AL4 AP4">
       <formula1>severity</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46 C4 C18 C32 G4 K4 O4 G18 G46 S4 W4 AA4 AE4 K18 O18 S18 K46 O46 S46 G32 K32 O32 S32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46 C4 C18 C32 G4 K4 O4 G18 G46 S4 W4 AA4 AE4 K18 O18 S18 K46 O46 S46 G32 K32 O32 S32 AI4 AM4 AQ4">
       <formula1>category</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46 D4 D18 D32 H4 L4 P4 H18 H46 T4 X4 AB4 AF4 L18 P18 T18 L46 P46 T46 H32 L32 P32 T32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46 D4 D18 D32 H4 L4 P4 H18 H46 T4 X4 AB4 AF4 L18 P18 T18 L46 P46 T46 H32 L32 P32 T32 AJ4 AN4 AR4">
       <formula1>component</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A48 A6 A20 A34 E6 I6 M6 E20 E48 Q6 U6 Y6 AC6 I20 M20 Q20 I48 M48 Q48 E34 I34 M34 Q34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A48 A6 A20 A34 E6 I6 M6 E20 E48 Q6 U6 Y6 AC6 I20 M20 Q20 I48 M48 Q48 E34 I34 M34 Q34 AG6 AK6 AO6">
       <formula1>status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48 C6 C20 C34 G6 K6 O6 G20 G48 S6 W6 AA6 AE6 K20 O20 S20 K48 O48 S48 G34 K34 O34 S34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48 C6 C20 C34 G6 K6 O6 G20 G48 S6 W6 AA6 AE6 K20 O20 S20 K48 O48 S48 G34 K34 O34 S34 AI6 AM6 AQ6">
       <formula1>build_found</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44 B2 B16 B30">

--- a/Robo Pr0n/Corona_Testing_for_RoboPr0n_BugTracker_Ver2.xlsx
+++ b/Robo Pr0n/Corona_Testing_for_RoboPr0n_BugTracker_Ver2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="224">
   <si>
     <t>Category</t>
   </si>
@@ -678,6 +678,27 @@
   </si>
   <si>
     <t>enemies within range to be damaged.</t>
+  </si>
+  <si>
+    <t>24 | 30</t>
+  </si>
+  <si>
+    <t>25 | 30</t>
+  </si>
+  <si>
+    <t>Player falls off level if the window is moved.</t>
+  </si>
+  <si>
+    <t>In windowed mode, move the player into a corner and move the window.</t>
+  </si>
+  <si>
+    <t>The player falls off the level. If he is on the bottom of the level, the game will lock up and the 'X' will not. The ESC key will not work either.</t>
+  </si>
+  <si>
+    <t>The position of the window to be changed with no effect on gameplay.</t>
+  </si>
+  <si>
+    <t>26 | 30</t>
   </si>
 </sst>
 </file>
@@ -1889,8 +1910,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AR56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AO14" sqref="AO14:AR14"/>
+    <sheetView tabSelected="1" topLeftCell="I25" workbookViewId="0">
+      <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2229,7 +2250,7 @@
         <v>23</v>
       </c>
       <c r="AG4" s="31" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="AH4" s="49" t="s">
         <v>17</v>
@@ -2241,7 +2262,7 @@
         <v>23</v>
       </c>
       <c r="AK4" s="31" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="AL4" s="49" t="s">
         <v>17</v>
@@ -2253,7 +2274,7 @@
         <v>23</v>
       </c>
       <c r="AO4" s="31" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="AP4" s="49" t="s">
         <v>17</v>
@@ -3055,12 +3076,8 @@
       <c r="N16" s="29"/>
       <c r="O16" s="29"/>
       <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-    </row>
-    <row r="17" spans="1:20" ht="30.75" thickTop="1">
+    </row>
+    <row r="17" spans="1:24" ht="30.75" thickTop="1">
       <c r="A17" s="30" t="s">
         <v>32</v>
       </c>
@@ -3109,20 +3126,8 @@
       <c r="P17" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="Q17" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="R17" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="S17" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="T17" s="41" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="30">
+    </row>
+    <row r="18" spans="1:24" ht="30">
       <c r="A18" s="31" t="s">
         <v>104</v>
       </c>
@@ -3171,12 +3176,8 @@
       <c r="P18" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-    </row>
-    <row r="19" spans="1:20" ht="30">
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" s="30" t="s">
         <v>4</v>
       </c>
@@ -3217,18 +3218,8 @@
         <v>34</v>
       </c>
       <c r="P19" s="41"/>
-      <c r="Q19" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="R19" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="S19" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="T19" s="41"/>
-    </row>
-    <row r="20" spans="1:20">
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" s="32" t="s">
         <v>38</v>
       </c>
@@ -3269,12 +3260,8 @@
         <v>50</v>
       </c>
       <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-    </row>
-    <row r="21" spans="1:20">
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" s="50" t="s">
         <v>5</v>
       </c>
@@ -3299,14 +3286,8 @@
       <c r="N21" s="50"/>
       <c r="O21" s="50"/>
       <c r="P21" s="50"/>
-      <c r="Q21" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-    </row>
-    <row r="22" spans="1:20" ht="15" customHeight="1">
+    </row>
+    <row r="22" spans="1:24" ht="15" customHeight="1">
       <c r="A22" s="51" t="s">
         <v>100</v>
       </c>
@@ -3331,12 +3312,8 @@
       <c r="N22" s="51"/>
       <c r="O22" s="51"/>
       <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-    </row>
-    <row r="23" spans="1:20">
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" s="50" t="s">
         <v>3</v>
       </c>
@@ -3361,14 +3338,8 @@
       <c r="N23" s="50"/>
       <c r="O23" s="50"/>
       <c r="P23" s="50"/>
-      <c r="Q23" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="R23" s="50"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="50"/>
-    </row>
-    <row r="24" spans="1:20" ht="49.5" customHeight="1">
+    </row>
+    <row r="24" spans="1:24" ht="49.5" customHeight="1">
       <c r="A24" s="51" t="s">
         <v>101</v>
       </c>
@@ -3393,12 +3364,8 @@
       <c r="N24" s="51"/>
       <c r="O24" s="51"/>
       <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-    </row>
-    <row r="25" spans="1:20">
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" s="50" t="s">
         <v>33</v>
       </c>
@@ -3423,14 +3390,8 @@
       <c r="N25" s="50"/>
       <c r="O25" s="50"/>
       <c r="P25" s="50"/>
-      <c r="Q25" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="50"/>
-    </row>
-    <row r="26" spans="1:20" ht="49.5" customHeight="1">
+    </row>
+    <row r="26" spans="1:24" ht="49.5" customHeight="1">
       <c r="A26" s="51" t="s">
         <v>103</v>
       </c>
@@ -3455,12 +3416,8 @@
       <c r="N26" s="51"/>
       <c r="O26" s="51"/>
       <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-    </row>
-    <row r="27" spans="1:20">
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" s="50" t="s">
         <v>36</v>
       </c>
@@ -3485,14 +3442,8 @@
       <c r="N27" s="50"/>
       <c r="O27" s="50"/>
       <c r="P27" s="50"/>
-      <c r="Q27" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="50"/>
-    </row>
-    <row r="28" spans="1:20" ht="49.5" customHeight="1">
+    </row>
+    <row r="28" spans="1:24" ht="49.5" customHeight="1">
       <c r="A28" s="51" t="s">
         <v>102</v>
       </c>
@@ -3517,13 +3468,9 @@
       <c r="N28" s="51"/>
       <c r="O28" s="51"/>
       <c r="P28" s="51"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="51"/>
-    </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1"/>
-    <row r="30" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+    </row>
+    <row r="29" spans="1:24" ht="15.75" thickBot="1"/>
+    <row r="30" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="29" t="s">
         <v>59</v>
       </c>
@@ -3548,8 +3495,12 @@
       <c r="R30" s="29"/>
       <c r="S30" s="29"/>
       <c r="T30" s="29"/>
-    </row>
-    <row r="31" spans="1:20" ht="30.75" thickTop="1">
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+    </row>
+    <row r="31" spans="1:24" ht="30.75" thickTop="1">
       <c r="A31" s="30" t="s">
         <v>32</v>
       </c>
@@ -3610,8 +3561,20 @@
       <c r="T31" s="46" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" ht="30">
+      <c r="U31" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="V31" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="W31" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="X31" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="30">
       <c r="A32" s="31" t="s">
         <v>177</v>
       </c>
@@ -3672,8 +3635,20 @@
       <c r="T32" s="47" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" ht="30">
+      <c r="U32" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="V32" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="W32" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="X32" s="40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="30">
       <c r="A33" s="30" t="s">
         <v>4</v>
       </c>
@@ -3724,8 +3699,18 @@
         <v>34</v>
       </c>
       <c r="T33" s="46"/>
-    </row>
-    <row r="34" spans="1:20">
+      <c r="U33" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="V33" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="W33" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="X33" s="41"/>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" s="32" t="s">
         <v>38</v>
       </c>
@@ -3776,8 +3761,18 @@
         <v>50</v>
       </c>
       <c r="T34" s="47"/>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="U34" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="V34" s="33">
+        <v>40324</v>
+      </c>
+      <c r="W34" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="X34" s="40"/>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" s="50" t="s">
         <v>5</v>
       </c>
@@ -3808,8 +3803,14 @@
       <c r="R35" s="50"/>
       <c r="S35" s="50"/>
       <c r="T35" s="50"/>
-    </row>
-    <row r="36" spans="1:20">
+      <c r="U35" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="V35" s="50"/>
+      <c r="W35" s="50"/>
+      <c r="X35" s="50"/>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" s="51" t="s">
         <v>173</v>
       </c>
@@ -3840,8 +3841,14 @@
       <c r="R36" s="51"/>
       <c r="S36" s="51"/>
       <c r="T36" s="51"/>
-    </row>
-    <row r="37" spans="1:20">
+      <c r="U36" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="V36" s="51"/>
+      <c r="W36" s="51"/>
+      <c r="X36" s="51"/>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" s="50" t="s">
         <v>3</v>
       </c>
@@ -3872,8 +3879,14 @@
       <c r="R37" s="50"/>
       <c r="S37" s="50"/>
       <c r="T37" s="50"/>
-    </row>
-    <row r="38" spans="1:20" ht="49.5" customHeight="1">
+      <c r="U37" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="V37" s="50"/>
+      <c r="W37" s="50"/>
+      <c r="X37" s="50"/>
+    </row>
+    <row r="38" spans="1:24" ht="49.5" customHeight="1">
       <c r="A38" s="51" t="s">
         <v>176</v>
       </c>
@@ -3904,8 +3917,14 @@
       <c r="R38" s="51"/>
       <c r="S38" s="51"/>
       <c r="T38" s="51"/>
-    </row>
-    <row r="39" spans="1:20">
+      <c r="U38" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="V38" s="51"/>
+      <c r="W38" s="51"/>
+      <c r="X38" s="51"/>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" s="50" t="s">
         <v>33</v>
       </c>
@@ -3936,8 +3955,14 @@
       <c r="R39" s="50"/>
       <c r="S39" s="50"/>
       <c r="T39" s="50"/>
-    </row>
-    <row r="40" spans="1:20" ht="47.25" customHeight="1">
+      <c r="U39" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="V39" s="50"/>
+      <c r="W39" s="50"/>
+      <c r="X39" s="50"/>
+    </row>
+    <row r="40" spans="1:24" ht="47.25" customHeight="1">
       <c r="A40" s="51" t="s">
         <v>174</v>
       </c>
@@ -3968,8 +3993,14 @@
       <c r="R40" s="51"/>
       <c r="S40" s="51"/>
       <c r="T40" s="51"/>
-    </row>
-    <row r="41" spans="1:20">
+      <c r="U40" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="V40" s="51"/>
+      <c r="W40" s="51"/>
+      <c r="X40" s="51"/>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" s="50" t="s">
         <v>36</v>
       </c>
@@ -4000,8 +4031,14 @@
       <c r="R41" s="50"/>
       <c r="S41" s="50"/>
       <c r="T41" s="50"/>
-    </row>
-    <row r="42" spans="1:20" ht="49.5" customHeight="1">
+      <c r="U41" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="V41" s="50"/>
+      <c r="W41" s="50"/>
+      <c r="X41" s="50"/>
+    </row>
+    <row r="42" spans="1:24" ht="49.5" customHeight="1">
       <c r="A42" s="51" t="s">
         <v>175</v>
       </c>
@@ -4032,9 +4069,15 @@
       <c r="R42" s="51"/>
       <c r="S42" s="51"/>
       <c r="T42" s="51"/>
-    </row>
-    <row r="43" spans="1:20" ht="15.75" thickBot="1"/>
-    <row r="44" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+      <c r="U42" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="V42" s="51"/>
+      <c r="W42" s="51"/>
+      <c r="X42" s="51"/>
+    </row>
+    <row r="43" spans="1:24" ht="15.75" thickBot="1"/>
+    <row r="44" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
       <c r="A44" s="29" t="s">
         <v>60</v>
       </c>
@@ -4060,7 +4103,7 @@
       <c r="S44" s="29"/>
       <c r="T44" s="29"/>
     </row>
-    <row r="45" spans="1:20" ht="30.75" thickTop="1">
+    <row r="45" spans="1:24" ht="30.75" thickTop="1">
       <c r="A45" s="30" t="s">
         <v>32</v>
       </c>
@@ -4122,7 +4165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="30">
+    <row r="46" spans="1:24" ht="30">
       <c r="A46" s="31" t="s">
         <v>108</v>
       </c>
@@ -4184,7 +4227,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="30">
+    <row r="47" spans="1:24" ht="30">
       <c r="A47" s="30" t="s">
         <v>4</v>
       </c>
@@ -4236,7 +4279,7 @@
       </c>
       <c r="T47" s="44"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:24">
       <c r="A48" s="32" t="s">
         <v>38</v>
       </c>
@@ -4546,6 +4589,191 @@
     </row>
   </sheetData>
   <mergeCells count="209">
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="Q50:T50"/>
+    <mergeCell ref="Q51:T51"/>
+    <mergeCell ref="Q52:T52"/>
+    <mergeCell ref="Q53:T53"/>
+    <mergeCell ref="Q54:T54"/>
+    <mergeCell ref="Q55:T55"/>
+    <mergeCell ref="Q56:T56"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="Q38:T38"/>
+    <mergeCell ref="Q39:T39"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="U39:X39"/>
+    <mergeCell ref="U40:X40"/>
+    <mergeCell ref="U41:X41"/>
+    <mergeCell ref="U42:X42"/>
+    <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="AC13:AF13"/>
+    <mergeCell ref="AC14:AF14"/>
+    <mergeCell ref="AC7:AF7"/>
+    <mergeCell ref="AC8:AF8"/>
+    <mergeCell ref="AC9:AF9"/>
+    <mergeCell ref="AC10:AF10"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="Y7:AB7"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="M42:P42"/>
     <mergeCell ref="AO7:AR7"/>
     <mergeCell ref="AO8:AR8"/>
     <mergeCell ref="AO9:AR9"/>
@@ -4570,209 +4798,24 @@
     <mergeCell ref="AK12:AN12"/>
     <mergeCell ref="AK13:AN13"/>
     <mergeCell ref="AK14:AN14"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="AC7:AF7"/>
-    <mergeCell ref="AC8:AF8"/>
-    <mergeCell ref="AC9:AF9"/>
-    <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="Y7:AB7"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="AC12:AF12"/>
-    <mergeCell ref="AC13:AF13"/>
-    <mergeCell ref="AC14:AF14"/>
-    <mergeCell ref="Q49:T49"/>
-    <mergeCell ref="Q50:T50"/>
-    <mergeCell ref="Q51:T51"/>
-    <mergeCell ref="Q52:T52"/>
-    <mergeCell ref="Q53:T53"/>
-    <mergeCell ref="Q54:T54"/>
-    <mergeCell ref="Q55:T55"/>
-    <mergeCell ref="Q56:T56"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="Q37:T37"/>
-    <mergeCell ref="Q38:T38"/>
-    <mergeCell ref="Q39:T39"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="Q42:T42"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B4 B18 B32 F4 J4 N4 F18 F46 R4 V4 Z4 AD4 J18 N18 R18 J46 N46 R46 F32 J32 N32 R32 AH4 AL4 AP4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V32 AP4 AL4 AH4 R32 N32 J32 F32 R46 N46 J46 N18 J18 AD4 Z4 V4 R4 F46 F18 N4 J4 F4 B32 B18 B4 B46">
       <formula1>severity</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46 C4 C18 C32 G4 K4 O4 G18 G46 S4 W4 AA4 AE4 K18 O18 S18 K46 O46 S46 G32 K32 O32 S32 AI4 AM4 AQ4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W32 AQ4 AM4 AI4 S32 O32 K32 G32 S46 O46 K46 O18 K18 AE4 AA4 W4 S4 G46 G18 O4 K4 G4 C32 C18 C4 C46">
       <formula1>category</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46 D4 D18 D32 H4 L4 P4 H18 H46 T4 X4 AB4 AF4 L18 P18 T18 L46 P46 T46 H32 L32 P32 T32 AJ4 AN4 AR4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X32 AR4 AN4 AJ4 T32 P32 L32 H32 T46 P46 L46 P18 L18 AF4 AB4 X4 T4 H46 H18 P4 L4 H4 D32 D18 D4 D46">
       <formula1>component</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A48 A6 A20 A34 E6 I6 M6 E20 E48 Q6 U6 Y6 AC6 I20 M20 Q20 I48 M48 Q48 E34 I34 M34 Q34 AG6 AK6 AO6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U34 AO6 AK6 AG6 Q34 M34 I34 E34 Q48 M48 I48 M20 I20 AC6 Y6 U6 Q6 E48 E20 M6 I6 E6 A34 A20 A6 A48">
       <formula1>status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48 C6 C20 C34 G6 K6 O6 G20 G48 S6 W6 AA6 AE6 K20 O20 S20 K48 O48 S48 G34 K34 O34 S34 AI6 AM6 AQ6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W34 AQ6 AM6 AI6 S34 O34 K34 G34 S48 O48 K48 O20 K20 AE6 AA6 W6 S6 G48 G20 O6 K6 G6 C34 C20 C6 C48">
       <formula1>build_found</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44 B2 B16 B30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44 B30 B16 B2">
       <formula1>tester_team</formula1>
     </dataValidation>
   </dataValidations>

--- a/Robo Pr0n/Corona_Testing_for_RoboPr0n_BugTracker_Ver2.xlsx
+++ b/Robo Pr0n/Corona_Testing_for_RoboPr0n_BugTracker_Ver2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="235">
   <si>
     <t>Category</t>
   </si>
@@ -699,6 +699,39 @@
   </si>
   <si>
     <t>26 | 30</t>
+  </si>
+  <si>
+    <t>27|30</t>
+  </si>
+  <si>
+    <t>6.26.2010</t>
+  </si>
+  <si>
+    <t>Game crashes on first boss</t>
+  </si>
+  <si>
+    <t>Go to the first boss with the spear equiped. Wait next to the crack for the boss to aproach. Jump when the enemy is near you. When the minions apear stay next to the crack. Attack with the spear (100%)</t>
+  </si>
+  <si>
+    <t>The game crashed.</t>
+  </si>
+  <si>
+    <t>The fight to continue.</t>
+  </si>
+  <si>
+    <t>28|30</t>
+  </si>
+  <si>
+    <t>Animation problem while swimming</t>
+  </si>
+  <si>
+    <t>When swimming collide with a wall</t>
+  </si>
+  <si>
+    <t>The animation switched to iddle for a fraction of a second</t>
+  </si>
+  <si>
+    <t>The swimming animation</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1082,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1124,6 +1157,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
@@ -1910,8 +1949,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AR56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I25" workbookViewId="0">
-      <selection activeCell="X28" sqref="X28"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="U28" sqref="U28:X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1962,11 +2001,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="15.75" thickBot="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
     </row>
     <row r="2" spans="1:44" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="29" t="s">
@@ -2511,548 +2550,548 @@
       <c r="AR6" s="49"/>
     </row>
     <row r="7" spans="1:44">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50" t="s">
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50" t="s">
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50" t="s">
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50" t="s">
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50" t="s">
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="50"/>
-      <c r="Y7" s="50" t="s">
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="50" t="s">
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AD7" s="50"/>
-      <c r="AE7" s="50"/>
-      <c r="AF7" s="50"/>
-      <c r="AG7" s="50" t="s">
+      <c r="AD7" s="52"/>
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="52"/>
+      <c r="AG7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AH7" s="50"/>
-      <c r="AI7" s="50"/>
-      <c r="AJ7" s="50"/>
-      <c r="AK7" s="50" t="s">
+      <c r="AH7" s="52"/>
+      <c r="AI7" s="52"/>
+      <c r="AJ7" s="52"/>
+      <c r="AK7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AL7" s="50"/>
-      <c r="AM7" s="50"/>
-      <c r="AN7" s="50"/>
-      <c r="AO7" s="50" t="s">
+      <c r="AL7" s="52"/>
+      <c r="AM7" s="52"/>
+      <c r="AN7" s="52"/>
+      <c r="AO7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AP7" s="50"/>
-      <c r="AQ7" s="50"/>
-      <c r="AR7" s="50"/>
+      <c r="AP7" s="52"/>
+      <c r="AQ7" s="52"/>
+      <c r="AR7" s="52"/>
     </row>
     <row r="8" spans="1:44" ht="15" customHeight="1">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51" t="s">
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51" t="s">
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51" t="s">
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51" t="s">
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51" t="s">
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="V8" s="51"/>
-      <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="51" t="s">
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="Z8" s="51"/>
-      <c r="AA8" s="51"/>
-      <c r="AB8" s="51"/>
-      <c r="AC8" s="51" t="s">
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="AD8" s="51"/>
-      <c r="AE8" s="51"/>
-      <c r="AF8" s="51"/>
-      <c r="AG8" s="51" t="s">
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="53"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="AH8" s="51"/>
-      <c r="AI8" s="51"/>
-      <c r="AJ8" s="51"/>
-      <c r="AK8" s="51" t="s">
+      <c r="AH8" s="53"/>
+      <c r="AI8" s="53"/>
+      <c r="AJ8" s="53"/>
+      <c r="AK8" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="AL8" s="51"/>
-      <c r="AM8" s="51"/>
-      <c r="AN8" s="51"/>
-      <c r="AO8" s="51" t="s">
+      <c r="AL8" s="53"/>
+      <c r="AM8" s="53"/>
+      <c r="AN8" s="53"/>
+      <c r="AO8" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="AP8" s="51"/>
-      <c r="AQ8" s="51"/>
-      <c r="AR8" s="51"/>
+      <c r="AP8" s="53"/>
+      <c r="AQ8" s="53"/>
+      <c r="AR8" s="53"/>
     </row>
     <row r="9" spans="1:44" ht="15" customHeight="1">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50" t="s">
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50" t="s">
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50" t="s">
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50" t="s">
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50" t="s">
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="50" t="s">
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50" t="s">
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="AD9" s="50"/>
-      <c r="AE9" s="50"/>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="50" t="s">
+      <c r="AD9" s="52"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="AH9" s="50"/>
-      <c r="AI9" s="50"/>
-      <c r="AJ9" s="50"/>
-      <c r="AK9" s="50" t="s">
+      <c r="AH9" s="52"/>
+      <c r="AI9" s="52"/>
+      <c r="AJ9" s="52"/>
+      <c r="AK9" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="AL9" s="50"/>
-      <c r="AM9" s="50"/>
-      <c r="AN9" s="50"/>
-      <c r="AO9" s="50" t="s">
+      <c r="AL9" s="52"/>
+      <c r="AM9" s="52"/>
+      <c r="AN9" s="52"/>
+      <c r="AO9" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="AP9" s="50"/>
-      <c r="AQ9" s="50"/>
-      <c r="AR9" s="50"/>
+      <c r="AP9" s="52"/>
+      <c r="AQ9" s="52"/>
+      <c r="AR9" s="52"/>
     </row>
     <row r="10" spans="1:44" ht="50.1" customHeight="1">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51" t="s">
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51" t="s">
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51" t="s">
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="52" t="s">
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="52" t="s">
+      <c r="R10" s="55"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="V10" s="53"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="54"/>
-      <c r="Y10" s="52" t="s">
+      <c r="V10" s="55"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="53"/>
-      <c r="AB10" s="54"/>
-      <c r="AC10" s="52" t="s">
+      <c r="Z10" s="55"/>
+      <c r="AA10" s="55"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="AD10" s="53"/>
-      <c r="AE10" s="53"/>
-      <c r="AF10" s="54"/>
-      <c r="AG10" s="52" t="s">
+      <c r="AD10" s="55"/>
+      <c r="AE10" s="55"/>
+      <c r="AF10" s="56"/>
+      <c r="AG10" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="AH10" s="53"/>
-      <c r="AI10" s="53"/>
-      <c r="AJ10" s="54"/>
-      <c r="AK10" s="52" t="s">
+      <c r="AH10" s="55"/>
+      <c r="AI10" s="55"/>
+      <c r="AJ10" s="56"/>
+      <c r="AK10" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="AL10" s="53"/>
-      <c r="AM10" s="53"/>
-      <c r="AN10" s="54"/>
-      <c r="AO10" s="52" t="s">
+      <c r="AL10" s="55"/>
+      <c r="AM10" s="55"/>
+      <c r="AN10" s="56"/>
+      <c r="AO10" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="AP10" s="53"/>
-      <c r="AQ10" s="53"/>
-      <c r="AR10" s="54"/>
+      <c r="AP10" s="55"/>
+      <c r="AQ10" s="55"/>
+      <c r="AR10" s="56"/>
     </row>
     <row r="11" spans="1:44" ht="15" customHeight="1">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50" t="s">
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50" t="s">
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50" t="s">
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50" t="s">
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50" t="s">
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="50" t="s">
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="50"/>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="50" t="s">
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="52"/>
+      <c r="AB11" s="52"/>
+      <c r="AC11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AD11" s="50"/>
-      <c r="AE11" s="50"/>
-      <c r="AF11" s="50"/>
-      <c r="AG11" s="50" t="s">
+      <c r="AD11" s="52"/>
+      <c r="AE11" s="52"/>
+      <c r="AF11" s="52"/>
+      <c r="AG11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AH11" s="50"/>
-      <c r="AI11" s="50"/>
-      <c r="AJ11" s="50"/>
-      <c r="AK11" s="50" t="s">
+      <c r="AH11" s="52"/>
+      <c r="AI11" s="52"/>
+      <c r="AJ11" s="52"/>
+      <c r="AK11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AL11" s="50"/>
-      <c r="AM11" s="50"/>
-      <c r="AN11" s="50"/>
-      <c r="AO11" s="50" t="s">
+      <c r="AL11" s="52"/>
+      <c r="AM11" s="52"/>
+      <c r="AN11" s="52"/>
+      <c r="AO11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AP11" s="50"/>
-      <c r="AQ11" s="50"/>
-      <c r="AR11" s="50"/>
+      <c r="AP11" s="52"/>
+      <c r="AQ11" s="52"/>
+      <c r="AR11" s="52"/>
     </row>
     <row r="12" spans="1:44" ht="50.1" customHeight="1">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51" t="s">
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51" t="s">
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51" t="s">
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51" t="s">
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51" t="s">
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="51" t="s">
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="Z12" s="51"/>
-      <c r="AA12" s="51"/>
-      <c r="AB12" s="51"/>
-      <c r="AC12" s="51" t="s">
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="AD12" s="51"/>
-      <c r="AE12" s="51"/>
-      <c r="AF12" s="51"/>
-      <c r="AG12" s="51" t="s">
+      <c r="AD12" s="53"/>
+      <c r="AE12" s="53"/>
+      <c r="AF12" s="53"/>
+      <c r="AG12" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="AH12" s="51"/>
-      <c r="AI12" s="51"/>
-      <c r="AJ12" s="51"/>
-      <c r="AK12" s="51" t="s">
+      <c r="AH12" s="53"/>
+      <c r="AI12" s="53"/>
+      <c r="AJ12" s="53"/>
+      <c r="AK12" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="AL12" s="51"/>
-      <c r="AM12" s="51"/>
-      <c r="AN12" s="51"/>
-      <c r="AO12" s="51" t="s">
+      <c r="AL12" s="53"/>
+      <c r="AM12" s="53"/>
+      <c r="AN12" s="53"/>
+      <c r="AO12" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="AP12" s="51"/>
-      <c r="AQ12" s="51"/>
-      <c r="AR12" s="51"/>
+      <c r="AP12" s="53"/>
+      <c r="AQ12" s="53"/>
+      <c r="AR12" s="53"/>
     </row>
     <row r="13" spans="1:44" ht="15" customHeight="1">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50" t="s">
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50" t="s">
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50" t="s">
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50" t="s">
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50" t="s">
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="50" t="s">
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="50"/>
-      <c r="AB13" s="50"/>
-      <c r="AC13" s="50" t="s">
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="52"/>
+      <c r="AC13" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AD13" s="50"/>
-      <c r="AE13" s="50"/>
-      <c r="AF13" s="50"/>
-      <c r="AG13" s="50" t="s">
+      <c r="AD13" s="52"/>
+      <c r="AE13" s="52"/>
+      <c r="AF13" s="52"/>
+      <c r="AG13" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AH13" s="50"/>
-      <c r="AI13" s="50"/>
-      <c r="AJ13" s="50"/>
-      <c r="AK13" s="50" t="s">
+      <c r="AH13" s="52"/>
+      <c r="AI13" s="52"/>
+      <c r="AJ13" s="52"/>
+      <c r="AK13" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AL13" s="50"/>
-      <c r="AM13" s="50"/>
-      <c r="AN13" s="50"/>
-      <c r="AO13" s="50" t="s">
+      <c r="AL13" s="52"/>
+      <c r="AM13" s="52"/>
+      <c r="AN13" s="52"/>
+      <c r="AO13" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AP13" s="50"/>
-      <c r="AQ13" s="50"/>
-      <c r="AR13" s="50"/>
+      <c r="AP13" s="52"/>
+      <c r="AQ13" s="52"/>
+      <c r="AR13" s="52"/>
     </row>
     <row r="14" spans="1:44" ht="50.1" customHeight="1">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51" t="s">
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51" t="s">
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51" t="s">
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51" t="s">
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="51" t="s">
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="V14" s="51"/>
-      <c r="W14" s="51"/>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="51" t="s">
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="Z14" s="51"/>
-      <c r="AA14" s="51"/>
-      <c r="AB14" s="51"/>
-      <c r="AC14" s="51" t="s">
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="AD14" s="51"/>
-      <c r="AE14" s="51"/>
-      <c r="AF14" s="51"/>
-      <c r="AG14" s="51" t="s">
+      <c r="AD14" s="53"/>
+      <c r="AE14" s="53"/>
+      <c r="AF14" s="53"/>
+      <c r="AG14" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="AH14" s="51"/>
-      <c r="AI14" s="51"/>
-      <c r="AJ14" s="51"/>
-      <c r="AK14" s="51" t="s">
+      <c r="AH14" s="53"/>
+      <c r="AI14" s="53"/>
+      <c r="AJ14" s="53"/>
+      <c r="AK14" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="AL14" s="51"/>
-      <c r="AM14" s="51"/>
-      <c r="AN14" s="51"/>
-      <c r="AO14" s="51" t="s">
+      <c r="AL14" s="53"/>
+      <c r="AM14" s="53"/>
+      <c r="AN14" s="53"/>
+      <c r="AO14" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="AP14" s="51"/>
-      <c r="AQ14" s="51"/>
-      <c r="AR14" s="51"/>
+      <c r="AP14" s="53"/>
+      <c r="AQ14" s="53"/>
+      <c r="AR14" s="53"/>
     </row>
     <row r="15" spans="1:44" ht="15.75" thickBot="1"/>
     <row r="16" spans="1:44" ht="16.5" thickTop="1" thickBot="1">
@@ -3076,6 +3115,14 @@
       <c r="N16" s="29"/>
       <c r="O16" s="29"/>
       <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
     </row>
     <row r="17" spans="1:24" ht="30.75" thickTop="1">
       <c r="A17" s="30" t="s">
@@ -3126,6 +3173,30 @@
       <c r="P17" s="41" t="s">
         <v>1</v>
       </c>
+      <c r="Q17" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="S17" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="T17" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="U17" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="V17" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="W17" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="X17" s="50" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:24" ht="30">
       <c r="A18" s="31" t="s">
@@ -3176,8 +3247,32 @@
       <c r="P18" s="40" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="Q18" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="R18" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="S18" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="T18" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="U18" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="V18" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="W18" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="X18" s="51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="30">
       <c r="A19" s="30" t="s">
         <v>4</v>
       </c>
@@ -3218,6 +3313,26 @@
         <v>34</v>
       </c>
       <c r="P19" s="41"/>
+      <c r="Q19" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="R19" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="T19" s="50"/>
+      <c r="U19" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="V19" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="W19" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="X19" s="50"/>
     </row>
     <row r="20" spans="1:24">
       <c r="A20" s="32" t="s">
@@ -3260,214 +3375,330 @@
         <v>50</v>
       </c>
       <c r="P20" s="40"/>
+      <c r="Q20" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="R20" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="S20" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="V20" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="W20" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="X20" s="51"/>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50" t="s">
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50" t="s">
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50" t="s">
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
     </row>
     <row r="22" spans="1:24" ht="15" customHeight="1">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51" t="s">
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51" t="s">
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51" t="s">
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53" t="s">
+        <v>231</v>
+      </c>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
     </row>
     <row r="23" spans="1:24">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50" t="s">
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50" t="s">
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50" t="s">
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="V23" s="52"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="52"/>
     </row>
     <row r="24" spans="1:24" ht="49.5" customHeight="1">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51" t="s">
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51" t="s">
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51" t="s">
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="53"/>
     </row>
     <row r="25" spans="1:24">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50" t="s">
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50" t="s">
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50" t="s">
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="52"/>
     </row>
     <row r="26" spans="1:24" ht="49.5" customHeight="1">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51" t="s">
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51" t="s">
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51" t="s">
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53" t="s">
+        <v>233</v>
+      </c>
+      <c r="V26" s="53"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="53"/>
     </row>
     <row r="27" spans="1:24">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50" t="s">
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50" t="s">
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50" t="s">
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="V27" s="52"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="52"/>
     </row>
     <row r="28" spans="1:24" ht="49.5" customHeight="1">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51" t="s">
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51" t="s">
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51" t="s">
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="R28" s="53"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="53" t="s">
+        <v>234</v>
+      </c>
+      <c r="V28" s="53"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="53"/>
     </row>
     <row r="29" spans="1:24" ht="15.75" thickBot="1"/>
     <row r="30" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
@@ -3773,308 +4004,308 @@
       <c r="X34" s="40"/>
     </row>
     <row r="35" spans="1:24">
-      <c r="A35" s="50" t="s">
+      <c r="A35" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50" t="s">
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50" t="s">
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50" t="s">
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="50" t="s">
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="R35" s="50"/>
-      <c r="S35" s="50"/>
-      <c r="T35" s="50"/>
-      <c r="U35" s="50" t="s">
+      <c r="R35" s="52"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="52"/>
+      <c r="U35" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="V35" s="50"/>
-      <c r="W35" s="50"/>
-      <c r="X35" s="50"/>
+      <c r="V35" s="52"/>
+      <c r="W35" s="52"/>
+      <c r="X35" s="52"/>
     </row>
     <row r="36" spans="1:24">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51" t="s">
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51" t="s">
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53" t="s">
         <v>184</v>
       </c>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51" t="s">
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53" t="s">
         <v>189</v>
       </c>
-      <c r="N36" s="51"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="51"/>
-      <c r="Q36" s="51" t="s">
+      <c r="N36" s="53"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="R36" s="51"/>
-      <c r="S36" s="51"/>
-      <c r="T36" s="51"/>
-      <c r="U36" s="51" t="s">
+      <c r="R36" s="53"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="53"/>
+      <c r="U36" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="V36" s="51"/>
-      <c r="W36" s="51"/>
-      <c r="X36" s="51"/>
+      <c r="V36" s="53"/>
+      <c r="W36" s="53"/>
+      <c r="X36" s="53"/>
     </row>
     <row r="37" spans="1:24">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50" t="s">
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50" t="s">
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50" t="s">
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="50" t="s">
+      <c r="N37" s="52"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="R37" s="50"/>
-      <c r="S37" s="50"/>
-      <c r="T37" s="50"/>
-      <c r="U37" s="50" t="s">
+      <c r="R37" s="52"/>
+      <c r="S37" s="52"/>
+      <c r="T37" s="52"/>
+      <c r="U37" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="V37" s="50"/>
-      <c r="W37" s="50"/>
-      <c r="X37" s="50"/>
+      <c r="V37" s="52"/>
+      <c r="W37" s="52"/>
+      <c r="X37" s="52"/>
     </row>
     <row r="38" spans="1:24" ht="49.5" customHeight="1">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51" t="s">
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51" t="s">
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51" t="s">
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="N38" s="51"/>
-      <c r="O38" s="51"/>
-      <c r="P38" s="51"/>
-      <c r="Q38" s="51" t="s">
+      <c r="N38" s="53"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="R38" s="51"/>
-      <c r="S38" s="51"/>
-      <c r="T38" s="51"/>
-      <c r="U38" s="51" t="s">
+      <c r="R38" s="53"/>
+      <c r="S38" s="53"/>
+      <c r="T38" s="53"/>
+      <c r="U38" s="53" t="s">
         <v>220</v>
       </c>
-      <c r="V38" s="51"/>
-      <c r="W38" s="51"/>
-      <c r="X38" s="51"/>
+      <c r="V38" s="53"/>
+      <c r="W38" s="53"/>
+      <c r="X38" s="53"/>
     </row>
     <row r="39" spans="1:24">
-      <c r="A39" s="50" t="s">
+      <c r="A39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50" t="s">
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50" t="s">
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="50" t="s">
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="N39" s="50"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="50"/>
-      <c r="Q39" s="50" t="s">
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="R39" s="50"/>
-      <c r="S39" s="50"/>
-      <c r="T39" s="50"/>
-      <c r="U39" s="50" t="s">
+      <c r="R39" s="52"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="52"/>
+      <c r="U39" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="50"/>
-      <c r="W39" s="50"/>
-      <c r="X39" s="50"/>
+      <c r="V39" s="52"/>
+      <c r="W39" s="52"/>
+      <c r="X39" s="52"/>
     </row>
     <row r="40" spans="1:24" ht="47.25" customHeight="1">
-      <c r="A40" s="51" t="s">
+      <c r="A40" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51" t="s">
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51" t="s">
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51" t="s">
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="N40" s="51"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="51" t="s">
+      <c r="N40" s="53"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="53"/>
+      <c r="Q40" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="R40" s="51"/>
-      <c r="S40" s="51"/>
-      <c r="T40" s="51"/>
-      <c r="U40" s="51" t="s">
+      <c r="R40" s="53"/>
+      <c r="S40" s="53"/>
+      <c r="T40" s="53"/>
+      <c r="U40" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="V40" s="51"/>
-      <c r="W40" s="51"/>
-      <c r="X40" s="51"/>
+      <c r="V40" s="53"/>
+      <c r="W40" s="53"/>
+      <c r="X40" s="53"/>
     </row>
     <row r="41" spans="1:24">
-      <c r="A41" s="50" t="s">
+      <c r="A41" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50" t="s">
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50" t="s">
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50" t="s">
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="N41" s="50"/>
-      <c r="O41" s="50"/>
-      <c r="P41" s="50"/>
-      <c r="Q41" s="50" t="s">
+      <c r="N41" s="52"/>
+      <c r="O41" s="52"/>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="R41" s="50"/>
-      <c r="S41" s="50"/>
-      <c r="T41" s="50"/>
-      <c r="U41" s="50" t="s">
+      <c r="R41" s="52"/>
+      <c r="S41" s="52"/>
+      <c r="T41" s="52"/>
+      <c r="U41" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="V41" s="50"/>
-      <c r="W41" s="50"/>
-      <c r="X41" s="50"/>
+      <c r="V41" s="52"/>
+      <c r="W41" s="52"/>
+      <c r="X41" s="52"/>
     </row>
     <row r="42" spans="1:24" ht="49.5" customHeight="1">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51" t="s">
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51" t="s">
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51" t="s">
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="N42" s="51"/>
-      <c r="O42" s="51"/>
-      <c r="P42" s="51"/>
-      <c r="Q42" s="51" t="s">
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="53"/>
+      <c r="Q42" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="R42" s="51"/>
-      <c r="S42" s="51"/>
-      <c r="T42" s="51"/>
-      <c r="U42" s="51" t="s">
+      <c r="R42" s="53"/>
+      <c r="S42" s="53"/>
+      <c r="T42" s="53"/>
+      <c r="U42" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="V42" s="51"/>
-      <c r="W42" s="51"/>
-      <c r="X42" s="51"/>
+      <c r="V42" s="53"/>
+      <c r="W42" s="53"/>
+      <c r="X42" s="53"/>
     </row>
     <row r="43" spans="1:24" ht="15.75" thickBot="1"/>
     <row r="44" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
@@ -4332,368 +4563,357 @@
       <c r="T48" s="45"/>
     </row>
     <row r="49" spans="1:20">
-      <c r="A49" s="50" t="s">
+      <c r="A49" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="50"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50" t="s">
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="50" t="s">
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="50"/>
-      <c r="M49" s="50" t="s">
+      <c r="J49" s="52"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="52"/>
+      <c r="M49" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="50"/>
-      <c r="O49" s="50"/>
-      <c r="P49" s="50"/>
-      <c r="Q49" s="50" t="s">
+      <c r="N49" s="52"/>
+      <c r="O49" s="52"/>
+      <c r="P49" s="52"/>
+      <c r="Q49" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="R49" s="50"/>
-      <c r="S49" s="50"/>
-      <c r="T49" s="50"/>
+      <c r="R49" s="52"/>
+      <c r="S49" s="52"/>
+      <c r="T49" s="52"/>
     </row>
     <row r="50" spans="1:20">
-      <c r="A50" s="51" t="s">
+      <c r="A50" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="B50" s="51"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51" t="s">
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="51" t="s">
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="J50" s="51"/>
-      <c r="K50" s="51"/>
-      <c r="L50" s="51"/>
-      <c r="M50" s="51" t="s">
+      <c r="J50" s="53"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="53"/>
+      <c r="M50" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="N50" s="51"/>
-      <c r="O50" s="51"/>
-      <c r="P50" s="51"/>
-      <c r="Q50" s="51" t="s">
+      <c r="N50" s="53"/>
+      <c r="O50" s="53"/>
+      <c r="P50" s="53"/>
+      <c r="Q50" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="R50" s="51"/>
-      <c r="S50" s="51"/>
-      <c r="T50" s="51"/>
+      <c r="R50" s="53"/>
+      <c r="S50" s="53"/>
+      <c r="T50" s="53"/>
     </row>
     <row r="51" spans="1:20">
-      <c r="A51" s="50" t="s">
+      <c r="A51" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="50"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50" t="s">
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="50" t="s">
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="J51" s="50"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="50"/>
-      <c r="M51" s="50" t="s">
+      <c r="J51" s="52"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="N51" s="50"/>
-      <c r="O51" s="50"/>
-      <c r="P51" s="50"/>
-      <c r="Q51" s="50" t="s">
+      <c r="N51" s="52"/>
+      <c r="O51" s="52"/>
+      <c r="P51" s="52"/>
+      <c r="Q51" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="R51" s="50"/>
-      <c r="S51" s="50"/>
-      <c r="T51" s="50"/>
+      <c r="R51" s="52"/>
+      <c r="S51" s="52"/>
+      <c r="T51" s="52"/>
     </row>
     <row r="52" spans="1:20" ht="49.5" customHeight="1">
-      <c r="A52" s="51" t="s">
+      <c r="A52" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51" t="s">
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="51" t="s">
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="J52" s="51"/>
-      <c r="K52" s="51"/>
-      <c r="L52" s="51"/>
-      <c r="M52" s="51" t="s">
+      <c r="J52" s="53"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="53"/>
+      <c r="M52" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="N52" s="51"/>
-      <c r="O52" s="51"/>
-      <c r="P52" s="51"/>
-      <c r="Q52" s="51" t="s">
+      <c r="N52" s="53"/>
+      <c r="O52" s="53"/>
+      <c r="P52" s="53"/>
+      <c r="Q52" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="R52" s="51"/>
-      <c r="S52" s="51"/>
-      <c r="T52" s="51"/>
+      <c r="R52" s="53"/>
+      <c r="S52" s="53"/>
+      <c r="T52" s="53"/>
     </row>
     <row r="53" spans="1:20">
-      <c r="A53" s="50" t="s">
+      <c r="A53" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="50"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50" t="s">
+      <c r="B53" s="52"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="50" t="s">
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="J53" s="50"/>
-      <c r="K53" s="50"/>
-      <c r="L53" s="50"/>
-      <c r="M53" s="50" t="s">
+      <c r="J53" s="52"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="N53" s="50"/>
-      <c r="O53" s="50"/>
-      <c r="P53" s="50"/>
-      <c r="Q53" s="50" t="s">
+      <c r="N53" s="52"/>
+      <c r="O53" s="52"/>
+      <c r="P53" s="52"/>
+      <c r="Q53" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="R53" s="50"/>
-      <c r="S53" s="50"/>
-      <c r="T53" s="50"/>
+      <c r="R53" s="52"/>
+      <c r="S53" s="52"/>
+      <c r="T53" s="52"/>
     </row>
     <row r="54" spans="1:20" ht="49.5" customHeight="1">
-      <c r="A54" s="51" t="s">
+      <c r="A54" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51" t="s">
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="F54" s="51"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="51"/>
-      <c r="I54" s="51" t="s">
+      <c r="F54" s="53"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="J54" s="51"/>
-      <c r="K54" s="51"/>
-      <c r="L54" s="51"/>
-      <c r="M54" s="51" t="s">
+      <c r="J54" s="53"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="53"/>
+      <c r="M54" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="N54" s="51"/>
-      <c r="O54" s="51"/>
-      <c r="P54" s="51"/>
-      <c r="Q54" s="51" t="s">
+      <c r="N54" s="53"/>
+      <c r="O54" s="53"/>
+      <c r="P54" s="53"/>
+      <c r="Q54" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="R54" s="51"/>
-      <c r="S54" s="51"/>
-      <c r="T54" s="51"/>
+      <c r="R54" s="53"/>
+      <c r="S54" s="53"/>
+      <c r="T54" s="53"/>
     </row>
     <row r="55" spans="1:20">
-      <c r="A55" s="50" t="s">
+      <c r="A55" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="50" t="s">
+      <c r="B55" s="52"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F55" s="50"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="50" t="s">
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="J55" s="50"/>
-      <c r="K55" s="50"/>
-      <c r="L55" s="50"/>
-      <c r="M55" s="50" t="s">
+      <c r="J55" s="52"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="N55" s="50"/>
-      <c r="O55" s="50"/>
-      <c r="P55" s="50"/>
-      <c r="Q55" s="50" t="s">
+      <c r="N55" s="52"/>
+      <c r="O55" s="52"/>
+      <c r="P55" s="52"/>
+      <c r="Q55" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="R55" s="50"/>
-      <c r="S55" s="50"/>
-      <c r="T55" s="50"/>
+      <c r="R55" s="52"/>
+      <c r="S55" s="52"/>
+      <c r="T55" s="52"/>
     </row>
     <row r="56" spans="1:20" ht="49.5" customHeight="1">
-      <c r="A56" s="51" t="s">
+      <c r="A56" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="51" t="s">
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="51" t="s">
+      <c r="F56" s="53"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="J56" s="51"/>
-      <c r="K56" s="51"/>
-      <c r="L56" s="51"/>
-      <c r="M56" s="51" t="s">
+      <c r="J56" s="53"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="53"/>
+      <c r="M56" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="N56" s="51"/>
-      <c r="O56" s="51"/>
-      <c r="P56" s="51"/>
-      <c r="Q56" s="51" t="s">
+      <c r="N56" s="53"/>
+      <c r="O56" s="53"/>
+      <c r="P56" s="53"/>
+      <c r="Q56" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="R56" s="51"/>
-      <c r="S56" s="51"/>
-      <c r="T56" s="51"/>
+      <c r="R56" s="53"/>
+      <c r="S56" s="53"/>
+      <c r="T56" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="209">
-    <mergeCell ref="Q49:T49"/>
-    <mergeCell ref="Q50:T50"/>
-    <mergeCell ref="Q51:T51"/>
-    <mergeCell ref="Q52:T52"/>
-    <mergeCell ref="Q53:T53"/>
-    <mergeCell ref="Q54:T54"/>
-    <mergeCell ref="Q55:T55"/>
-    <mergeCell ref="Q56:T56"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="Q37:T37"/>
-    <mergeCell ref="Q38:T38"/>
-    <mergeCell ref="Q39:T39"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="U39:X39"/>
-    <mergeCell ref="U40:X40"/>
-    <mergeCell ref="U41:X41"/>
-    <mergeCell ref="U42:X42"/>
-    <mergeCell ref="AC12:AF12"/>
-    <mergeCell ref="AC13:AF13"/>
-    <mergeCell ref="AC14:AF14"/>
-    <mergeCell ref="AC7:AF7"/>
-    <mergeCell ref="AC8:AF8"/>
-    <mergeCell ref="AC9:AF9"/>
-    <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="Y7:AB7"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
+  <mergeCells count="225">
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="AO7:AR7"/>
+    <mergeCell ref="AO8:AR8"/>
+    <mergeCell ref="AO9:AR9"/>
+    <mergeCell ref="AO10:AR10"/>
+    <mergeCell ref="AO11:AR11"/>
+    <mergeCell ref="AO12:AR12"/>
+    <mergeCell ref="AO13:AR13"/>
+    <mergeCell ref="AO14:AR14"/>
+    <mergeCell ref="AG7:AJ7"/>
+    <mergeCell ref="AG8:AJ8"/>
+    <mergeCell ref="AG9:AJ9"/>
+    <mergeCell ref="AG10:AJ10"/>
+    <mergeCell ref="AG11:AJ11"/>
+    <mergeCell ref="AG12:AJ12"/>
+    <mergeCell ref="AG13:AJ13"/>
+    <mergeCell ref="AG14:AJ14"/>
+    <mergeCell ref="AK7:AN7"/>
+    <mergeCell ref="AK8:AN8"/>
+    <mergeCell ref="AK9:AN9"/>
+    <mergeCell ref="AK10:AN10"/>
+    <mergeCell ref="AK11:AN11"/>
+    <mergeCell ref="AK12:AN12"/>
+    <mergeCell ref="AK13:AN13"/>
+    <mergeCell ref="AK14:AN14"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="Q22:T22"/>
     <mergeCell ref="A56:D56"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A52:D52"/>
@@ -4718,101 +4938,128 @@
     <mergeCell ref="A50:D50"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A13:D13"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="AC7:AF7"/>
+    <mergeCell ref="AC8:AF8"/>
+    <mergeCell ref="AC9:AF9"/>
+    <mergeCell ref="AC10:AF10"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="Y7:AB7"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="U39:X39"/>
+    <mergeCell ref="U40:X40"/>
+    <mergeCell ref="U41:X41"/>
+    <mergeCell ref="U42:X42"/>
+    <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="AC13:AF13"/>
+    <mergeCell ref="AC14:AF14"/>
     <mergeCell ref="U35:X35"/>
     <mergeCell ref="U36:X36"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="AO7:AR7"/>
-    <mergeCell ref="AO8:AR8"/>
-    <mergeCell ref="AO9:AR9"/>
-    <mergeCell ref="AO10:AR10"/>
-    <mergeCell ref="AO11:AR11"/>
-    <mergeCell ref="AO12:AR12"/>
-    <mergeCell ref="AO13:AR13"/>
-    <mergeCell ref="AO14:AR14"/>
-    <mergeCell ref="AG7:AJ7"/>
-    <mergeCell ref="AG8:AJ8"/>
-    <mergeCell ref="AG9:AJ9"/>
-    <mergeCell ref="AG10:AJ10"/>
-    <mergeCell ref="AG11:AJ11"/>
-    <mergeCell ref="AG12:AJ12"/>
-    <mergeCell ref="AG13:AJ13"/>
-    <mergeCell ref="AG14:AJ14"/>
-    <mergeCell ref="AK7:AN7"/>
-    <mergeCell ref="AK8:AN8"/>
-    <mergeCell ref="AK9:AN9"/>
-    <mergeCell ref="AK10:AN10"/>
-    <mergeCell ref="AK11:AN11"/>
-    <mergeCell ref="AK12:AN12"/>
-    <mergeCell ref="AK13:AN13"/>
-    <mergeCell ref="AK14:AN14"/>
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="Q50:T50"/>
+    <mergeCell ref="Q51:T51"/>
+    <mergeCell ref="Q52:T52"/>
+    <mergeCell ref="Q53:T53"/>
+    <mergeCell ref="Q54:T54"/>
+    <mergeCell ref="Q55:T55"/>
+    <mergeCell ref="Q56:T56"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="Q38:T38"/>
+    <mergeCell ref="Q39:T39"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="Q42:T42"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V32 AP4 AL4 AH4 R32 N32 J32 F32 R46 N46 J46 N18 J18 AD4 Z4 V4 R4 F46 F18 N4 J4 F4 B32 B18 B4 B46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V32 AP4 AL4 AH4 R32 N32 J32 F32 R46 N46 J46 N18 J18 AD4 Z4 V4 R4 F46 F18 N4 J4 F4 B32 B18 B4 B46 R18 V18">
       <formula1>severity</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W32 AQ4 AM4 AI4 S32 O32 K32 G32 S46 O46 K46 O18 K18 AE4 AA4 W4 S4 G46 G18 O4 K4 G4 C32 C18 C4 C46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W32 AQ4 AM4 AI4 S32 O32 K32 G32 S46 O46 K46 O18 K18 AE4 AA4 W4 S4 G46 G18 O4 K4 G4 C32 C18 C4 C46 S18 W18">
       <formula1>category</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X32 AR4 AN4 AJ4 T32 P32 L32 H32 T46 P46 L46 P18 L18 AF4 AB4 X4 T4 H46 H18 P4 L4 H4 D32 D18 D4 D46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X32 AR4 AN4 AJ4 T32 P32 L32 H32 T46 P46 L46 P18 L18 AF4 AB4 X4 T4 H46 H18 P4 L4 H4 D32 D18 D4 D46 T18 X18">
       <formula1>component</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U34 AO6 AK6 AG6 Q34 M34 I34 E34 Q48 M48 I48 M20 I20 AC6 Y6 U6 Q6 E48 E20 M6 I6 E6 A34 A20 A6 A48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U34 AO6 AK6 AG6 Q34 M34 I34 E34 Q48 M48 I48 M20 I20 AC6 Y6 U6 Q6 E48 E20 M6 I6 E6 A34 A20 A6 A48 Q20 U20">
       <formula1>status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W34 AQ6 AM6 AI6 S34 O34 K34 G34 S48 O48 K48 O20 K20 AE6 AA6 W6 S6 G48 G20 O6 K6 G6 C34 C20 C6 C48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W34 AQ6 AM6 AI6 S34 O34 K34 G34 S48 O48 K48 O20 K20 AE6 AA6 W6 S6 G48 G20 O6 K6 G6 C34 C20 C6 C48 S20 W20">
       <formula1>build_found</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44 B30 B16 B2">

--- a/Robo Pr0n/Corona_Testing_for_RoboPr0n_BugTracker_Ver2.xlsx
+++ b/Robo Pr0n/Corona_Testing_for_RoboPr0n_BugTracker_Ver2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="240">
   <si>
     <t>Category</t>
   </si>
@@ -732,6 +732,21 @@
   </si>
   <si>
     <t>The swimming animation</t>
+  </si>
+  <si>
+    <t>29 | 30</t>
+  </si>
+  <si>
+    <t>Toggling fullscreen forces player offscreen.</t>
+  </si>
+  <si>
+    <t>The game will start fullscreen. ALT + ENTER to make it windowed. Press ENTER twice to start playing. Move until you get a popup tooltip. ALT + ENTER twice.</t>
+  </si>
+  <si>
+    <t>The player falls off the level and the game locks up. Really annoying in fullscreen mode.</t>
+  </si>
+  <si>
+    <t>The window to be resized with all the game objects still on the map.</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1097,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1157,6 +1172,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
@@ -1949,8 +1970,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AR56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="U28" sqref="U28:X28"/>
+    <sheetView tabSelected="1" topLeftCell="O26" workbookViewId="0">
+      <selection activeCell="AC42" sqref="AC42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2001,11 +2022,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="15.75" thickBot="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:44" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="29" t="s">
@@ -2550,548 +2571,548 @@
       <c r="AR6" s="49"/>
     </row>
     <row r="7" spans="1:44">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52" t="s">
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52" t="s">
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52" t="s">
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52" t="s">
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52" t="s">
+      <c r="R7" s="54"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="52" t="s">
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="52"/>
-      <c r="AA7" s="52"/>
-      <c r="AB7" s="52"/>
-      <c r="AC7" s="52" t="s">
+      <c r="Z7" s="54"/>
+      <c r="AA7" s="54"/>
+      <c r="AB7" s="54"/>
+      <c r="AC7" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AD7" s="52"/>
-      <c r="AE7" s="52"/>
-      <c r="AF7" s="52"/>
-      <c r="AG7" s="52" t="s">
+      <c r="AD7" s="54"/>
+      <c r="AE7" s="54"/>
+      <c r="AF7" s="54"/>
+      <c r="AG7" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AH7" s="52"/>
-      <c r="AI7" s="52"/>
-      <c r="AJ7" s="52"/>
-      <c r="AK7" s="52" t="s">
+      <c r="AH7" s="54"/>
+      <c r="AI7" s="54"/>
+      <c r="AJ7" s="54"/>
+      <c r="AK7" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AL7" s="52"/>
-      <c r="AM7" s="52"/>
-      <c r="AN7" s="52"/>
-      <c r="AO7" s="52" t="s">
+      <c r="AL7" s="54"/>
+      <c r="AM7" s="54"/>
+      <c r="AN7" s="54"/>
+      <c r="AO7" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AP7" s="52"/>
-      <c r="AQ7" s="52"/>
-      <c r="AR7" s="52"/>
+      <c r="AP7" s="54"/>
+      <c r="AQ7" s="54"/>
+      <c r="AR7" s="54"/>
     </row>
     <row r="8" spans="1:44" ht="15" customHeight="1">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53" t="s">
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53" t="s">
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53" t="s">
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53" t="s">
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="53" t="s">
+      <c r="R8" s="55"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="53" t="s">
+      <c r="V8" s="55"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="53"/>
-      <c r="AB8" s="53"/>
-      <c r="AC8" s="53" t="s">
+      <c r="Z8" s="55"/>
+      <c r="AA8" s="55"/>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="AD8" s="53"/>
-      <c r="AE8" s="53"/>
-      <c r="AF8" s="53"/>
-      <c r="AG8" s="53" t="s">
+      <c r="AD8" s="55"/>
+      <c r="AE8" s="55"/>
+      <c r="AF8" s="55"/>
+      <c r="AG8" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="AH8" s="53"/>
-      <c r="AI8" s="53"/>
-      <c r="AJ8" s="53"/>
-      <c r="AK8" s="53" t="s">
+      <c r="AH8" s="55"/>
+      <c r="AI8" s="55"/>
+      <c r="AJ8" s="55"/>
+      <c r="AK8" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="AL8" s="53"/>
-      <c r="AM8" s="53"/>
-      <c r="AN8" s="53"/>
-      <c r="AO8" s="53" t="s">
+      <c r="AL8" s="55"/>
+      <c r="AM8" s="55"/>
+      <c r="AN8" s="55"/>
+      <c r="AO8" s="55" t="s">
         <v>213</v>
       </c>
-      <c r="AP8" s="53"/>
-      <c r="AQ8" s="53"/>
-      <c r="AR8" s="53"/>
+      <c r="AP8" s="55"/>
+      <c r="AQ8" s="55"/>
+      <c r="AR8" s="55"/>
     </row>
     <row r="9" spans="1:44" ht="15" customHeight="1">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52" t="s">
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52" t="s">
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52" t="s">
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52" t="s">
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52" t="s">
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52" t="s">
+      <c r="V9" s="54"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="52"/>
-      <c r="AB9" s="52"/>
-      <c r="AC9" s="52" t="s">
+      <c r="Z9" s="54"/>
+      <c r="AA9" s="54"/>
+      <c r="AB9" s="54"/>
+      <c r="AC9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AD9" s="52"/>
-      <c r="AE9" s="52"/>
-      <c r="AF9" s="52"/>
-      <c r="AG9" s="52" t="s">
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="54"/>
+      <c r="AF9" s="54"/>
+      <c r="AG9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AH9" s="52"/>
-      <c r="AI9" s="52"/>
-      <c r="AJ9" s="52"/>
-      <c r="AK9" s="52" t="s">
+      <c r="AH9" s="54"/>
+      <c r="AI9" s="54"/>
+      <c r="AJ9" s="54"/>
+      <c r="AK9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AL9" s="52"/>
-      <c r="AM9" s="52"/>
-      <c r="AN9" s="52"/>
-      <c r="AO9" s="52" t="s">
+      <c r="AL9" s="54"/>
+      <c r="AM9" s="54"/>
+      <c r="AN9" s="54"/>
+      <c r="AO9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AP9" s="52"/>
-      <c r="AQ9" s="52"/>
-      <c r="AR9" s="52"/>
+      <c r="AP9" s="54"/>
+      <c r="AQ9" s="54"/>
+      <c r="AR9" s="54"/>
     </row>
     <row r="10" spans="1:44" ht="50.1" customHeight="1">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53" t="s">
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53" t="s">
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53" t="s">
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="54" t="s">
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="R10" s="55"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="54" t="s">
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="V10" s="55"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="54" t="s">
+      <c r="V10" s="57"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="Z10" s="55"/>
-      <c r="AA10" s="55"/>
-      <c r="AB10" s="56"/>
-      <c r="AC10" s="54" t="s">
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="57"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="AD10" s="55"/>
-      <c r="AE10" s="55"/>
-      <c r="AF10" s="56"/>
-      <c r="AG10" s="54" t="s">
+      <c r="AD10" s="57"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="58"/>
+      <c r="AG10" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="AH10" s="55"/>
-      <c r="AI10" s="55"/>
-      <c r="AJ10" s="56"/>
-      <c r="AK10" s="54" t="s">
+      <c r="AH10" s="57"/>
+      <c r="AI10" s="57"/>
+      <c r="AJ10" s="58"/>
+      <c r="AK10" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="AL10" s="55"/>
-      <c r="AM10" s="55"/>
-      <c r="AN10" s="56"/>
-      <c r="AO10" s="54" t="s">
+      <c r="AL10" s="57"/>
+      <c r="AM10" s="57"/>
+      <c r="AN10" s="58"/>
+      <c r="AO10" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="AP10" s="55"/>
-      <c r="AQ10" s="55"/>
-      <c r="AR10" s="56"/>
+      <c r="AP10" s="57"/>
+      <c r="AQ10" s="57"/>
+      <c r="AR10" s="58"/>
     </row>
     <row r="11" spans="1:44" ht="15" customHeight="1">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52" t="s">
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52" t="s">
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52" t="s">
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52" t="s">
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52" t="s">
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="52"/>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="52" t="s">
+      <c r="V11" s="54"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="54"/>
+      <c r="Y11" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="Z11" s="52"/>
-      <c r="AA11" s="52"/>
-      <c r="AB11" s="52"/>
-      <c r="AC11" s="52" t="s">
+      <c r="Z11" s="54"/>
+      <c r="AA11" s="54"/>
+      <c r="AB11" s="54"/>
+      <c r="AC11" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="AD11" s="52"/>
-      <c r="AE11" s="52"/>
-      <c r="AF11" s="52"/>
-      <c r="AG11" s="52" t="s">
+      <c r="AD11" s="54"/>
+      <c r="AE11" s="54"/>
+      <c r="AF11" s="54"/>
+      <c r="AG11" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="AH11" s="52"/>
-      <c r="AI11" s="52"/>
-      <c r="AJ11" s="52"/>
-      <c r="AK11" s="52" t="s">
+      <c r="AH11" s="54"/>
+      <c r="AI11" s="54"/>
+      <c r="AJ11" s="54"/>
+      <c r="AK11" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="AL11" s="52"/>
-      <c r="AM11" s="52"/>
-      <c r="AN11" s="52"/>
-      <c r="AO11" s="52" t="s">
+      <c r="AL11" s="54"/>
+      <c r="AM11" s="54"/>
+      <c r="AN11" s="54"/>
+      <c r="AO11" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="AP11" s="52"/>
-      <c r="AQ11" s="52"/>
-      <c r="AR11" s="52"/>
+      <c r="AP11" s="54"/>
+      <c r="AQ11" s="54"/>
+      <c r="AR11" s="54"/>
     </row>
     <row r="12" spans="1:44" ht="50.1" customHeight="1">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53" t="s">
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53" t="s">
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53" t="s">
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53" t="s">
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="53" t="s">
+      <c r="R12" s="55"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="53" t="s">
+      <c r="V12" s="55"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="53"/>
-      <c r="AB12" s="53"/>
-      <c r="AC12" s="53" t="s">
+      <c r="Z12" s="55"/>
+      <c r="AA12" s="55"/>
+      <c r="AB12" s="55"/>
+      <c r="AC12" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="AD12" s="53"/>
-      <c r="AE12" s="53"/>
-      <c r="AF12" s="53"/>
-      <c r="AG12" s="53" t="s">
+      <c r="AD12" s="55"/>
+      <c r="AE12" s="55"/>
+      <c r="AF12" s="55"/>
+      <c r="AG12" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="AH12" s="53"/>
-      <c r="AI12" s="53"/>
-      <c r="AJ12" s="53"/>
-      <c r="AK12" s="53" t="s">
+      <c r="AH12" s="55"/>
+      <c r="AI12" s="55"/>
+      <c r="AJ12" s="55"/>
+      <c r="AK12" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="AL12" s="53"/>
-      <c r="AM12" s="53"/>
-      <c r="AN12" s="53"/>
-      <c r="AO12" s="53" t="s">
+      <c r="AL12" s="55"/>
+      <c r="AM12" s="55"/>
+      <c r="AN12" s="55"/>
+      <c r="AO12" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="AP12" s="53"/>
-      <c r="AQ12" s="53"/>
-      <c r="AR12" s="53"/>
+      <c r="AP12" s="55"/>
+      <c r="AQ12" s="55"/>
+      <c r="AR12" s="55"/>
     </row>
     <row r="13" spans="1:44" ht="15" customHeight="1">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52" t="s">
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52" t="s">
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52" t="s">
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52" t="s">
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52" t="s">
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="V13" s="52"/>
-      <c r="W13" s="52"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="52" t="s">
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="54"/>
+      <c r="Y13" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="Z13" s="52"/>
-      <c r="AA13" s="52"/>
-      <c r="AB13" s="52"/>
-      <c r="AC13" s="52" t="s">
+      <c r="Z13" s="54"/>
+      <c r="AA13" s="54"/>
+      <c r="AB13" s="54"/>
+      <c r="AC13" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="AD13" s="52"/>
-      <c r="AE13" s="52"/>
-      <c r="AF13" s="52"/>
-      <c r="AG13" s="52" t="s">
+      <c r="AD13" s="54"/>
+      <c r="AE13" s="54"/>
+      <c r="AF13" s="54"/>
+      <c r="AG13" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="AH13" s="52"/>
-      <c r="AI13" s="52"/>
-      <c r="AJ13" s="52"/>
-      <c r="AK13" s="52" t="s">
+      <c r="AH13" s="54"/>
+      <c r="AI13" s="54"/>
+      <c r="AJ13" s="54"/>
+      <c r="AK13" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="AL13" s="52"/>
-      <c r="AM13" s="52"/>
-      <c r="AN13" s="52"/>
-      <c r="AO13" s="52" t="s">
+      <c r="AL13" s="54"/>
+      <c r="AM13" s="54"/>
+      <c r="AN13" s="54"/>
+      <c r="AO13" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="AP13" s="52"/>
-      <c r="AQ13" s="52"/>
-      <c r="AR13" s="52"/>
+      <c r="AP13" s="54"/>
+      <c r="AQ13" s="54"/>
+      <c r="AR13" s="54"/>
     </row>
     <row r="14" spans="1:44" ht="50.1" customHeight="1">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53" t="s">
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53" t="s">
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53" t="s">
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53" t="s">
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53" t="s">
+      <c r="R14" s="55"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="V14" s="53"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="53" t="s">
+      <c r="V14" s="55"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="Z14" s="53"/>
-      <c r="AA14" s="53"/>
-      <c r="AB14" s="53"/>
-      <c r="AC14" s="53" t="s">
+      <c r="Z14" s="55"/>
+      <c r="AA14" s="55"/>
+      <c r="AB14" s="55"/>
+      <c r="AC14" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="AD14" s="53"/>
-      <c r="AE14" s="53"/>
-      <c r="AF14" s="53"/>
-      <c r="AG14" s="53" t="s">
+      <c r="AD14" s="55"/>
+      <c r="AE14" s="55"/>
+      <c r="AF14" s="55"/>
+      <c r="AG14" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="AH14" s="53"/>
-      <c r="AI14" s="53"/>
-      <c r="AJ14" s="53"/>
-      <c r="AK14" s="53" t="s">
+      <c r="AH14" s="55"/>
+      <c r="AI14" s="55"/>
+      <c r="AJ14" s="55"/>
+      <c r="AK14" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="AL14" s="53"/>
-      <c r="AM14" s="53"/>
-      <c r="AN14" s="53"/>
-      <c r="AO14" s="53" t="s">
+      <c r="AL14" s="55"/>
+      <c r="AM14" s="55"/>
+      <c r="AN14" s="55"/>
+      <c r="AO14" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="AP14" s="53"/>
-      <c r="AQ14" s="53"/>
-      <c r="AR14" s="53"/>
+      <c r="AP14" s="55"/>
+      <c r="AQ14" s="55"/>
+      <c r="AR14" s="55"/>
     </row>
     <row r="15" spans="1:44" ht="15.75" thickBot="1"/>
     <row r="16" spans="1:44" ht="16.5" thickTop="1" thickBot="1">
@@ -3124,7 +3145,7 @@
       <c r="W16" s="29"/>
       <c r="X16" s="29"/>
     </row>
-    <row r="17" spans="1:24" ht="30.75" thickTop="1">
+    <row r="17" spans="1:28" ht="30.75" thickTop="1">
       <c r="A17" s="30" t="s">
         <v>32</v>
       </c>
@@ -3198,7 +3219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="30">
+    <row r="18" spans="1:28" ht="30">
       <c r="A18" s="31" t="s">
         <v>104</v>
       </c>
@@ -3272,7 +3293,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="30">
+    <row r="19" spans="1:28" ht="30">
       <c r="A19" s="30" t="s">
         <v>4</v>
       </c>
@@ -3334,7 +3355,7 @@
       </c>
       <c r="X19" s="50"/>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:28">
       <c r="A20" s="32" t="s">
         <v>38</v>
       </c>
@@ -3396,312 +3417,312 @@
       </c>
       <c r="X20" s="51"/>
     </row>
-    <row r="21" spans="1:24">
-      <c r="A21" s="52" t="s">
+    <row r="21" spans="1:28">
+      <c r="A21" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52" t="s">
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52" t="s">
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52" t="s">
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52" t="s">
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52" t="s">
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="V21" s="52"/>
-      <c r="W21" s="52"/>
-      <c r="X21" s="52"/>
-    </row>
-    <row r="22" spans="1:24" ht="15" customHeight="1">
-      <c r="A22" s="53" t="s">
+      <c r="V21" s="54"/>
+      <c r="W21" s="54"/>
+      <c r="X21" s="54"/>
+    </row>
+    <row r="22" spans="1:28" ht="15" customHeight="1">
+      <c r="A22" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53" t="s">
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53" t="s">
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53" t="s">
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53" t="s">
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55" t="s">
         <v>226</v>
       </c>
-      <c r="R22" s="53"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="53" t="s">
+      <c r="R22" s="55"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="55"/>
+      <c r="U22" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
-    </row>
-    <row r="23" spans="1:24">
-      <c r="A23" s="52" t="s">
+      <c r="V22" s="55"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="55"/>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52" t="s">
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52" t="s">
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52" t="s">
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52" t="s">
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="R23" s="52"/>
-      <c r="S23" s="52"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="52" t="s">
+      <c r="R23" s="54"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="V23" s="52"/>
-      <c r="W23" s="52"/>
-      <c r="X23" s="52"/>
-    </row>
-    <row r="24" spans="1:24" ht="49.5" customHeight="1">
-      <c r="A24" s="53" t="s">
+      <c r="V23" s="54"/>
+      <c r="W23" s="54"/>
+      <c r="X23" s="54"/>
+    </row>
+    <row r="24" spans="1:28" ht="49.5" customHeight="1">
+      <c r="A24" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53" t="s">
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53" t="s">
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53" t="s">
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53" t="s">
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55" t="s">
         <v>227</v>
       </c>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="53" t="s">
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="V24" s="53"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="53"/>
-    </row>
-    <row r="25" spans="1:24">
-      <c r="A25" s="52" t="s">
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52" t="s">
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52" t="s">
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52" t="s">
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52" t="s">
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52" t="s">
+      <c r="R25" s="54"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
-    </row>
-    <row r="26" spans="1:24" ht="49.5" customHeight="1">
-      <c r="A26" s="53" t="s">
+      <c r="V25" s="54"/>
+      <c r="W25" s="54"/>
+      <c r="X25" s="54"/>
+    </row>
+    <row r="26" spans="1:28" ht="49.5" customHeight="1">
+      <c r="A26" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53" t="s">
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53" t="s">
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53" t="s">
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53" t="s">
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="53" t="s">
+      <c r="R26" s="55"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="55"/>
+      <c r="U26" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="V26" s="53"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="53"/>
-    </row>
-    <row r="27" spans="1:24">
-      <c r="A27" s="52" t="s">
+      <c r="V26" s="55"/>
+      <c r="W26" s="55"/>
+      <c r="X26" s="55"/>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="A27" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52" t="s">
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52" t="s">
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52" t="s">
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52" t="s">
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="R27" s="52"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="52" t="s">
+      <c r="R27" s="54"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="52"/>
-    </row>
-    <row r="28" spans="1:24" ht="49.5" customHeight="1">
-      <c r="A28" s="53" t="s">
+      <c r="V27" s="54"/>
+      <c r="W27" s="54"/>
+      <c r="X27" s="54"/>
+    </row>
+    <row r="28" spans="1:28" ht="49.5" customHeight="1">
+      <c r="A28" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53" t="s">
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53" t="s">
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53" t="s">
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53" t="s">
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="53" t="s">
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55" t="s">
         <v>234</v>
       </c>
-      <c r="V28" s="53"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="53"/>
-    </row>
-    <row r="29" spans="1:24" ht="15.75" thickBot="1"/>
-    <row r="30" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+      <c r="V28" s="55"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="55"/>
+    </row>
+    <row r="29" spans="1:28" ht="15.75" thickBot="1"/>
+    <row r="30" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="29" t="s">
         <v>59</v>
       </c>
@@ -3730,8 +3751,12 @@
       <c r="V30" s="29"/>
       <c r="W30" s="29"/>
       <c r="X30" s="29"/>
-    </row>
-    <row r="31" spans="1:24" ht="30.75" thickTop="1">
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="29"/>
+    </row>
+    <row r="31" spans="1:28" ht="30.75" thickTop="1">
       <c r="A31" s="30" t="s">
         <v>32</v>
       </c>
@@ -3804,8 +3829,20 @@
       <c r="X31" s="41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" ht="30">
+      <c r="Y31" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z31" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA31" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" ht="30">
       <c r="A32" s="31" t="s">
         <v>177</v>
       </c>
@@ -3878,8 +3915,20 @@
       <c r="X32" s="40" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" ht="30">
+      <c r="Y32" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z32" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA32" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB32" s="53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" ht="30">
       <c r="A33" s="30" t="s">
         <v>4</v>
       </c>
@@ -3940,8 +3989,18 @@
         <v>34</v>
       </c>
       <c r="X33" s="41"/>
-    </row>
-    <row r="34" spans="1:24">
+      <c r="Y33" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z33" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA33" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB33" s="52"/>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34" s="32" t="s">
         <v>38</v>
       </c>
@@ -4002,313 +4061,371 @@
         <v>51</v>
       </c>
       <c r="X34" s="40"/>
-    </row>
-    <row r="35" spans="1:24">
-      <c r="A35" s="52" t="s">
+      <c r="Y34" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z34" s="33">
+        <v>40324</v>
+      </c>
+      <c r="AA34" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB34" s="53"/>
+    </row>
+    <row r="35" spans="1:28">
+      <c r="A35" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52" t="s">
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52" t="s">
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52" t="s">
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52" t="s">
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="52"/>
-      <c r="U35" s="52" t="s">
+      <c r="R35" s="54"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="54"/>
+      <c r="U35" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="V35" s="52"/>
-      <c r="W35" s="52"/>
-      <c r="X35" s="52"/>
-    </row>
-    <row r="36" spans="1:24">
-      <c r="A36" s="53" t="s">
+      <c r="V35" s="54"/>
+      <c r="W35" s="54"/>
+      <c r="X35" s="54"/>
+      <c r="Y35" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z35" s="54"/>
+      <c r="AA35" s="54"/>
+      <c r="AB35" s="54"/>
+    </row>
+    <row r="36" spans="1:28">
+      <c r="A36" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53" t="s">
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53" t="s">
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53" t="s">
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53" t="s">
+      <c r="N36" s="55"/>
+      <c r="O36" s="55"/>
+      <c r="P36" s="55"/>
+      <c r="Q36" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="R36" s="53"/>
-      <c r="S36" s="53"/>
-      <c r="T36" s="53"/>
-      <c r="U36" s="53" t="s">
+      <c r="R36" s="55"/>
+      <c r="S36" s="55"/>
+      <c r="T36" s="55"/>
+      <c r="U36" s="55" t="s">
         <v>219</v>
       </c>
-      <c r="V36" s="53"/>
-      <c r="W36" s="53"/>
-      <c r="X36" s="53"/>
-    </row>
-    <row r="37" spans="1:24">
-      <c r="A37" s="52" t="s">
+      <c r="V36" s="55"/>
+      <c r="W36" s="55"/>
+      <c r="X36" s="55"/>
+      <c r="Y36" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z36" s="55"/>
+      <c r="AA36" s="55"/>
+      <c r="AB36" s="55"/>
+    </row>
+    <row r="37" spans="1:28">
+      <c r="A37" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52" t="s">
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52" t="s">
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="J37" s="52"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="52" t="s">
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="N37" s="52"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="52" t="s">
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="R37" s="52"/>
-      <c r="S37" s="52"/>
-      <c r="T37" s="52"/>
-      <c r="U37" s="52" t="s">
+      <c r="R37" s="54"/>
+      <c r="S37" s="54"/>
+      <c r="T37" s="54"/>
+      <c r="U37" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="V37" s="52"/>
-      <c r="W37" s="52"/>
-      <c r="X37" s="52"/>
-    </row>
-    <row r="38" spans="1:24" ht="49.5" customHeight="1">
-      <c r="A38" s="53" t="s">
+      <c r="V37" s="54"/>
+      <c r="W37" s="54"/>
+      <c r="X37" s="54"/>
+      <c r="Y37" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z37" s="54"/>
+      <c r="AA37" s="54"/>
+      <c r="AB37" s="54"/>
+    </row>
+    <row r="38" spans="1:28" ht="49.5" customHeight="1">
+      <c r="A38" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53" t="s">
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53" t="s">
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53" t="s">
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53" t="s">
+      <c r="N38" s="55"/>
+      <c r="O38" s="55"/>
+      <c r="P38" s="55"/>
+      <c r="Q38" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="R38" s="53"/>
-      <c r="S38" s="53"/>
-      <c r="T38" s="53"/>
-      <c r="U38" s="53" t="s">
+      <c r="R38" s="55"/>
+      <c r="S38" s="55"/>
+      <c r="T38" s="55"/>
+      <c r="U38" s="55" t="s">
         <v>220</v>
       </c>
-      <c r="V38" s="53"/>
-      <c r="W38" s="53"/>
-      <c r="X38" s="53"/>
-    </row>
-    <row r="39" spans="1:24">
-      <c r="A39" s="52" t="s">
+      <c r="V38" s="55"/>
+      <c r="W38" s="55"/>
+      <c r="X38" s="55"/>
+      <c r="Y38" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z38" s="55"/>
+      <c r="AA38" s="55"/>
+      <c r="AB38" s="55"/>
+    </row>
+    <row r="39" spans="1:28">
+      <c r="A39" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52" t="s">
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52" t="s">
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52" t="s">
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="52" t="s">
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="R39" s="52"/>
-      <c r="S39" s="52"/>
-      <c r="T39" s="52"/>
-      <c r="U39" s="52" t="s">
+      <c r="R39" s="54"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="54"/>
+      <c r="U39" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="52"/>
-      <c r="W39" s="52"/>
-      <c r="X39" s="52"/>
-    </row>
-    <row r="40" spans="1:24" ht="47.25" customHeight="1">
-      <c r="A40" s="53" t="s">
+      <c r="V39" s="54"/>
+      <c r="W39" s="54"/>
+      <c r="X39" s="54"/>
+      <c r="Y39" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z39" s="54"/>
+      <c r="AA39" s="54"/>
+      <c r="AB39" s="54"/>
+    </row>
+    <row r="40" spans="1:28" ht="47.25" customHeight="1">
+      <c r="A40" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53" t="s">
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53" t="s">
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53" t="s">
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="53" t="s">
+      <c r="N40" s="55"/>
+      <c r="O40" s="55"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="R40" s="53"/>
-      <c r="S40" s="53"/>
-      <c r="T40" s="53"/>
-      <c r="U40" s="53" t="s">
+      <c r="R40" s="55"/>
+      <c r="S40" s="55"/>
+      <c r="T40" s="55"/>
+      <c r="U40" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="V40" s="53"/>
-      <c r="W40" s="53"/>
-      <c r="X40" s="53"/>
-    </row>
-    <row r="41" spans="1:24">
-      <c r="A41" s="52" t="s">
+      <c r="V40" s="55"/>
+      <c r="W40" s="55"/>
+      <c r="X40" s="55"/>
+      <c r="Y40" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z40" s="55"/>
+      <c r="AA40" s="55"/>
+      <c r="AB40" s="55"/>
+    </row>
+    <row r="41" spans="1:28">
+      <c r="A41" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52" t="s">
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52" t="s">
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52" t="s">
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="N41" s="52"/>
-      <c r="O41" s="52"/>
-      <c r="P41" s="52"/>
-      <c r="Q41" s="52" t="s">
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="R41" s="52"/>
-      <c r="S41" s="52"/>
-      <c r="T41" s="52"/>
-      <c r="U41" s="52" t="s">
+      <c r="R41" s="54"/>
+      <c r="S41" s="54"/>
+      <c r="T41" s="54"/>
+      <c r="U41" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="V41" s="52"/>
-      <c r="W41" s="52"/>
-      <c r="X41" s="52"/>
-    </row>
-    <row r="42" spans="1:24" ht="49.5" customHeight="1">
-      <c r="A42" s="53" t="s">
+      <c r="V41" s="54"/>
+      <c r="W41" s="54"/>
+      <c r="X41" s="54"/>
+      <c r="Y41" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z41" s="54"/>
+      <c r="AA41" s="54"/>
+      <c r="AB41" s="54"/>
+    </row>
+    <row r="42" spans="1:28" ht="49.5" customHeight="1">
+      <c r="A42" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53" t="s">
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53" t="s">
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53" t="s">
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="53" t="s">
+      <c r="N42" s="55"/>
+      <c r="O42" s="55"/>
+      <c r="P42" s="55"/>
+      <c r="Q42" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="R42" s="53"/>
-      <c r="S42" s="53"/>
-      <c r="T42" s="53"/>
-      <c r="U42" s="53" t="s">
+      <c r="R42" s="55"/>
+      <c r="S42" s="55"/>
+      <c r="T42" s="55"/>
+      <c r="U42" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="V42" s="53"/>
-      <c r="W42" s="53"/>
-      <c r="X42" s="53"/>
-    </row>
-    <row r="43" spans="1:24" ht="15.75" thickBot="1"/>
-    <row r="44" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
+      <c r="V42" s="55"/>
+      <c r="W42" s="55"/>
+      <c r="X42" s="55"/>
+      <c r="Y42" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z42" s="55"/>
+      <c r="AA42" s="55"/>
+      <c r="AB42" s="55"/>
+    </row>
+    <row r="43" spans="1:28" ht="15.75" thickBot="1"/>
+    <row r="44" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
       <c r="A44" s="29" t="s">
         <v>60</v>
       </c>
@@ -4334,7 +4451,7 @@
       <c r="S44" s="29"/>
       <c r="T44" s="29"/>
     </row>
-    <row r="45" spans="1:24" ht="30.75" thickTop="1">
+    <row r="45" spans="1:28" ht="30.75" thickTop="1">
       <c r="A45" s="30" t="s">
         <v>32</v>
       </c>
@@ -4396,7 +4513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="30">
+    <row r="46" spans="1:28" ht="30">
       <c r="A46" s="31" t="s">
         <v>108</v>
       </c>
@@ -4458,7 +4575,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="30">
+    <row r="47" spans="1:28" ht="30">
       <c r="A47" s="30" t="s">
         <v>4</v>
       </c>
@@ -4510,7 +4627,7 @@
       </c>
       <c r="T47" s="44"/>
     </row>
-    <row r="48" spans="1:24">
+    <row r="48" spans="1:28">
       <c r="A48" s="32" t="s">
         <v>38</v>
       </c>
@@ -4563,277 +4680,458 @@
       <c r="T48" s="45"/>
     </row>
     <row r="49" spans="1:20">
-      <c r="A49" s="52" t="s">
+      <c r="A49" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52" t="s">
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="52" t="s">
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="52"/>
-      <c r="K49" s="52"/>
-      <c r="L49" s="52"/>
-      <c r="M49" s="52" t="s">
+      <c r="J49" s="54"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="52"/>
-      <c r="O49" s="52"/>
-      <c r="P49" s="52"/>
-      <c r="Q49" s="52" t="s">
+      <c r="N49" s="54"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="54"/>
+      <c r="Q49" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="R49" s="52"/>
-      <c r="S49" s="52"/>
-      <c r="T49" s="52"/>
+      <c r="R49" s="54"/>
+      <c r="S49" s="54"/>
+      <c r="T49" s="54"/>
     </row>
     <row r="50" spans="1:20">
-      <c r="A50" s="53" t="s">
+      <c r="A50" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="B50" s="53"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53" t="s">
+      <c r="B50" s="55"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53" t="s">
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="J50" s="53"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="53" t="s">
+      <c r="J50" s="55"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="55"/>
+      <c r="M50" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="N50" s="53"/>
-      <c r="O50" s="53"/>
-      <c r="P50" s="53"/>
-      <c r="Q50" s="53" t="s">
+      <c r="N50" s="55"/>
+      <c r="O50" s="55"/>
+      <c r="P50" s="55"/>
+      <c r="Q50" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="R50" s="53"/>
-      <c r="S50" s="53"/>
-      <c r="T50" s="53"/>
+      <c r="R50" s="55"/>
+      <c r="S50" s="55"/>
+      <c r="T50" s="55"/>
     </row>
     <row r="51" spans="1:20">
-      <c r="A51" s="52" t="s">
+      <c r="A51" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="52" t="s">
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F51" s="52"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="52" t="s">
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="J51" s="52"/>
-      <c r="K51" s="52"/>
-      <c r="L51" s="52"/>
-      <c r="M51" s="52" t="s">
+      <c r="J51" s="54"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="N51" s="52"/>
-      <c r="O51" s="52"/>
-      <c r="P51" s="52"/>
-      <c r="Q51" s="52" t="s">
+      <c r="N51" s="54"/>
+      <c r="O51" s="54"/>
+      <c r="P51" s="54"/>
+      <c r="Q51" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="R51" s="52"/>
-      <c r="S51" s="52"/>
-      <c r="T51" s="52"/>
+      <c r="R51" s="54"/>
+      <c r="S51" s="54"/>
+      <c r="T51" s="54"/>
     </row>
     <row r="52" spans="1:20" ht="49.5" customHeight="1">
-      <c r="A52" s="53" t="s">
+      <c r="A52" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="B52" s="53"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53" t="s">
+      <c r="B52" s="55"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="53" t="s">
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="J52" s="53"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="53"/>
-      <c r="M52" s="53" t="s">
+      <c r="J52" s="55"/>
+      <c r="K52" s="55"/>
+      <c r="L52" s="55"/>
+      <c r="M52" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="N52" s="53"/>
-      <c r="O52" s="53"/>
-      <c r="P52" s="53"/>
-      <c r="Q52" s="53" t="s">
+      <c r="N52" s="55"/>
+      <c r="O52" s="55"/>
+      <c r="P52" s="55"/>
+      <c r="Q52" s="55" t="s">
         <v>200</v>
       </c>
-      <c r="R52" s="53"/>
-      <c r="S52" s="53"/>
-      <c r="T52" s="53"/>
+      <c r="R52" s="55"/>
+      <c r="S52" s="55"/>
+      <c r="T52" s="55"/>
     </row>
     <row r="53" spans="1:20">
-      <c r="A53" s="52" t="s">
+      <c r="A53" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="52"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="52" t="s">
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="52" t="s">
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="J53" s="52"/>
-      <c r="K53" s="52"/>
-      <c r="L53" s="52"/>
-      <c r="M53" s="52" t="s">
+      <c r="J53" s="54"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="N53" s="52"/>
-      <c r="O53" s="52"/>
-      <c r="P53" s="52"/>
-      <c r="Q53" s="52" t="s">
+      <c r="N53" s="54"/>
+      <c r="O53" s="54"/>
+      <c r="P53" s="54"/>
+      <c r="Q53" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="R53" s="52"/>
-      <c r="S53" s="52"/>
-      <c r="T53" s="52"/>
+      <c r="R53" s="54"/>
+      <c r="S53" s="54"/>
+      <c r="T53" s="54"/>
     </row>
     <row r="54" spans="1:20" ht="49.5" customHeight="1">
-      <c r="A54" s="53" t="s">
+      <c r="A54" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="53"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53" t="s">
+      <c r="B54" s="55"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53" t="s">
+      <c r="F54" s="55"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="J54" s="53"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="53"/>
-      <c r="M54" s="53" t="s">
+      <c r="J54" s="55"/>
+      <c r="K54" s="55"/>
+      <c r="L54" s="55"/>
+      <c r="M54" s="55" t="s">
         <v>170</v>
       </c>
-      <c r="N54" s="53"/>
-      <c r="O54" s="53"/>
-      <c r="P54" s="53"/>
-      <c r="Q54" s="53" t="s">
+      <c r="N54" s="55"/>
+      <c r="O54" s="55"/>
+      <c r="P54" s="55"/>
+      <c r="Q54" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="R54" s="53"/>
-      <c r="S54" s="53"/>
-      <c r="T54" s="53"/>
+      <c r="R54" s="55"/>
+      <c r="S54" s="55"/>
+      <c r="T54" s="55"/>
     </row>
     <row r="55" spans="1:20">
-      <c r="A55" s="52" t="s">
+      <c r="A55" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="52"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52" t="s">
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="F55" s="52"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="52" t="s">
+      <c r="F55" s="54"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="J55" s="52"/>
-      <c r="K55" s="52"/>
-      <c r="L55" s="52"/>
-      <c r="M55" s="52" t="s">
+      <c r="J55" s="54"/>
+      <c r="K55" s="54"/>
+      <c r="L55" s="54"/>
+      <c r="M55" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="N55" s="52"/>
-      <c r="O55" s="52"/>
-      <c r="P55" s="52"/>
-      <c r="Q55" s="52" t="s">
+      <c r="N55" s="54"/>
+      <c r="O55" s="54"/>
+      <c r="P55" s="54"/>
+      <c r="Q55" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="R55" s="52"/>
-      <c r="S55" s="52"/>
-      <c r="T55" s="52"/>
+      <c r="R55" s="54"/>
+      <c r="S55" s="54"/>
+      <c r="T55" s="54"/>
     </row>
     <row r="56" spans="1:20" ht="49.5" customHeight="1">
-      <c r="A56" s="53" t="s">
+      <c r="A56" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="53"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53" t="s">
+      <c r="B56" s="55"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53" t="s">
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="J56" s="53"/>
-      <c r="K56" s="53"/>
-      <c r="L56" s="53"/>
-      <c r="M56" s="53" t="s">
+      <c r="J56" s="55"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="55"/>
+      <c r="M56" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="N56" s="53"/>
-      <c r="O56" s="53"/>
-      <c r="P56" s="53"/>
-      <c r="Q56" s="53" t="s">
+      <c r="N56" s="55"/>
+      <c r="O56" s="55"/>
+      <c r="P56" s="55"/>
+      <c r="Q56" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="R56" s="53"/>
-      <c r="S56" s="53"/>
-      <c r="T56" s="53"/>
+      <c r="R56" s="55"/>
+      <c r="S56" s="55"/>
+      <c r="T56" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="225">
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="U28:X28"/>
+  <mergeCells count="233">
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="Q50:T50"/>
+    <mergeCell ref="Q51:T51"/>
+    <mergeCell ref="Q52:T52"/>
+    <mergeCell ref="Q53:T53"/>
+    <mergeCell ref="Q54:T54"/>
+    <mergeCell ref="Q55:T55"/>
+    <mergeCell ref="Q56:T56"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="Q38:T38"/>
+    <mergeCell ref="Q39:T39"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="U39:X39"/>
+    <mergeCell ref="U40:X40"/>
+    <mergeCell ref="U41:X41"/>
+    <mergeCell ref="U42:X42"/>
+    <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="AC13:AF13"/>
+    <mergeCell ref="AC14:AF14"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="Y35:AB35"/>
+    <mergeCell ref="Y36:AB36"/>
+    <mergeCell ref="Y37:AB37"/>
+    <mergeCell ref="Y38:AB38"/>
+    <mergeCell ref="Y39:AB39"/>
+    <mergeCell ref="Y40:AB40"/>
+    <mergeCell ref="Y41:AB41"/>
+    <mergeCell ref="Y42:AB42"/>
+    <mergeCell ref="AC7:AF7"/>
+    <mergeCell ref="AC8:AF8"/>
+    <mergeCell ref="AC9:AF9"/>
+    <mergeCell ref="AC10:AF10"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="Y7:AB7"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="M42:P42"/>
     <mergeCell ref="AO7:AR7"/>
     <mergeCell ref="AO8:AR8"/>
     <mergeCell ref="AO9:AR9"/>
@@ -4858,208 +5156,35 @@
     <mergeCell ref="AK12:AN12"/>
     <mergeCell ref="AK13:AN13"/>
     <mergeCell ref="AK14:AN14"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="AC7:AF7"/>
-    <mergeCell ref="AC8:AF8"/>
-    <mergeCell ref="AC9:AF9"/>
-    <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="Y7:AB7"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="U39:X39"/>
-    <mergeCell ref="U40:X40"/>
-    <mergeCell ref="U41:X41"/>
-    <mergeCell ref="U42:X42"/>
-    <mergeCell ref="AC12:AF12"/>
-    <mergeCell ref="AC13:AF13"/>
-    <mergeCell ref="AC14:AF14"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="Q49:T49"/>
-    <mergeCell ref="Q50:T50"/>
-    <mergeCell ref="Q51:T51"/>
-    <mergeCell ref="Q52:T52"/>
-    <mergeCell ref="Q53:T53"/>
-    <mergeCell ref="Q54:T54"/>
-    <mergeCell ref="Q55:T55"/>
-    <mergeCell ref="Q56:T56"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="Q37:T37"/>
-    <mergeCell ref="Q38:T38"/>
-    <mergeCell ref="Q39:T39"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="U28:X28"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V32 AP4 AL4 AH4 R32 N32 J32 F32 R46 N46 J46 N18 J18 AD4 Z4 V4 R4 F46 F18 N4 J4 F4 B32 B18 B4 B46 R18 V18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V32 AP4 AL4 AH4 R32 N32 J32 F32 R46 N46 J46 N18 J18 AD4 Z4 V4 R4 F46 F18 N4 J4 F4 B32 B18 B4 B46 R18 V18 Z32">
       <formula1>severity</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W32 AQ4 AM4 AI4 S32 O32 K32 G32 S46 O46 K46 O18 K18 AE4 AA4 W4 S4 G46 G18 O4 K4 G4 C32 C18 C4 C46 S18 W18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W32 AQ4 AM4 AI4 S32 O32 K32 G32 S46 O46 K46 O18 K18 AE4 AA4 W4 S4 G46 G18 O4 K4 G4 C32 C18 C4 C46 S18 W18 AA32">
       <formula1>category</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X32 AR4 AN4 AJ4 T32 P32 L32 H32 T46 P46 L46 P18 L18 AF4 AB4 X4 T4 H46 H18 P4 L4 H4 D32 D18 D4 D46 T18 X18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X32 AR4 AN4 AJ4 T32 P32 L32 H32 T46 P46 L46 P18 L18 AF4 AB4 X4 T4 H46 H18 P4 L4 H4 D32 D18 D4 D46 T18 X18 AB32">
       <formula1>component</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U34 AO6 AK6 AG6 Q34 M34 I34 E34 Q48 M48 I48 M20 I20 AC6 Y6 U6 Q6 E48 E20 M6 I6 E6 A34 A20 A6 A48 Q20 U20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U34 AO6 AK6 AG6 Q34 M34 I34 E34 Q48 M48 I48 M20 I20 AC6 Y6 U6 Q6 E48 E20 M6 I6 E6 A34 A20 A6 A48 Q20 U20 Y34">
       <formula1>status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W34 AQ6 AM6 AI6 S34 O34 K34 G34 S48 O48 K48 O20 K20 AE6 AA6 W6 S6 G48 G20 O6 K6 G6 C34 C20 C6 C48 S20 W20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W34 AQ6 AM6 AI6 S34 O34 K34 G34 S48 O48 K48 O20 K20 AE6 AA6 W6 S6 G48 G20 O6 K6 G6 C34 C20 C6 C48 S20 W20 AA34">
       <formula1>build_found</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44 B30 B16 B2">

--- a/Robo Pr0n/Corona_Testing_for_RoboPr0n_BugTracker_Ver2.xlsx
+++ b/Robo Pr0n/Corona_Testing_for_RoboPr0n_BugTracker_Ver2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="245">
   <si>
     <t>Category</t>
   </si>
@@ -747,6 +747,21 @@
   </si>
   <si>
     <t>The window to be resized with all the game objects still on the map.</t>
+  </si>
+  <si>
+    <t>30 | 30</t>
+  </si>
+  <si>
+    <t>Enemies aren't visible on screen invert.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activate the invert ability while near an enemy. </t>
+  </si>
+  <si>
+    <t>The enemies are not visible.</t>
+  </si>
+  <si>
+    <t>The enemies to be visible.</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1112,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1172,6 +1187,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
@@ -1970,8 +1991,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AR56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O26" workbookViewId="0">
-      <selection activeCell="AC42" sqref="AC42"/>
+    <sheetView tabSelected="1" topLeftCell="K37" workbookViewId="0">
+      <selection activeCell="Z54" sqref="Z54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2022,11 +2043,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="15.75" thickBot="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:44" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="29" t="s">
@@ -2571,548 +2592,548 @@
       <c r="AR6" s="49"/>
     </row>
     <row r="7" spans="1:44">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54" t="s">
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54" t="s">
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54" t="s">
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54" t="s">
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="54"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54" t="s">
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="V7" s="54"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="54" t="s">
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="54"/>
-      <c r="AA7" s="54"/>
-      <c r="AB7" s="54"/>
-      <c r="AC7" s="54" t="s">
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="56"/>
+      <c r="AB7" s="56"/>
+      <c r="AC7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AD7" s="54"/>
-      <c r="AE7" s="54"/>
-      <c r="AF7" s="54"/>
-      <c r="AG7" s="54" t="s">
+      <c r="AD7" s="56"/>
+      <c r="AE7" s="56"/>
+      <c r="AF7" s="56"/>
+      <c r="AG7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AH7" s="54"/>
-      <c r="AI7" s="54"/>
-      <c r="AJ7" s="54"/>
-      <c r="AK7" s="54" t="s">
+      <c r="AH7" s="56"/>
+      <c r="AI7" s="56"/>
+      <c r="AJ7" s="56"/>
+      <c r="AK7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AL7" s="54"/>
-      <c r="AM7" s="54"/>
-      <c r="AN7" s="54"/>
-      <c r="AO7" s="54" t="s">
+      <c r="AL7" s="56"/>
+      <c r="AM7" s="56"/>
+      <c r="AN7" s="56"/>
+      <c r="AO7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AP7" s="54"/>
-      <c r="AQ7" s="54"/>
-      <c r="AR7" s="54"/>
+      <c r="AP7" s="56"/>
+      <c r="AQ7" s="56"/>
+      <c r="AR7" s="56"/>
     </row>
     <row r="8" spans="1:44" ht="15" customHeight="1">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55" t="s">
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55" t="s">
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55" t="s">
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55" t="s">
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55" t="s">
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="V8" s="55"/>
-      <c r="W8" s="55"/>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="55" t="s">
+      <c r="V8" s="57"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="55"/>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="55" t="s">
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="57"/>
+      <c r="AC8" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="AD8" s="55"/>
-      <c r="AE8" s="55"/>
-      <c r="AF8" s="55"/>
-      <c r="AG8" s="55" t="s">
+      <c r="AD8" s="57"/>
+      <c r="AE8" s="57"/>
+      <c r="AF8" s="57"/>
+      <c r="AG8" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="AH8" s="55"/>
-      <c r="AI8" s="55"/>
-      <c r="AJ8" s="55"/>
-      <c r="AK8" s="55" t="s">
+      <c r="AH8" s="57"/>
+      <c r="AI8" s="57"/>
+      <c r="AJ8" s="57"/>
+      <c r="AK8" s="57" t="s">
         <v>209</v>
       </c>
-      <c r="AL8" s="55"/>
-      <c r="AM8" s="55"/>
-      <c r="AN8" s="55"/>
-      <c r="AO8" s="55" t="s">
+      <c r="AL8" s="57"/>
+      <c r="AM8" s="57"/>
+      <c r="AN8" s="57"/>
+      <c r="AO8" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="AP8" s="55"/>
-      <c r="AQ8" s="55"/>
-      <c r="AR8" s="55"/>
+      <c r="AP8" s="57"/>
+      <c r="AQ8" s="57"/>
+      <c r="AR8" s="57"/>
     </row>
     <row r="9" spans="1:44" ht="15" customHeight="1">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54" t="s">
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54" t="s">
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54" t="s">
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54" t="s">
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54" t="s">
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="54" t="s">
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="54"/>
-      <c r="AC9" s="54" t="s">
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AD9" s="54"/>
-      <c r="AE9" s="54"/>
-      <c r="AF9" s="54"/>
-      <c r="AG9" s="54" t="s">
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="56"/>
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AH9" s="54"/>
-      <c r="AI9" s="54"/>
-      <c r="AJ9" s="54"/>
-      <c r="AK9" s="54" t="s">
+      <c r="AH9" s="56"/>
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="56"/>
+      <c r="AK9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AL9" s="54"/>
-      <c r="AM9" s="54"/>
-      <c r="AN9" s="54"/>
-      <c r="AO9" s="54" t="s">
+      <c r="AL9" s="56"/>
+      <c r="AM9" s="56"/>
+      <c r="AN9" s="56"/>
+      <c r="AO9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AP9" s="54"/>
-      <c r="AQ9" s="54"/>
-      <c r="AR9" s="54"/>
+      <c r="AP9" s="56"/>
+      <c r="AQ9" s="56"/>
+      <c r="AR9" s="56"/>
     </row>
     <row r="10" spans="1:44" ht="50.1" customHeight="1">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55" t="s">
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55" t="s">
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55" t="s">
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="56" t="s">
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="56" t="s">
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="V10" s="57"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="56" t="s">
+      <c r="V10" s="59"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="60"/>
+      <c r="Y10" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="57"/>
-      <c r="AB10" s="58"/>
-      <c r="AC10" s="56" t="s">
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="60"/>
+      <c r="AC10" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="AD10" s="57"/>
-      <c r="AE10" s="57"/>
-      <c r="AF10" s="58"/>
-      <c r="AG10" s="56" t="s">
+      <c r="AD10" s="59"/>
+      <c r="AE10" s="59"/>
+      <c r="AF10" s="60"/>
+      <c r="AG10" s="58" t="s">
         <v>206</v>
       </c>
-      <c r="AH10" s="57"/>
-      <c r="AI10" s="57"/>
-      <c r="AJ10" s="58"/>
-      <c r="AK10" s="56" t="s">
+      <c r="AH10" s="59"/>
+      <c r="AI10" s="59"/>
+      <c r="AJ10" s="60"/>
+      <c r="AK10" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="AL10" s="57"/>
-      <c r="AM10" s="57"/>
-      <c r="AN10" s="58"/>
-      <c r="AO10" s="56" t="s">
+      <c r="AL10" s="59"/>
+      <c r="AM10" s="59"/>
+      <c r="AN10" s="60"/>
+      <c r="AO10" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="AP10" s="57"/>
-      <c r="AQ10" s="57"/>
-      <c r="AR10" s="58"/>
+      <c r="AP10" s="59"/>
+      <c r="AQ10" s="59"/>
+      <c r="AR10" s="60"/>
     </row>
     <row r="11" spans="1:44" ht="15" customHeight="1">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54" t="s">
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54" t="s">
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54" t="s">
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54" t="s">
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54" t="s">
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="54"/>
-      <c r="W11" s="54"/>
-      <c r="X11" s="54"/>
-      <c r="Y11" s="54" t="s">
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="Z11" s="54"/>
-      <c r="AA11" s="54"/>
-      <c r="AB11" s="54"/>
-      <c r="AC11" s="54" t="s">
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="AD11" s="54"/>
-      <c r="AE11" s="54"/>
-      <c r="AF11" s="54"/>
-      <c r="AG11" s="54" t="s">
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="56"/>
+      <c r="AF11" s="56"/>
+      <c r="AG11" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="AH11" s="54"/>
-      <c r="AI11" s="54"/>
-      <c r="AJ11" s="54"/>
-      <c r="AK11" s="54" t="s">
+      <c r="AH11" s="56"/>
+      <c r="AI11" s="56"/>
+      <c r="AJ11" s="56"/>
+      <c r="AK11" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="AL11" s="54"/>
-      <c r="AM11" s="54"/>
-      <c r="AN11" s="54"/>
-      <c r="AO11" s="54" t="s">
+      <c r="AL11" s="56"/>
+      <c r="AM11" s="56"/>
+      <c r="AN11" s="56"/>
+      <c r="AO11" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="AP11" s="54"/>
-      <c r="AQ11" s="54"/>
-      <c r="AR11" s="54"/>
+      <c r="AP11" s="56"/>
+      <c r="AQ11" s="56"/>
+      <c r="AR11" s="56"/>
     </row>
     <row r="12" spans="1:44" ht="50.1" customHeight="1">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55" t="s">
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55" t="s">
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55" t="s">
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55" t="s">
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="R12" s="55"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="55" t="s">
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="V12" s="55"/>
-      <c r="W12" s="55"/>
-      <c r="X12" s="55"/>
-      <c r="Y12" s="55" t="s">
+      <c r="V12" s="57"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="Z12" s="55"/>
-      <c r="AA12" s="55"/>
-      <c r="AB12" s="55"/>
-      <c r="AC12" s="55" t="s">
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="AD12" s="55"/>
-      <c r="AE12" s="55"/>
-      <c r="AF12" s="55"/>
-      <c r="AG12" s="55" t="s">
+      <c r="AD12" s="57"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="57"/>
+      <c r="AG12" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="AH12" s="55"/>
-      <c r="AI12" s="55"/>
-      <c r="AJ12" s="55"/>
-      <c r="AK12" s="55" t="s">
+      <c r="AH12" s="57"/>
+      <c r="AI12" s="57"/>
+      <c r="AJ12" s="57"/>
+      <c r="AK12" s="57" t="s">
         <v>211</v>
       </c>
-      <c r="AL12" s="55"/>
-      <c r="AM12" s="55"/>
-      <c r="AN12" s="55"/>
-      <c r="AO12" s="55" t="s">
+      <c r="AL12" s="57"/>
+      <c r="AM12" s="57"/>
+      <c r="AN12" s="57"/>
+      <c r="AO12" s="57" t="s">
         <v>215</v>
       </c>
-      <c r="AP12" s="55"/>
-      <c r="AQ12" s="55"/>
-      <c r="AR12" s="55"/>
+      <c r="AP12" s="57"/>
+      <c r="AQ12" s="57"/>
+      <c r="AR12" s="57"/>
     </row>
     <row r="13" spans="1:44" ht="15" customHeight="1">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54" t="s">
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54" t="s">
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54" t="s">
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54" t="s">
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54" t="s">
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="54"/>
-      <c r="Y13" s="54" t="s">
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="Z13" s="54"/>
-      <c r="AA13" s="54"/>
-      <c r="AB13" s="54"/>
-      <c r="AC13" s="54" t="s">
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="56"/>
+      <c r="AC13" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AD13" s="54"/>
-      <c r="AE13" s="54"/>
-      <c r="AF13" s="54"/>
-      <c r="AG13" s="54" t="s">
+      <c r="AD13" s="56"/>
+      <c r="AE13" s="56"/>
+      <c r="AF13" s="56"/>
+      <c r="AG13" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AH13" s="54"/>
-      <c r="AI13" s="54"/>
-      <c r="AJ13" s="54"/>
-      <c r="AK13" s="54" t="s">
+      <c r="AH13" s="56"/>
+      <c r="AI13" s="56"/>
+      <c r="AJ13" s="56"/>
+      <c r="AK13" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AL13" s="54"/>
-      <c r="AM13" s="54"/>
-      <c r="AN13" s="54"/>
-      <c r="AO13" s="54" t="s">
+      <c r="AL13" s="56"/>
+      <c r="AM13" s="56"/>
+      <c r="AN13" s="56"/>
+      <c r="AO13" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AP13" s="54"/>
-      <c r="AQ13" s="54"/>
-      <c r="AR13" s="54"/>
+      <c r="AP13" s="56"/>
+      <c r="AQ13" s="56"/>
+      <c r="AR13" s="56"/>
     </row>
     <row r="14" spans="1:44" ht="50.1" customHeight="1">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55" t="s">
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55" t="s">
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55" t="s">
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55" t="s">
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="R14" s="55"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="55" t="s">
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="V14" s="55"/>
-      <c r="W14" s="55"/>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="55" t="s">
+      <c r="V14" s="57"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="Z14" s="55"/>
-      <c r="AA14" s="55"/>
-      <c r="AB14" s="55"/>
-      <c r="AC14" s="55" t="s">
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="57"/>
+      <c r="AB14" s="57"/>
+      <c r="AC14" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="AD14" s="55"/>
-      <c r="AE14" s="55"/>
-      <c r="AF14" s="55"/>
-      <c r="AG14" s="55" t="s">
+      <c r="AD14" s="57"/>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="57"/>
+      <c r="AG14" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="AH14" s="55"/>
-      <c r="AI14" s="55"/>
-      <c r="AJ14" s="55"/>
-      <c r="AK14" s="55" t="s">
+      <c r="AH14" s="57"/>
+      <c r="AI14" s="57"/>
+      <c r="AJ14" s="57"/>
+      <c r="AK14" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="AL14" s="55"/>
-      <c r="AM14" s="55"/>
-      <c r="AN14" s="55"/>
-      <c r="AO14" s="55" t="s">
+      <c r="AL14" s="57"/>
+      <c r="AM14" s="57"/>
+      <c r="AN14" s="57"/>
+      <c r="AO14" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="AP14" s="55"/>
-      <c r="AQ14" s="55"/>
-      <c r="AR14" s="55"/>
+      <c r="AP14" s="57"/>
+      <c r="AQ14" s="57"/>
+      <c r="AR14" s="57"/>
     </row>
     <row r="15" spans="1:44" ht="15.75" thickBot="1"/>
     <row r="16" spans="1:44" ht="16.5" thickTop="1" thickBot="1">
@@ -3418,308 +3439,308 @@
       <c r="X20" s="51"/>
     </row>
     <row r="21" spans="1:28">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54" t="s">
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54" t="s">
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54" t="s">
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54" t="s">
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54" t="s">
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
     </row>
     <row r="22" spans="1:28" ht="15" customHeight="1">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55" t="s">
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55" t="s">
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55" t="s">
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="55" t="s">
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="R22" s="55"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="55"/>
-      <c r="U22" s="55" t="s">
+      <c r="R22" s="57"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="57" t="s">
         <v>231</v>
       </c>
-      <c r="V22" s="55"/>
-      <c r="W22" s="55"/>
-      <c r="X22" s="55"/>
+      <c r="V22" s="57"/>
+      <c r="W22" s="57"/>
+      <c r="X22" s="57"/>
     </row>
     <row r="23" spans="1:28">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54" t="s">
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54" t="s">
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54" t="s">
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54" t="s">
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="R23" s="54"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="54" t="s">
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="V23" s="54"/>
-      <c r="W23" s="54"/>
-      <c r="X23" s="54"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
     </row>
     <row r="24" spans="1:28" ht="49.5" customHeight="1">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55" t="s">
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55" t="s">
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55" t="s">
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55" t="s">
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="R24" s="55"/>
-      <c r="S24" s="55"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="55" t="s">
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="V24" s="55"/>
-      <c r="W24" s="55"/>
-      <c r="X24" s="55"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="57"/>
     </row>
     <row r="25" spans="1:28">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54" t="s">
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54" t="s">
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54" t="s">
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54" t="s">
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="R25" s="54"/>
-      <c r="S25" s="54"/>
-      <c r="T25" s="54"/>
-      <c r="U25" s="54" t="s">
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="54"/>
-      <c r="W25" s="54"/>
-      <c r="X25" s="54"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="56"/>
     </row>
     <row r="26" spans="1:28" ht="49.5" customHeight="1">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55" t="s">
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55" t="s">
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55" t="s">
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55" t="s">
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="R26" s="55"/>
-      <c r="S26" s="55"/>
-      <c r="T26" s="55"/>
-      <c r="U26" s="55" t="s">
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="V26" s="55"/>
-      <c r="W26" s="55"/>
-      <c r="X26" s="55"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="57"/>
     </row>
     <row r="27" spans="1:28">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54" t="s">
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54" t="s">
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54" t="s">
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54" t="s">
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="R27" s="54"/>
-      <c r="S27" s="54"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="54" t="s">
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="V27" s="54"/>
-      <c r="W27" s="54"/>
-      <c r="X27" s="54"/>
+      <c r="V27" s="56"/>
+      <c r="W27" s="56"/>
+      <c r="X27" s="56"/>
     </row>
     <row r="28" spans="1:28" ht="49.5" customHeight="1">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55" t="s">
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55" t="s">
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55" t="s">
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55" t="s">
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55" t="s">
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="V28" s="55"/>
-      <c r="W28" s="55"/>
-      <c r="X28" s="55"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="57"/>
     </row>
     <row r="29" spans="1:28" ht="15.75" thickBot="1"/>
     <row r="30" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
@@ -4073,356 +4094,356 @@
       <c r="AB34" s="53"/>
     </row>
     <row r="35" spans="1:28">
-      <c r="A35" s="54" t="s">
+      <c r="A35" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54" t="s">
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54" t="s">
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54" t="s">
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="N35" s="54"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="54" t="s">
+      <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="R35" s="54"/>
-      <c r="S35" s="54"/>
-      <c r="T35" s="54"/>
-      <c r="U35" s="54" t="s">
+      <c r="R35" s="56"/>
+      <c r="S35" s="56"/>
+      <c r="T35" s="56"/>
+      <c r="U35" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="V35" s="54"/>
-      <c r="W35" s="54"/>
-      <c r="X35" s="54"/>
-      <c r="Y35" s="54" t="s">
+      <c r="V35" s="56"/>
+      <c r="W35" s="56"/>
+      <c r="X35" s="56"/>
+      <c r="Y35" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="Z35" s="54"/>
-      <c r="AA35" s="54"/>
-      <c r="AB35" s="54"/>
+      <c r="Z35" s="56"/>
+      <c r="AA35" s="56"/>
+      <c r="AB35" s="56"/>
     </row>
     <row r="36" spans="1:28">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55" t="s">
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55" t="s">
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="55" t="s">
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="N36" s="55"/>
-      <c r="O36" s="55"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="55" t="s">
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="R36" s="55"/>
-      <c r="S36" s="55"/>
-      <c r="T36" s="55"/>
-      <c r="U36" s="55" t="s">
+      <c r="R36" s="57"/>
+      <c r="S36" s="57"/>
+      <c r="T36" s="57"/>
+      <c r="U36" s="57" t="s">
         <v>219</v>
       </c>
-      <c r="V36" s="55"/>
-      <c r="W36" s="55"/>
-      <c r="X36" s="55"/>
-      <c r="Y36" s="55" t="s">
+      <c r="V36" s="57"/>
+      <c r="W36" s="57"/>
+      <c r="X36" s="57"/>
+      <c r="Y36" s="57" t="s">
         <v>236</v>
       </c>
-      <c r="Z36" s="55"/>
-      <c r="AA36" s="55"/>
-      <c r="AB36" s="55"/>
+      <c r="Z36" s="57"/>
+      <c r="AA36" s="57"/>
+      <c r="AB36" s="57"/>
     </row>
     <row r="37" spans="1:28">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54" t="s">
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54" t="s">
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54" t="s">
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="N37" s="54"/>
-      <c r="O37" s="54"/>
-      <c r="P37" s="54"/>
-      <c r="Q37" s="54" t="s">
+      <c r="N37" s="56"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="56"/>
+      <c r="Q37" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="R37" s="54"/>
-      <c r="S37" s="54"/>
-      <c r="T37" s="54"/>
-      <c r="U37" s="54" t="s">
+      <c r="R37" s="56"/>
+      <c r="S37" s="56"/>
+      <c r="T37" s="56"/>
+      <c r="U37" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="V37" s="54"/>
-      <c r="W37" s="54"/>
-      <c r="X37" s="54"/>
-      <c r="Y37" s="54" t="s">
+      <c r="V37" s="56"/>
+      <c r="W37" s="56"/>
+      <c r="X37" s="56"/>
+      <c r="Y37" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="Z37" s="54"/>
-      <c r="AA37" s="54"/>
-      <c r="AB37" s="54"/>
+      <c r="Z37" s="56"/>
+      <c r="AA37" s="56"/>
+      <c r="AB37" s="56"/>
     </row>
     <row r="38" spans="1:28" ht="49.5" customHeight="1">
-      <c r="A38" s="55" t="s">
+      <c r="A38" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55" t="s">
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55" t="s">
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="55" t="s">
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="N38" s="55"/>
-      <c r="O38" s="55"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="55" t="s">
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="R38" s="55"/>
-      <c r="S38" s="55"/>
-      <c r="T38" s="55"/>
-      <c r="U38" s="55" t="s">
+      <c r="R38" s="57"/>
+      <c r="S38" s="57"/>
+      <c r="T38" s="57"/>
+      <c r="U38" s="57" t="s">
         <v>220</v>
       </c>
-      <c r="V38" s="55"/>
-      <c r="W38" s="55"/>
-      <c r="X38" s="55"/>
-      <c r="Y38" s="55" t="s">
+      <c r="V38" s="57"/>
+      <c r="W38" s="57"/>
+      <c r="X38" s="57"/>
+      <c r="Y38" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="Z38" s="55"/>
-      <c r="AA38" s="55"/>
-      <c r="AB38" s="55"/>
+      <c r="Z38" s="57"/>
+      <c r="AA38" s="57"/>
+      <c r="AB38" s="57"/>
     </row>
     <row r="39" spans="1:28">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54" t="s">
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54" t="s">
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="J39" s="54"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="54" t="s">
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="N39" s="54"/>
-      <c r="O39" s="54"/>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="54" t="s">
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="R39" s="54"/>
-      <c r="S39" s="54"/>
-      <c r="T39" s="54"/>
-      <c r="U39" s="54" t="s">
+      <c r="R39" s="56"/>
+      <c r="S39" s="56"/>
+      <c r="T39" s="56"/>
+      <c r="U39" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="54"/>
-      <c r="W39" s="54"/>
-      <c r="X39" s="54"/>
-      <c r="Y39" s="54" t="s">
+      <c r="V39" s="56"/>
+      <c r="W39" s="56"/>
+      <c r="X39" s="56"/>
+      <c r="Y39" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="Z39" s="54"/>
-      <c r="AA39" s="54"/>
-      <c r="AB39" s="54"/>
+      <c r="Z39" s="56"/>
+      <c r="AA39" s="56"/>
+      <c r="AB39" s="56"/>
     </row>
     <row r="40" spans="1:28" ht="47.25" customHeight="1">
-      <c r="A40" s="55" t="s">
+      <c r="A40" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55" t="s">
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55" t="s">
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="J40" s="55"/>
-      <c r="K40" s="55"/>
-      <c r="L40" s="55"/>
-      <c r="M40" s="55" t="s">
+      <c r="J40" s="57"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="N40" s="55"/>
-      <c r="O40" s="55"/>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="55" t="s">
+      <c r="N40" s="57"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="57"/>
+      <c r="Q40" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="R40" s="55"/>
-      <c r="S40" s="55"/>
-      <c r="T40" s="55"/>
-      <c r="U40" s="55" t="s">
+      <c r="R40" s="57"/>
+      <c r="S40" s="57"/>
+      <c r="T40" s="57"/>
+      <c r="U40" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="V40" s="55"/>
-      <c r="W40" s="55"/>
-      <c r="X40" s="55"/>
-      <c r="Y40" s="55" t="s">
+      <c r="V40" s="57"/>
+      <c r="W40" s="57"/>
+      <c r="X40" s="57"/>
+      <c r="Y40" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="Z40" s="55"/>
-      <c r="AA40" s="55"/>
-      <c r="AB40" s="55"/>
+      <c r="Z40" s="57"/>
+      <c r="AA40" s="57"/>
+      <c r="AB40" s="57"/>
     </row>
     <row r="41" spans="1:28">
-      <c r="A41" s="54" t="s">
+      <c r="A41" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54" t="s">
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54" t="s">
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54" t="s">
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="N41" s="54"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="54"/>
-      <c r="Q41" s="54" t="s">
+      <c r="N41" s="56"/>
+      <c r="O41" s="56"/>
+      <c r="P41" s="56"/>
+      <c r="Q41" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="R41" s="54"/>
-      <c r="S41" s="54"/>
-      <c r="T41" s="54"/>
-      <c r="U41" s="54" t="s">
+      <c r="R41" s="56"/>
+      <c r="S41" s="56"/>
+      <c r="T41" s="56"/>
+      <c r="U41" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="V41" s="54"/>
-      <c r="W41" s="54"/>
-      <c r="X41" s="54"/>
-      <c r="Y41" s="54" t="s">
+      <c r="V41" s="56"/>
+      <c r="W41" s="56"/>
+      <c r="X41" s="56"/>
+      <c r="Y41" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="Z41" s="54"/>
-      <c r="AA41" s="54"/>
-      <c r="AB41" s="54"/>
+      <c r="Z41" s="56"/>
+      <c r="AA41" s="56"/>
+      <c r="AB41" s="56"/>
     </row>
     <row r="42" spans="1:28" ht="49.5" customHeight="1">
-      <c r="A42" s="55" t="s">
+      <c r="A42" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55" t="s">
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57" t="s">
         <v>183</v>
       </c>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55" t="s">
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="J42" s="55"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="55" t="s">
+      <c r="J42" s="57"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="57" t="s">
         <v>193</v>
       </c>
-      <c r="N42" s="55"/>
-      <c r="O42" s="55"/>
-      <c r="P42" s="55"/>
-      <c r="Q42" s="55" t="s">
+      <c r="N42" s="57"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="57"/>
+      <c r="Q42" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="R42" s="55"/>
-      <c r="S42" s="55"/>
-      <c r="T42" s="55"/>
-      <c r="U42" s="55" t="s">
+      <c r="R42" s="57"/>
+      <c r="S42" s="57"/>
+      <c r="T42" s="57"/>
+      <c r="U42" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="V42" s="55"/>
-      <c r="W42" s="55"/>
-      <c r="X42" s="55"/>
-      <c r="Y42" s="55" t="s">
+      <c r="V42" s="57"/>
+      <c r="W42" s="57"/>
+      <c r="X42" s="57"/>
+      <c r="Y42" s="57" t="s">
         <v>239</v>
       </c>
-      <c r="Z42" s="55"/>
-      <c r="AA42" s="55"/>
-      <c r="AB42" s="55"/>
+      <c r="Z42" s="57"/>
+      <c r="AA42" s="57"/>
+      <c r="AB42" s="57"/>
     </row>
     <row r="43" spans="1:28" ht="15.75" thickBot="1"/>
     <row r="44" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
@@ -4450,6 +4471,10 @@
       <c r="R44" s="29"/>
       <c r="S44" s="29"/>
       <c r="T44" s="29"/>
+      <c r="U44" s="29"/>
+      <c r="V44" s="29"/>
+      <c r="W44" s="29"/>
+      <c r="X44" s="29"/>
     </row>
     <row r="45" spans="1:28" ht="30.75" thickTop="1">
       <c r="A45" s="30" t="s">
@@ -4512,6 +4537,18 @@
       <c r="T45" s="44" t="s">
         <v>1</v>
       </c>
+      <c r="U45" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="V45" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="W45" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="X45" s="54" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:28" ht="30">
       <c r="A46" s="31" t="s">
@@ -4574,6 +4611,18 @@
       <c r="T46" s="45" t="s">
         <v>25</v>
       </c>
+      <c r="U46" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="V46" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="W46" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="X46" s="55" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="47" spans="1:28" ht="30">
       <c r="A47" s="30" t="s">
@@ -4626,6 +4675,16 @@
         <v>34</v>
       </c>
       <c r="T47" s="44"/>
+      <c r="U47" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="V47" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="W47" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="X47" s="54"/>
     </row>
     <row r="48" spans="1:28">
       <c r="A48" s="32" t="s">
@@ -4678,380 +4737,425 @@
         <v>50</v>
       </c>
       <c r="T48" s="45"/>
-    </row>
-    <row r="49" spans="1:20">
-      <c r="A49" s="54" t="s">
+      <c r="U48" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="V48" s="33">
+        <v>40321</v>
+      </c>
+      <c r="W48" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="X48" s="55"/>
+    </row>
+    <row r="49" spans="1:24">
+      <c r="A49" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54" t="s">
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54" t="s">
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="54"/>
-      <c r="K49" s="54"/>
-      <c r="L49" s="54"/>
-      <c r="M49" s="54" t="s">
+      <c r="J49" s="56"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="54"/>
-      <c r="O49" s="54"/>
-      <c r="P49" s="54"/>
-      <c r="Q49" s="54" t="s">
+      <c r="N49" s="56"/>
+      <c r="O49" s="56"/>
+      <c r="P49" s="56"/>
+      <c r="Q49" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="R49" s="54"/>
-      <c r="S49" s="54"/>
-      <c r="T49" s="54"/>
-    </row>
-    <row r="50" spans="1:20">
-      <c r="A50" s="55" t="s">
+      <c r="R49" s="56"/>
+      <c r="S49" s="56"/>
+      <c r="T49" s="56"/>
+      <c r="U49" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="56"/>
+      <c r="W49" s="56"/>
+      <c r="X49" s="56"/>
+    </row>
+    <row r="50" spans="1:24">
+      <c r="A50" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="B50" s="55"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="55" t="s">
+      <c r="B50" s="57"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="F50" s="55"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="55" t="s">
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="J50" s="55"/>
-      <c r="K50" s="55"/>
-      <c r="L50" s="55"/>
-      <c r="M50" s="55" t="s">
+      <c r="J50" s="57"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="57"/>
+      <c r="M50" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="N50" s="55"/>
-      <c r="O50" s="55"/>
-      <c r="P50" s="55"/>
-      <c r="Q50" s="55" t="s">
+      <c r="N50" s="57"/>
+      <c r="O50" s="57"/>
+      <c r="P50" s="57"/>
+      <c r="Q50" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="R50" s="55"/>
-      <c r="S50" s="55"/>
-      <c r="T50" s="55"/>
-    </row>
-    <row r="51" spans="1:20">
-      <c r="A51" s="54" t="s">
+      <c r="R50" s="57"/>
+      <c r="S50" s="57"/>
+      <c r="T50" s="57"/>
+      <c r="U50" s="57" t="s">
+        <v>241</v>
+      </c>
+      <c r="V50" s="57"/>
+      <c r="W50" s="57"/>
+      <c r="X50" s="57"/>
+    </row>
+    <row r="51" spans="1:24">
+      <c r="A51" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="54"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54" t="s">
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54" t="s">
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="J51" s="54"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="54"/>
-      <c r="M51" s="54" t="s">
+      <c r="J51" s="56"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="56"/>
+      <c r="M51" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="N51" s="54"/>
-      <c r="O51" s="54"/>
-      <c r="P51" s="54"/>
-      <c r="Q51" s="54" t="s">
+      <c r="N51" s="56"/>
+      <c r="O51" s="56"/>
+      <c r="P51" s="56"/>
+      <c r="Q51" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="R51" s="54"/>
-      <c r="S51" s="54"/>
-      <c r="T51" s="54"/>
-    </row>
-    <row r="52" spans="1:20" ht="49.5" customHeight="1">
-      <c r="A52" s="55" t="s">
+      <c r="R51" s="56"/>
+      <c r="S51" s="56"/>
+      <c r="T51" s="56"/>
+      <c r="U51" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="V51" s="56"/>
+      <c r="W51" s="56"/>
+      <c r="X51" s="56"/>
+    </row>
+    <row r="52" spans="1:24" ht="49.5" customHeight="1">
+      <c r="A52" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="B52" s="55"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55" t="s">
+      <c r="B52" s="57"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="55" t="s">
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="J52" s="55"/>
-      <c r="K52" s="55"/>
-      <c r="L52" s="55"/>
-      <c r="M52" s="55" t="s">
+      <c r="J52" s="57"/>
+      <c r="K52" s="57"/>
+      <c r="L52" s="57"/>
+      <c r="M52" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="N52" s="55"/>
-      <c r="O52" s="55"/>
-      <c r="P52" s="55"/>
-      <c r="Q52" s="55" t="s">
+      <c r="N52" s="57"/>
+      <c r="O52" s="57"/>
+      <c r="P52" s="57"/>
+      <c r="Q52" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="R52" s="55"/>
-      <c r="S52" s="55"/>
-      <c r="T52" s="55"/>
-    </row>
-    <row r="53" spans="1:20">
-      <c r="A53" s="54" t="s">
+      <c r="R52" s="57"/>
+      <c r="S52" s="57"/>
+      <c r="T52" s="57"/>
+      <c r="U52" s="57" t="s">
+        <v>242</v>
+      </c>
+      <c r="V52" s="57"/>
+      <c r="W52" s="57"/>
+      <c r="X52" s="57"/>
+    </row>
+    <row r="53" spans="1:24">
+      <c r="A53" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54" t="s">
+      <c r="B53" s="56"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54" t="s">
+      <c r="F53" s="56"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="J53" s="54"/>
-      <c r="K53" s="54"/>
-      <c r="L53" s="54"/>
-      <c r="M53" s="54" t="s">
+      <c r="J53" s="56"/>
+      <c r="K53" s="56"/>
+      <c r="L53" s="56"/>
+      <c r="M53" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="N53" s="54"/>
-      <c r="O53" s="54"/>
-      <c r="P53" s="54"/>
-      <c r="Q53" s="54" t="s">
+      <c r="N53" s="56"/>
+      <c r="O53" s="56"/>
+      <c r="P53" s="56"/>
+      <c r="Q53" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="R53" s="54"/>
-      <c r="S53" s="54"/>
-      <c r="T53" s="54"/>
-    </row>
-    <row r="54" spans="1:20" ht="49.5" customHeight="1">
-      <c r="A54" s="55" t="s">
+      <c r="R53" s="56"/>
+      <c r="S53" s="56"/>
+      <c r="T53" s="56"/>
+      <c r="U53" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="V53" s="56"/>
+      <c r="W53" s="56"/>
+      <c r="X53" s="56"/>
+    </row>
+    <row r="54" spans="1:24" ht="49.5" customHeight="1">
+      <c r="A54" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="55"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="55" t="s">
+      <c r="B54" s="57"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="F54" s="55"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="55" t="s">
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="J54" s="55"/>
-      <c r="K54" s="55"/>
-      <c r="L54" s="55"/>
-      <c r="M54" s="55" t="s">
+      <c r="J54" s="57"/>
+      <c r="K54" s="57"/>
+      <c r="L54" s="57"/>
+      <c r="M54" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="N54" s="55"/>
-      <c r="O54" s="55"/>
-      <c r="P54" s="55"/>
-      <c r="Q54" s="55" t="s">
+      <c r="N54" s="57"/>
+      <c r="O54" s="57"/>
+      <c r="P54" s="57"/>
+      <c r="Q54" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="R54" s="55"/>
-      <c r="S54" s="55"/>
-      <c r="T54" s="55"/>
-    </row>
-    <row r="55" spans="1:20">
-      <c r="A55" s="54" t="s">
+      <c r="R54" s="57"/>
+      <c r="S54" s="57"/>
+      <c r="T54" s="57"/>
+      <c r="U54" s="57" t="s">
+        <v>243</v>
+      </c>
+      <c r="V54" s="57"/>
+      <c r="W54" s="57"/>
+      <c r="X54" s="57"/>
+    </row>
+    <row r="55" spans="1:24">
+      <c r="A55" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="54"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54" t="s">
+      <c r="B55" s="56"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="F55" s="54"/>
-      <c r="G55" s="54"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="54" t="s">
+      <c r="F55" s="56"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="J55" s="54"/>
-      <c r="K55" s="54"/>
-      <c r="L55" s="54"/>
-      <c r="M55" s="54" t="s">
+      <c r="J55" s="56"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="56"/>
+      <c r="M55" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="N55" s="54"/>
-      <c r="O55" s="54"/>
-      <c r="P55" s="54"/>
-      <c r="Q55" s="54" t="s">
+      <c r="N55" s="56"/>
+      <c r="O55" s="56"/>
+      <c r="P55" s="56"/>
+      <c r="Q55" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="R55" s="54"/>
-      <c r="S55" s="54"/>
-      <c r="T55" s="54"/>
-    </row>
-    <row r="56" spans="1:20" ht="49.5" customHeight="1">
-      <c r="A56" s="55" t="s">
+      <c r="R55" s="56"/>
+      <c r="S55" s="56"/>
+      <c r="T55" s="56"/>
+      <c r="U55" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="V55" s="56"/>
+      <c r="W55" s="56"/>
+      <c r="X55" s="56"/>
+    </row>
+    <row r="56" spans="1:24" ht="49.5" customHeight="1">
+      <c r="A56" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="55"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55" t="s">
+      <c r="B56" s="57"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="55" t="s">
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="J56" s="55"/>
-      <c r="K56" s="55"/>
-      <c r="L56" s="55"/>
-      <c r="M56" s="55" t="s">
+      <c r="J56" s="57"/>
+      <c r="K56" s="57"/>
+      <c r="L56" s="57"/>
+      <c r="M56" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="N56" s="55"/>
-      <c r="O56" s="55"/>
-      <c r="P56" s="55"/>
-      <c r="Q56" s="55" t="s">
+      <c r="N56" s="57"/>
+      <c r="O56" s="57"/>
+      <c r="P56" s="57"/>
+      <c r="Q56" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="R56" s="55"/>
-      <c r="S56" s="55"/>
-      <c r="T56" s="55"/>
+      <c r="R56" s="57"/>
+      <c r="S56" s="57"/>
+      <c r="T56" s="57"/>
+      <c r="U56" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="V56" s="57"/>
+      <c r="W56" s="57"/>
+      <c r="X56" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="233">
-    <mergeCell ref="Q49:T49"/>
-    <mergeCell ref="Q50:T50"/>
-    <mergeCell ref="Q51:T51"/>
-    <mergeCell ref="Q52:T52"/>
-    <mergeCell ref="Q53:T53"/>
-    <mergeCell ref="Q54:T54"/>
-    <mergeCell ref="Q55:T55"/>
-    <mergeCell ref="Q56:T56"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="Q37:T37"/>
-    <mergeCell ref="Q38:T38"/>
-    <mergeCell ref="Q39:T39"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="U39:X39"/>
-    <mergeCell ref="U40:X40"/>
-    <mergeCell ref="U41:X41"/>
-    <mergeCell ref="U42:X42"/>
-    <mergeCell ref="AC12:AF12"/>
-    <mergeCell ref="AC13:AF13"/>
-    <mergeCell ref="AC14:AF14"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="Y35:AB35"/>
-    <mergeCell ref="Y36:AB36"/>
-    <mergeCell ref="Y37:AB37"/>
-    <mergeCell ref="Y38:AB38"/>
-    <mergeCell ref="Y39:AB39"/>
-    <mergeCell ref="Y40:AB40"/>
-    <mergeCell ref="Y41:AB41"/>
-    <mergeCell ref="Y42:AB42"/>
-    <mergeCell ref="AC7:AF7"/>
-    <mergeCell ref="AC8:AF8"/>
-    <mergeCell ref="AC9:AF9"/>
-    <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="Y7:AB7"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
+  <mergeCells count="241">
+    <mergeCell ref="U49:X49"/>
+    <mergeCell ref="U50:X50"/>
+    <mergeCell ref="U51:X51"/>
+    <mergeCell ref="U52:X52"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="U54:X54"/>
+    <mergeCell ref="U55:X55"/>
+    <mergeCell ref="U56:X56"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="AO7:AR7"/>
+    <mergeCell ref="AO8:AR8"/>
+    <mergeCell ref="AO9:AR9"/>
+    <mergeCell ref="AO10:AR10"/>
+    <mergeCell ref="AO11:AR11"/>
+    <mergeCell ref="AO12:AR12"/>
+    <mergeCell ref="AO13:AR13"/>
+    <mergeCell ref="AO14:AR14"/>
+    <mergeCell ref="AG7:AJ7"/>
+    <mergeCell ref="AG8:AJ8"/>
+    <mergeCell ref="AG9:AJ9"/>
+    <mergeCell ref="AG10:AJ10"/>
+    <mergeCell ref="AG11:AJ11"/>
+    <mergeCell ref="AG12:AJ12"/>
+    <mergeCell ref="AG13:AJ13"/>
+    <mergeCell ref="AG14:AJ14"/>
+    <mergeCell ref="AK7:AN7"/>
+    <mergeCell ref="AK8:AN8"/>
+    <mergeCell ref="AK9:AN9"/>
+    <mergeCell ref="AK10:AN10"/>
+    <mergeCell ref="AK11:AN11"/>
+    <mergeCell ref="AK12:AN12"/>
+    <mergeCell ref="AK13:AN13"/>
+    <mergeCell ref="AK14:AN14"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="M52:P52"/>
+    <mergeCell ref="M53:P53"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="M56:P56"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="Q22:T22"/>
     <mergeCell ref="A56:D56"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A52:D52"/>
@@ -5076,115 +5180,136 @@
     <mergeCell ref="A50:D50"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A13:D13"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="M52:P52"/>
-    <mergeCell ref="M53:P53"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="AO7:AR7"/>
-    <mergeCell ref="AO8:AR8"/>
-    <mergeCell ref="AO9:AR9"/>
-    <mergeCell ref="AO10:AR10"/>
-    <mergeCell ref="AO11:AR11"/>
-    <mergeCell ref="AO12:AR12"/>
-    <mergeCell ref="AO13:AR13"/>
-    <mergeCell ref="AO14:AR14"/>
-    <mergeCell ref="AG7:AJ7"/>
-    <mergeCell ref="AG8:AJ8"/>
-    <mergeCell ref="AG9:AJ9"/>
-    <mergeCell ref="AG10:AJ10"/>
-    <mergeCell ref="AG11:AJ11"/>
-    <mergeCell ref="AG12:AJ12"/>
-    <mergeCell ref="AG13:AJ13"/>
-    <mergeCell ref="AG14:AJ14"/>
-    <mergeCell ref="AK7:AN7"/>
-    <mergeCell ref="AK8:AN8"/>
-    <mergeCell ref="AK9:AN9"/>
-    <mergeCell ref="AK10:AN10"/>
-    <mergeCell ref="AK11:AN11"/>
-    <mergeCell ref="AK12:AN12"/>
-    <mergeCell ref="AK13:AN13"/>
-    <mergeCell ref="AK14:AN14"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="AC7:AF7"/>
+    <mergeCell ref="AC8:AF8"/>
+    <mergeCell ref="AC9:AF9"/>
+    <mergeCell ref="AC10:AF10"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="Y7:AB7"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="U39:X39"/>
+    <mergeCell ref="U40:X40"/>
+    <mergeCell ref="U41:X41"/>
+    <mergeCell ref="U42:X42"/>
+    <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="AC13:AF13"/>
+    <mergeCell ref="AC14:AF14"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="Y35:AB35"/>
+    <mergeCell ref="Y36:AB36"/>
+    <mergeCell ref="Y37:AB37"/>
+    <mergeCell ref="Y38:AB38"/>
+    <mergeCell ref="Y39:AB39"/>
+    <mergeCell ref="Y40:AB40"/>
+    <mergeCell ref="Y41:AB41"/>
+    <mergeCell ref="Y42:AB42"/>
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="Q50:T50"/>
+    <mergeCell ref="Q51:T51"/>
+    <mergeCell ref="Q52:T52"/>
+    <mergeCell ref="Q53:T53"/>
+    <mergeCell ref="Q54:T54"/>
+    <mergeCell ref="Q55:T55"/>
+    <mergeCell ref="Q56:T56"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="Q38:T38"/>
+    <mergeCell ref="Q39:T39"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="Q42:T42"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V32 AP4 AL4 AH4 R32 N32 J32 F32 R46 N46 J46 N18 J18 AD4 Z4 V4 R4 F46 F18 N4 J4 F4 B32 B18 B4 B46 R18 V18 Z32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V32 AP4 AL4 AH4 R32 N32 J32 F32 R46 N46 J46 N18 J18 AD4 Z4 V4 R4 F46 F18 N4 J4 F4 B32 B18 B4 B46 R18 V18 Z32 V46">
       <formula1>severity</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W32 AQ4 AM4 AI4 S32 O32 K32 G32 S46 O46 K46 O18 K18 AE4 AA4 W4 S4 G46 G18 O4 K4 G4 C32 C18 C4 C46 S18 W18 AA32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W32 AQ4 AM4 AI4 S32 O32 K32 G32 S46 O46 K46 O18 K18 AE4 AA4 W4 S4 G46 G18 O4 K4 G4 C32 C18 C4 C46 S18 W18 AA32 W46">
       <formula1>category</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X32 AR4 AN4 AJ4 T32 P32 L32 H32 T46 P46 L46 P18 L18 AF4 AB4 X4 T4 H46 H18 P4 L4 H4 D32 D18 D4 D46 T18 X18 AB32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X32 AR4 AN4 AJ4 T32 P32 L32 H32 T46 P46 L46 P18 L18 AF4 AB4 X4 T4 H46 H18 P4 L4 H4 D32 D18 D4 D46 T18 X18 AB32 X46">
       <formula1>component</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U34 AO6 AK6 AG6 Q34 M34 I34 E34 Q48 M48 I48 M20 I20 AC6 Y6 U6 Q6 E48 E20 M6 I6 E6 A34 A20 A6 A48 Q20 U20 Y34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U34 AO6 AK6 AG6 Q34 M34 I34 E34 Q48 M48 I48 M20 I20 AC6 Y6 U6 Q6 E48 E20 M6 I6 E6 A34 A20 A6 A48 Q20 U20 Y34 U48">
       <formula1>status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W34 AQ6 AM6 AI6 S34 O34 K34 G34 S48 O48 K48 O20 K20 AE6 AA6 W6 S6 G48 G20 O6 K6 G6 C34 C20 C6 C48 S20 W20 AA34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W34 AQ6 AM6 AI6 S34 O34 K34 G34 S48 O48 K48 O20 K20 AE6 AA6 W6 S6 G48 G20 O6 K6 G6 C34 C20 C6 C48 S20 W20 AA34 W48">
       <formula1>build_found</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44 B30 B16 B2">
